--- a/doc/JSP_20220513.xlsx
+++ b/doc/JSP_20220513.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DCOM_20220127\03_WEB\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556B7BBC-A347-467D-BC2E-35E2E5DA5C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E0FC0D-375A-461B-9972-8563709524AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-180" yWindow="70" windowWidth="13160" windowHeight="15280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="12630" windowHeight="15280" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="목차" sheetId="1" r:id="rId1"/>
-    <sheet name="temp " sheetId="3" r:id="rId2"/>
+    <sheet name="temp" sheetId="5" r:id="rId2"/>
+    <sheet name="servlet_20220516" sheetId="4" r:id="rId3"/>
+    <sheet name="jsp01_내장객체_20220513" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,102 +28,102 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="382">
   <si>
     <t>NO.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>목록</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>비고</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>용어집</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>환경설정</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>css</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>목
 차</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>\\192.168.3.101</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">강사Email : </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>jamesol@paran.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAFE : </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cafe.daum.net/pcwk</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Zoom : </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://us06web.zoom.us/j/5774287769?pwd=TFVXV3NkZkFnVWZ3NlVSVERZK0lZdz09</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slack</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://join.slack.com/t/slack-05r6316/shared_invite/zt-12h1if6yq-TCrMZZJtNbyjh93BGBnNAA</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>평가</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://itsc.cafe24.com/</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>html</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/ko/docs/Web/HTML</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/ko/docs/Web/CSS/Reference</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSP(Java Server Page)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>\\192.168.3.101</t>
+    <t>JSP, ASP, PHP</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">강사Email : </t>
+    <t>스크립트 언어</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>jamesol@paran.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAFE : </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://cafe.daum.net/pcwk</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Zoom : </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://us06web.zoom.us/j/5774287769?pwd=TFVXV3NkZkFnVWZ3NlVSVERZK0lZdz09</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Slack</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://join.slack.com/t/slack-05r6316/shared_invite/zt-12h1if6yq-TCrMZZJtNbyjh93BGBnNAA</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>평가</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://itsc.cafe24.com/</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>html</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://developer.mozilla.org/ko/docs/Web/HTML</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://developer.mozilla.org/ko/docs/Web/CSS/Reference</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSP(Java Server Page)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSP, ASP, PHP</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>스크립트 언어</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -149,39 +151,39 @@
       </rPr>
       <t>기반 서버</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>최초 서블릿으로 컴파일된 후에 메모리에서 처리된다.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Hello.jsp</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Hello.java</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Hello.class</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>동작</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Servlet</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>자바의 모든 기능을 사용할 수 있다</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">jsp 또는 다른 서블릿 간 데이터 공유가 쉽다. </t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>사용자 정의 태그를 만들어 사용할 수 있다,(JSTL)</t>
@@ -546,15 +548,15 @@
   </si>
   <si>
     <t>긍정의 마음으로 살자</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>jsp</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>html, css, javascript, jquery</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -571,7 +573,7 @@
       </rPr>
       <t>Servlet</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">       comment</t>
@@ -732,91 +734,87 @@
   </si>
   <si>
     <t>지시어(Directives)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>jsp페이지에 속성을 기술하는 곳으로 jsp 컨테이너에게</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>해당 페이지를 어떻게 처리해야 하는지 전달하기 위한 내용을 담고 있다.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%@ page 속성='값' 속성='값 … %&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>language : 페이지에서 사용하는 언어</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>contentType : jsp MIME</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>pageEncoding : UTF-8, euc-kr, ISO-8859-1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>import : java import와 동일</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>속성</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>설명</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>session</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>세션 사용 여부를 지정</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>buffer</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>출력 버퍼의 크기를 지정</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>trimDirectiveWhite</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>errorPage</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>isErrorPage</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>html 출력 상단 2줄 공백 제거</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>해당 페이지에서 에러가 발생했을 때 에러 발생 여부를 보여줄 페이지 지정</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>해당 페이지가 에러를 처리할지 여부를 지정</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>autoFlush</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>출력 버퍼가 모두 채워졌을 때 자동으로 비울지를 결정</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">        </t>
@@ -1187,19 +1185,19 @@
   </si>
   <si>
     <t>errorPage 지정</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>&lt;%@ page errorPage='error.jsp' %&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>error를 처리하기 위한 페이지가 되기 위한 조건</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>&lt;%@ page isErrorPage='true' %&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>%&gt;</t>
@@ -1881,11 +1879,11 @@
   </si>
   <si>
     <t>1.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2155,7 +2153,7 @@
   </si>
   <si>
     <t>error.jsp</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">         빠른 시간에 복구하겠습니다.</t>
@@ -2562,35 +2560,35 @@
   </si>
   <si>
     <t>실습</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>jsp의 스크립트 요소</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1. 스크립트릿(Scriptlet) : &lt;% %&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2. 표현식(Expression) : &lt;%= %&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>3. 선언부(Declaration) : &lt;%! %&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>자바코드</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>자바코드지만 세미콜론이 오면 안됨</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>함수 만들기 권장되지 않음</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">jsp의 스크립트 요소                                    </t>
@@ -3566,55 +3564,55 @@
   </si>
   <si>
     <t>jsp 내장 객체</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>jsp 내에서 선언하지 않고 사용하는 객체</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>request 메서드</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>사용자가 form에 입력한 param을 얻어낼 수 있는 기능</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>메서드</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>String getParameter(name)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>param name에 저장된 값을 추출, 없으면 null return</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>String[] getParameterValues(name)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>param name이 같은 변수들의 값들이 배열로 들어온다.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Enumeration getParameterNames()</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>String getRemoteAddr()</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>클라이언트 ip</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>param으로 넘어오는 변수이름을 모두 추출 가능</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">    request내장 객체 : 웹브라우저 요청에 대한 처리</t>
@@ -4363,11 +4361,11 @@
   </si>
   <si>
     <t>h07_form.jsp '-&gt; j07_form_request.jsp</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>form 요청</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">     }</t>
@@ -6113,15 +6111,15 @@
   </si>
   <si>
     <t>response 내장 객체</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>request 기본 객체와 반대의 기능을 수행</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>웹 브라우저에 전송할 내용을 담을 수 있다.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">웹 캐시(영어: web cache) 또는 HTTP 캐시(HTTP cache)는 서버 지연을 줄이기 위해 웹 페이지, </t>
@@ -6131,7 +6129,7 @@
   </si>
   <si>
     <t>-헤더 입력 : cache control</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">                                              </t>
@@ -6598,19 +6596,19 @@
   </si>
   <si>
     <t>include 지시어</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>현재 jsp 파일에 다른 html이나 jsp문서를 포함하기 위한 기능을 제공한다.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>h10_include.jsp</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>h10_1_footer.jsp</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">        Copyright &amp;copy; 2022 PCWK All rights reserved;</t>
@@ -6785,35 +6783,35 @@
   </si>
   <si>
     <t>response를 이용한 페이지 이동</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>response에 리다이렉트</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>웹서버가 웹브라우저에게 다른 페이지로 이동하라고 응답하는 기능</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>ex)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>response.sendRedirect("이동할 url");</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>index.jsp</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>h11_response_redirect.jsp</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>로그인 성공하면 index.jsp로 이동</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7398,19 +7396,1217 @@
       </rPr>
       <t xml:space="preserve">                                                                                                                                    </t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%@ page 속성='값' 속성='값' … %&gt;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>servlet</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Log4J</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Servlet Life Cycle</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mvnrepository.com/artifact/org.apache.logging.log4j/log4j-core/2.17.1</t>
+  </si>
+  <si>
+    <t>download url</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>안돼서 보류</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Servlet과 jsp의 역사</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Servlet</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. jsp : Servlet의 단점인 view표현에 노력이 과다하게 들어간다.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>/**</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * Servlet implementation class ServletLifeCycle</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> */</t>
+  </si>
+  <si>
+    <t>@WebServlet(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                })</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     * @see HttpServlet#HttpServlet()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         * @see Servlet#init(ServletConfig)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         * @see Servlet#destroy()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         * @see HttpServlet#service(HttpServletRequest request, HttpServletResponse response)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         * @see HttpServlet#doGet(HttpServletRequest request, HttpServletResponse response)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         * @see HttpServlet#doPost(HttpServletRequest request, HttpServletResponse response)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                doGet(request, response);</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <r>
+      <t>package</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> com.pcwk.cclass.servlet;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> java.io.IOException;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> javax.servlet.ServletConfig;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> javax.servlet.ServletException;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> javax.servlet.annotation.WebServlet;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> javax.servlet.http.HttpServlet;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> javax.servlet.http.HttpServletRequest;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> javax.servlet.http.HttpServletResponse;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> org.apache.log4j.Logger;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                description </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF63A35C"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"라이프 사이클"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                urlPatterns </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> { </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF63A35C"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"/ServletLifeCycle"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF63A35C"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"/pcwk/life.do"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>public</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> ServletLifeCycle </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>extends</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> HttpServlet {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>private</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>static</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>final</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>long</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> serialVersionUID </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 1L;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>private</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Logger LOG </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Logger.getLogger(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>getClass</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>());</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF999999"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>public</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> ServletLifeCycle() {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>super</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        LOG.debug(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF63A35C"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"====================="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        LOG.debug(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF63A35C"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"=1. ServletLifeCycle()="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF999999"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>public</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> init(ServletConfig config) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>throws</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> ServletException {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                LOG.debug(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF63A35C"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"====================="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                LOG.debug(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF63A35C"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"=2. init()="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>public</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> destroy() {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                LOG.debug(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF63A35C"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"=5. destroy()="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>protected</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> service(HttpServletRequest request, HttpServletResponse response) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>throws</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> ServletException, IOException {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                LOG.debug(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF63A35C"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"=3. service()="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>super</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.service(request, response);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>protected</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> doGet(HttpServletRequest request, HttpServletResponse response) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>throws</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> ServletException, IOException {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                LOG.debug(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF63A35C"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"=4. doGet()="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                response.getWriter().append(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF63A35C"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Served at: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>).append(request.getContextPath());</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>protected</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> doPost(HttpServletRequest request, HttpServletResponse response) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>throws</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> ServletException, IOException {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                LOG.debug(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF63A35C"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"=4. doPost()="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>뷰 표현이 힘들다</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>유지보수가 힘들다.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. MVC(Model View Controller)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Servlet Controller의 역할을 하게 된다.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. jsp의 단점 : html, java, css, javascript 스파게티 코드 발생</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 등록(제목, 내용)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>param을 VO</t>
+  </si>
+  <si>
+    <t>BoardController.java(servlet)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>doSave</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>doRetrieve</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>doSelectOne</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>doUpdate</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>doDelete</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>work_div</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>url: /board/board.do</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tomcat(WAS)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7805,192 +9001,201 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="3" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="3" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="3" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="3" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="3" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="3" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="3" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="3" quotePrefix="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="3" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="3" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="3" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="3" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="3" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="3" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="9" xfId="3" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="11" xfId="3" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="12" xfId="3" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="3" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="3" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="3" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="3" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="3" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="3" quotePrefix="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="3" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="3" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="6" xfId="3" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="3" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="3" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="3" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="3" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="12" xfId="3" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -8018,6 +9223,621 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>10393</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>93219</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152334</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>212748</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="직사각형 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4B8EFF6-E752-D806-3856-31C3A548BCA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1700045" y="25222654"/>
+          <a:ext cx="1897854" cy="798703"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>View</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>238993</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>25028</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>90135</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>146765</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="직사각형 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25640F5B-0962-4F00-8A93-2CFF1268D4AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4264893" y="23799428"/>
+          <a:ext cx="1895842" cy="807537"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>Controller</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>81364</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>146765</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>18514</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>93219</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="연결선: 구부러짐 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41636050-F3F9-435E-212F-18413C00194C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="0"/>
+          <a:endCxn id="12" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="3353312" y="23608317"/>
+          <a:ext cx="860854" cy="2858150"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>270565</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>93868</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>121155</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>213397</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="직사각형 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{733DD1CF-8532-469E-AE4B-DB2279FFFF09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4594087" y="25223303"/>
+          <a:ext cx="1899155" cy="798703"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>Model</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>DAO</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>27609</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>33129</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>171174</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>220868</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="원통형 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7774F14-44CF-84AF-284E-4DA622E1D66A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7277652" y="25162564"/>
+          <a:ext cx="1314174" cy="866913"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>18515</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>146764</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>49811</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>93867</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="연결선: 구부러짐 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DFC1D7E-5762-B108-5CD9-802E7C1D614B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="2"/>
+          <a:endCxn id="15" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4797711" y="25022068"/>
+          <a:ext cx="861503" cy="31296"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>93041</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>39479</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>105741</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>827</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="연결선: 꺾임 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9FA5596-ECF4-28BA-765C-53BF5F8237E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="3"/>
+          <a:endCxn id="17" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1">
+          <a:off x="7501282" y="25596021"/>
+          <a:ext cx="866913" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector5">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -26369"/>
+            <a:gd name="adj2" fmla="val 6973913"/>
+            <a:gd name="adj3" fmla="val 126369"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>121155</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>33129</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>110435</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>40438</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="직선 화살표 연결선 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B50F731-3A82-9569-9777-2BB9227056DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="15" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6493242" y="25615346"/>
+          <a:ext cx="574584" cy="7309"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>63499</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>215640</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="그림 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA47F35F-24F5-D7F3-B526-39D63FEB04AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect r="46121" b="39754"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2920999" y="27101800"/>
+          <a:ext cx="2781041" cy="2762250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="사각형: 둥근 모서리 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FEDBE28-FC6A-1CDA-3975-14EECE97995C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4070350" y="23545800"/>
+          <a:ext cx="2311400" cy="2914650"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -8623,35 +10443,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="C10" sqref="C10:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="12" customWidth="1"/>
-    <col min="2" max="16384" width="8.6640625" style="12"/>
+    <col min="1" max="1" width="4.5" style="5" customWidth="1"/>
+    <col min="2" max="16384" width="8.6640625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17.149999999999999" customHeight="1">
-      <c r="A1" s="11"/>
+      <c r="A1" s="46"/>
     </row>
     <row r="2" spans="1:9" ht="17.149999999999999" customHeight="1">
-      <c r="A2" s="11"/>
+      <c r="A2" s="46"/>
     </row>
     <row r="3" spans="1:9" ht="17.149999999999999" customHeight="1">
-      <c r="A3" s="11"/>
+      <c r="A3" s="46"/>
     </row>
     <row r="4" spans="1:9" ht="17.149999999999999" customHeight="1">
-      <c r="A4" s="11"/>
+      <c r="A4" s="46"/>
     </row>
     <row r="5" spans="1:9" ht="17.149999999999999" customHeight="1">
-      <c r="A5" s="11"/>
+      <c r="A5" s="46"/>
     </row>
     <row r="6" spans="1:9" ht="17.149999999999999" customHeight="1">
-      <c r="A6" s="11"/>
+      <c r="A6" s="46"/>
     </row>
     <row r="7" spans="1:9" ht="17.149999999999999" customHeight="1">
       <c r="B7" s="1" t="s">
@@ -8673,3179 +10493,3970 @@
       <c r="B8" s="4">
         <v>0</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="7"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="49"/>
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:9" ht="17.149999999999999" customHeight="1">
       <c r="B9" s="4">
         <v>1</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="10"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="52"/>
       <c r="I9" s="4"/>
     </row>
+    <row r="10" spans="1:9" ht="17.149999999999999" customHeight="1">
+      <c r="B10" s="4">
+        <v>2</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>303</v>
+      </c>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:A6"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:H10"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C8:H8" location="용어집!A1" display="용어집" xr:uid="{BF1FAEC9-2238-474D-9911-A7ADD745CA01}"/>
     <hyperlink ref="C9:H9" location="WEB_20220414!A1" display="환경설정" xr:uid="{00615576-EC01-4398-8F73-84B5296E269C}"/>
+    <hyperlink ref="C10:H10" location="servlet_20220516!A1" display="servlet" xr:uid="{4D321EB8-C9B2-4252-8DF7-05F9C2A33D17}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBB27A66-D63B-46A9-BA60-EF871E53836C}">
-  <dimension ref="A1:AG526"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7B8F24C-F900-4518-BA50-EE1E9FD86A71}">
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A513" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA523" sqref="AA523"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.83203125" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3" style="14" customWidth="1"/>
-    <col min="2" max="16384" width="3.83203125" style="14"/>
+    <col min="1" max="1" width="3" style="6" customWidth="1"/>
+    <col min="2" max="16384" width="3.83203125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18" customHeight="1">
+      <c r="A1" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18" customHeight="1">
+      <c r="A2" s="61"/>
+      <c r="B2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18" customHeight="1">
+      <c r="A3" s="61"/>
+      <c r="B3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18" customHeight="1">
+      <c r="A4" s="61"/>
+      <c r="B4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18" customHeight="1">
+      <c r="A5" s="61"/>
+      <c r="B5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18" customHeight="1">
+      <c r="A6" s="61"/>
+      <c r="B6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18" customHeight="1">
+      <c r="A7" s="61"/>
+      <c r="B7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18" customHeight="1">
+      <c r="A8" s="61"/>
+      <c r="B8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18" customHeight="1">
+      <c r="A9" s="61"/>
+      <c r="B9" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A9"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{E8C2D0D0-9C8E-4A46-9E4F-F6F049228F95}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{757F8911-2014-4C19-82E6-93CADDF5ED37}"/>
+    <hyperlink ref="A1:A9" location="목차!A1" display="목차!A1" xr:uid="{FF41E6B7-24BE-4772-A418-FD9054E50A08}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{9CE3C6C3-6934-4BF6-8735-A83870349991}"/>
+    <hyperlink ref="D1" r:id="rId4" xr:uid="{351D042B-EE5F-4746-B935-C547CCDB66CE}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{2FE69B26-CE50-4519-B1F7-BA9EC28F9191}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{B082CCF4-45E8-49C4-B6D4-9707AA1A7A01}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{066C5DC3-22E1-49EB-9EF6-B0B7B6FE5A3F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId8"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE21597-3425-4D96-89ED-44A782BEDFA9}">
+  <dimension ref="A1:X124"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R98" sqref="R98"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.83203125" defaultRowHeight="18" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="3" style="6" customWidth="1"/>
+    <col min="2" max="16384" width="3.83203125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" ht="18" customHeight="1">
+      <c r="A1" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="18" customHeight="1">
+      <c r="A2" s="61"/>
+      <c r="B2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="18" customHeight="1">
+      <c r="A3" s="61"/>
+      <c r="B3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="18" customHeight="1">
+      <c r="A4" s="61"/>
+      <c r="B4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="18" customHeight="1">
+      <c r="A5" s="61"/>
+      <c r="B5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="18" customHeight="1">
+      <c r="A6" s="61"/>
+      <c r="B6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="18" customHeight="1">
+      <c r="A7" s="61"/>
+      <c r="B7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="18" customHeight="1">
+      <c r="A8" s="61"/>
+      <c r="B8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="18" customHeight="1">
+      <c r="A9" s="61"/>
+      <c r="B9" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="18" customHeight="1">
+      <c r="C11" s="63" t="s">
+        <v>305</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="13" spans="1:24" ht="18" customHeight="1">
+      <c r="D13" s="64" t="s">
+        <v>304</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+    </row>
+    <row r="14" spans="1:24" ht="18" customHeight="1">
+      <c r="E14" s="62" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="18" customHeight="1">
+      <c r="F15" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="X15" s="29" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6" ht="18" customHeight="1">
+      <c r="F17" s="30" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6" ht="18" customHeight="1">
+      <c r="F18" s="30" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6" ht="18" customHeight="1">
+      <c r="F19" s="30" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="20" spans="6:6" ht="18" customHeight="1">
+      <c r="F20" s="30" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="21" spans="6:6" ht="18" customHeight="1">
+      <c r="F21" s="30" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="22" spans="6:6" ht="18" customHeight="1">
+      <c r="F22" s="30" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="23" spans="6:6" ht="18" customHeight="1">
+      <c r="F23" s="30" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="24" spans="6:6" ht="18" customHeight="1">
+      <c r="F24" s="30" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="25" spans="6:6" ht="18" customHeight="1">
+      <c r="F25" s="30" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="26" spans="6:6" ht="18" customHeight="1">
+      <c r="F26" s="13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="27" spans="6:6" ht="18" customHeight="1">
+      <c r="F27" s="13" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="28" spans="6:6" ht="18" customHeight="1">
+      <c r="F28" s="13" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="29" spans="6:6" ht="18" customHeight="1">
+      <c r="F29" s="12" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="30" spans="6:6" ht="18" customHeight="1">
+      <c r="F30" s="12" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="31" spans="6:6" ht="18" customHeight="1">
+      <c r="F31" s="12" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="32" spans="6:6" ht="18" customHeight="1">
+      <c r="F32" s="12" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="33" spans="6:6" ht="18" customHeight="1">
+      <c r="F33" s="12" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="34" spans="6:6" ht="18" customHeight="1">
+      <c r="F34" s="12" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="35" spans="6:6" ht="18" customHeight="1">
+      <c r="F35" s="30" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="36" spans="6:6" ht="18" customHeight="1">
+      <c r="F36" s="12" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="37" spans="6:6" ht="18" customHeight="1">
+      <c r="F37" s="12" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="38" spans="6:6" ht="18" customHeight="1">
+      <c r="F38" s="12" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="39" spans="6:6" ht="18" customHeight="1">
+      <c r="F39" s="12" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="40" spans="6:6" ht="18" customHeight="1">
+      <c r="F40" s="13" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="41" spans="6:6" ht="18" customHeight="1">
+      <c r="F41" s="13" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="42" spans="6:6" ht="18" customHeight="1">
+      <c r="F42" s="12" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="43" spans="6:6" ht="18" customHeight="1">
+      <c r="F43" s="12" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="44" spans="6:6" ht="18" customHeight="1">
+      <c r="F44" s="12" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="45" spans="6:6" ht="18" customHeight="1">
+      <c r="F45" s="12" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="46" spans="6:6" ht="18" customHeight="1">
+      <c r="F46" s="12" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="47" spans="6:6" ht="18" customHeight="1">
+      <c r="F47" s="12" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="48" spans="6:6" ht="18" customHeight="1">
+      <c r="F48" s="12" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="49" spans="6:6" ht="18" customHeight="1">
+      <c r="F49" s="13" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="50" spans="6:6" ht="18" customHeight="1">
+      <c r="F50" s="13" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="51" spans="6:6" ht="18" customHeight="1">
+      <c r="F51" s="12" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="52" spans="6:6" ht="18" customHeight="1">
+      <c r="F52" s="12" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="53" spans="6:6" ht="18" customHeight="1">
+      <c r="F53" s="12" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="54" spans="6:6" ht="18" customHeight="1">
+      <c r="F54" s="12" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="55" spans="6:6" ht="18" customHeight="1">
+      <c r="F55" s="12" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="56" spans="6:6" ht="18" customHeight="1">
+      <c r="F56" s="12" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="57" spans="6:6" ht="18" customHeight="1">
+      <c r="F57" s="13" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="58" spans="6:6" ht="18" customHeight="1">
+      <c r="F58" s="13" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="59" spans="6:6" ht="18" customHeight="1">
+      <c r="F59" s="12" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="60" spans="6:6" ht="18" customHeight="1">
+      <c r="F60" s="12" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="61" spans="6:6" ht="18" customHeight="1">
+      <c r="F61" s="12" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="62" spans="6:6" ht="18" customHeight="1">
+      <c r="F62" s="12" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="63" spans="6:6" ht="18" customHeight="1">
+      <c r="F63" s="12" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="64" spans="6:6" ht="18" customHeight="1">
+      <c r="F64" s="12" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="65" spans="6:6" ht="18" customHeight="1">
+      <c r="F65" s="13" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="66" spans="6:6" ht="18" customHeight="1">
+      <c r="F66" s="13" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="67" spans="6:6" ht="18" customHeight="1">
+      <c r="F67" s="12" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="68" spans="6:6" ht="18" customHeight="1">
+      <c r="F68" s="12" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="69" spans="6:6" ht="18" customHeight="1">
+      <c r="F69" s="12" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="70" spans="6:6" ht="18" customHeight="1">
+      <c r="F70" s="12" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="71" spans="6:6" ht="18" customHeight="1">
+      <c r="F71" s="12" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="72" spans="6:6" ht="18" customHeight="1">
+      <c r="F72" s="12" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="73" spans="6:6" ht="18" customHeight="1">
+      <c r="F73" s="12" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="74" spans="6:6" ht="18" customHeight="1">
+      <c r="F74" s="13" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="75" spans="6:6" ht="18" customHeight="1">
+      <c r="F75" s="13" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="76" spans="6:6" ht="18" customHeight="1">
+      <c r="F76" s="12" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="77" spans="6:6" ht="18" customHeight="1">
+      <c r="F77" s="12" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="78" spans="6:6" ht="18" customHeight="1">
+      <c r="F78" s="12" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="79" spans="6:6" ht="18" customHeight="1">
+      <c r="F79" s="12" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="80" spans="6:6" ht="18" customHeight="1">
+      <c r="F80" s="12" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="81" spans="3:8" ht="18" customHeight="1">
+      <c r="F81" s="12" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="82" spans="3:8" ht="18" customHeight="1">
+      <c r="F82" s="12" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="83" spans="3:8" ht="18" customHeight="1">
+      <c r="F83" s="13" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="84" spans="3:8" ht="18" customHeight="1">
+      <c r="F84" s="13" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="85" spans="3:8" ht="18" customHeight="1">
+      <c r="F85" s="12" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="86" spans="3:8" ht="18" customHeight="1">
+      <c r="F86" s="12" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="87" spans="3:8" ht="18" customHeight="1">
+      <c r="F87" s="12" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="88" spans="3:8" ht="18" customHeight="1">
+      <c r="F88" s="12" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="89" spans="3:8" ht="18" customHeight="1">
+      <c r="F89" s="12" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="90" spans="3:8" ht="18" customHeight="1">
+      <c r="F90" s="12" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="91" spans="3:8" ht="18" customHeight="1">
+      <c r="F91" s="12" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="93" spans="3:8" ht="18" customHeight="1">
+      <c r="C93" s="63" t="s">
+        <v>309</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c r="H93" s="8"/>
+    </row>
+    <row r="94" spans="3:8" ht="18" customHeight="1">
+      <c r="D94" s="62" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="95" spans="3:8" ht="18" customHeight="1">
+      <c r="E95" s="62" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="96" spans="3:8" ht="18" customHeight="1">
+      <c r="E96" s="62"/>
+    </row>
+    <row r="97" spans="4:23" ht="18" customHeight="1">
+      <c r="D97" s="62" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="98" spans="4:23" ht="18" customHeight="1">
+      <c r="D98" s="62"/>
+      <c r="F98" s="62" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="99" spans="4:23" ht="18" customHeight="1">
+      <c r="D99" s="62"/>
+      <c r="F99" s="62"/>
+    </row>
+    <row r="100" spans="4:23" ht="18" customHeight="1">
+      <c r="D100" s="62" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="101" spans="4:23" ht="18" customHeight="1">
+      <c r="D101" s="62"/>
+    </row>
+    <row r="102" spans="4:23" ht="18" customHeight="1">
+      <c r="D102" s="62" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="103" spans="4:23" ht="18" customHeight="1">
+      <c r="E103" s="62" t="s">
+        <v>368</v>
+      </c>
+      <c r="R103" s="62" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="106" spans="4:23" ht="18" customHeight="1">
+      <c r="R106" s="62"/>
+    </row>
+    <row r="107" spans="4:23" ht="18" customHeight="1">
+      <c r="W107" s="6" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="109" spans="4:23" ht="18" customHeight="1">
+      <c r="H109" s="62" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="110" spans="4:23" ht="18" customHeight="1">
+      <c r="H110" s="62"/>
+    </row>
+    <row r="116" spans="3:9" ht="18" customHeight="1">
+      <c r="F116" s="62" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="117" spans="3:9" ht="18" customHeight="1">
+      <c r="F117" s="62"/>
+    </row>
+    <row r="118" spans="3:9" ht="18" customHeight="1">
+      <c r="C118" s="63" t="s">
+        <v>380</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="63"/>
+      <c r="G118" s="8"/>
+      <c r="H118" s="8"/>
+      <c r="I118" s="8"/>
+    </row>
+    <row r="119" spans="3:9" ht="18" customHeight="1">
+      <c r="C119" s="63" t="s">
+        <v>373</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c r="H119" s="8"/>
+      <c r="I119" s="8"/>
+    </row>
+    <row r="120" spans="3:9" ht="18" customHeight="1">
+      <c r="C120" s="62" t="s">
+        <v>379</v>
+      </c>
+      <c r="F120" s="62" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="121" spans="3:9" ht="18" customHeight="1">
+      <c r="F121" s="62" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="122" spans="3:9" ht="18" customHeight="1">
+      <c r="F122" s="62" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="123" spans="3:9" ht="18" customHeight="1">
+      <c r="F123" s="62" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="124" spans="3:9" ht="18" customHeight="1">
+      <c r="F124" s="62" t="s">
+        <v>378</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A9"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{3267B893-B558-417C-AECD-68E95FE9780C}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{F80D48AF-A25B-4026-9266-92AC82705362}"/>
+    <hyperlink ref="A1:A9" location="목차!A1" display="목차!A1" xr:uid="{E4B33853-7BC0-4045-A49C-6704062CE132}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{5E0E433A-3350-4A89-9E83-E9F4D81FDAB3}"/>
+    <hyperlink ref="D1" r:id="rId4" xr:uid="{5660CEA2-7089-49F0-8922-B5F0D4E57F24}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{FF7CBEA0-E66F-4EBE-A574-1E278DD03D13}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{C5EDE850-EB5D-4309-A361-9CE1366C4FE3}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{0B92DDEB-12B3-4174-BE0B-15327FA496F6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId8"/>
+  <drawing r:id="rId9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBB27A66-D63B-46A9-BA60-EF871E53836C}">
+  <dimension ref="A1:AG526"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A292" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G295" sqref="G295:T295"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.83203125" defaultRowHeight="18" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="3" style="6" customWidth="1"/>
+    <col min="2" max="16384" width="3.83203125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18" customHeight="1">
-      <c r="A2" s="16"/>
-      <c r="B2" s="14" t="s">
+      <c r="A2" s="61"/>
+      <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" customHeight="1">
-      <c r="A3" s="16"/>
-      <c r="B3" s="14" t="s">
+      <c r="A3" s="61"/>
+      <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18" customHeight="1">
-      <c r="A4" s="16"/>
-      <c r="B4" s="14" t="s">
+      <c r="A4" s="61"/>
+      <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18" customHeight="1">
-      <c r="A5" s="16"/>
-      <c r="B5" s="14" t="s">
+      <c r="A5" s="61"/>
+      <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18" customHeight="1">
-      <c r="A6" s="16"/>
-      <c r="B6" s="14" t="s">
+      <c r="A6" s="61"/>
+      <c r="B6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18" customHeight="1">
-      <c r="A7" s="16"/>
-      <c r="B7" s="14" t="s">
+      <c r="A7" s="61"/>
+      <c r="B7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1">
-      <c r="A8" s="16"/>
-      <c r="B8" s="14" t="s">
+      <c r="A8" s="61"/>
+      <c r="B8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1">
-      <c r="A9" s="16"/>
-      <c r="B9" s="14" t="s">
+      <c r="A9" s="61"/>
+      <c r="B9" s="6" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1">
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1">
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1">
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="18" customHeight="1">
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="18" customHeight="1">
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="4:15" ht="18" customHeight="1">
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="18" spans="4:15" ht="18" customHeight="1">
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="19" spans="4:15" ht="18" customHeight="1">
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="22" spans="4:15" ht="18" customHeight="1">
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="19"/>
+      <c r="E22" s="10"/>
     </row>
     <row r="23" spans="4:15" ht="18" customHeight="1">
-      <c r="F23" s="18" t="s">
+      <c r="F23" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G23" s="20"/>
-      <c r="H23" s="19"/>
-      <c r="J23" s="14" t="s">
+      <c r="G23" s="11"/>
+      <c r="H23" s="10"/>
+      <c r="J23" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="24" spans="4:15" ht="18" customHeight="1">
-      <c r="J24" s="18" t="s">
+      <c r="J24" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K24" s="20"/>
-      <c r="L24" s="19"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="10"/>
     </row>
     <row r="25" spans="4:15" ht="18" customHeight="1">
-      <c r="N25" s="18" t="s">
+      <c r="N25" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="O25" s="19"/>
+      <c r="O25" s="10"/>
     </row>
     <row r="27" spans="4:15" ht="18" customHeight="1">
-      <c r="D27" s="29" t="s">
+      <c r="D27" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="4:15" ht="18" customHeight="1">
+      <c r="D28" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="4:15" ht="18" customHeight="1">
+      <c r="D29" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="4:15" ht="18" customHeight="1">
+      <c r="D30" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="4:15" ht="18" customHeight="1">
+      <c r="D31" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="4:15" ht="18" customHeight="1">
+      <c r="D32" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" ht="18" customHeight="1">
+      <c r="D33" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" ht="18" customHeight="1">
+      <c r="D34" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4" ht="18" customHeight="1">
+      <c r="D35" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4" ht="18" customHeight="1">
+      <c r="D36" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4" ht="18" customHeight="1">
+      <c r="D37" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4" ht="18" customHeight="1">
+      <c r="D38" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4" ht="18" customHeight="1">
+      <c r="D39" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4" ht="18" customHeight="1">
+      <c r="D40" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="4:4" ht="18" customHeight="1">
+      <c r="D41" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4" ht="18" customHeight="1">
+      <c r="D42" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="4:4" ht="18" customHeight="1">
+      <c r="D43" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="4:4" ht="18" customHeight="1">
+      <c r="D44" s="12" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="4:15" ht="18" customHeight="1">
-      <c r="D28" s="29" t="s">
+    <row r="45" spans="4:4" ht="18" customHeight="1">
+      <c r="D45" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="4:4" ht="18" customHeight="1">
+      <c r="D46" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="4:4" ht="18" customHeight="1">
+      <c r="D47" s="12"/>
+    </row>
+    <row r="57" spans="4:6" ht="18" customHeight="1">
+      <c r="D57" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+    </row>
+    <row r="58" spans="4:6" ht="18" customHeight="1">
+      <c r="E58" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="4:6" ht="18" customHeight="1">
+      <c r="E59" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="61" spans="4:6" ht="18" customHeight="1">
+      <c r="E61" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="4:6" ht="18" customHeight="1">
+      <c r="E62" s="12" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="4:15" ht="18" customHeight="1">
-      <c r="D29" s="21" t="s">
+    <row r="63" spans="4:6" ht="18" customHeight="1">
+      <c r="E63" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="64" spans="4:6" ht="18" customHeight="1">
+      <c r="E64" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="65" spans="5:5" ht="18" customHeight="1">
+      <c r="E65" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="66" spans="5:5" ht="18" customHeight="1">
+      <c r="E66" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="67" spans="5:5" ht="18" customHeight="1">
+      <c r="E67" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="68" spans="5:5" ht="18" customHeight="1">
+      <c r="E68" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="69" spans="5:5" ht="18" customHeight="1">
+      <c r="E69" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="70" spans="5:5" ht="18" customHeight="1">
+      <c r="E70" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="71" spans="5:5" ht="18" customHeight="1">
+      <c r="E71" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="72" spans="5:5" ht="18" customHeight="1">
+      <c r="E72" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="73" spans="5:5" ht="18" customHeight="1">
+      <c r="E73" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="74" spans="5:5" ht="18" customHeight="1">
+      <c r="E74" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="75" spans="5:5" ht="18" customHeight="1">
+      <c r="E75" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="76" spans="5:5" ht="18" customHeight="1">
+      <c r="E76" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="77" spans="5:5" ht="18" customHeight="1">
+      <c r="E77" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="78" spans="5:5" ht="18" customHeight="1">
+      <c r="E78" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="79" spans="5:5" ht="18" customHeight="1">
+      <c r="E79" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="80" spans="5:5" ht="18" customHeight="1">
+      <c r="E80" s="12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="81" spans="4:8" ht="18" customHeight="1">
+      <c r="E81" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="82" spans="4:8" ht="18" customHeight="1">
+      <c r="E82" s="12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="83" spans="4:8" ht="18" customHeight="1">
+      <c r="E83" s="12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="84" spans="4:8" ht="18" customHeight="1">
+      <c r="E84" s="12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="85" spans="4:8" ht="18" customHeight="1">
+      <c r="E85" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="86" spans="4:8" ht="18" customHeight="1">
+      <c r="E86" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="87" spans="4:8" ht="18" customHeight="1">
+      <c r="E87" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="88" spans="4:8" ht="18" customHeight="1">
+      <c r="E88" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="89" spans="4:8" ht="18" customHeight="1">
+      <c r="E89" s="12"/>
+    </row>
+    <row r="90" spans="4:8" ht="18" customHeight="1">
+      <c r="D90" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c r="G90" s="14"/>
+      <c r="H90" s="14"/>
+    </row>
+    <row r="91" spans="4:8" ht="18" customHeight="1">
+      <c r="E91" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="92" spans="4:8" ht="18" customHeight="1">
+      <c r="E92" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="94" spans="4:8" ht="18" customHeight="1">
+      <c r="E94" s="15" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="95" spans="4:8" ht="18" customHeight="1">
+      <c r="E95" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="96" spans="4:8" ht="18" customHeight="1">
+      <c r="E96" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="98" spans="5:27" ht="18" customHeight="1">
+      <c r="E98" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="99" spans="5:27" ht="18" customHeight="1">
+      <c r="E99" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="100" spans="5:27" ht="18" customHeight="1">
+      <c r="E100" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="101" spans="5:27" ht="18" customHeight="1">
+      <c r="E101" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="103" spans="5:27" ht="18" customHeight="1">
+      <c r="E103" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="F103" s="57"/>
+      <c r="G103" s="57"/>
+      <c r="H103" s="57"/>
+      <c r="I103" s="57"/>
+      <c r="J103" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="K103" s="57"/>
+      <c r="L103" s="57"/>
+      <c r="M103" s="57"/>
+      <c r="N103" s="57"/>
+      <c r="O103" s="57"/>
+      <c r="P103" s="57"/>
+      <c r="Q103" s="57"/>
+      <c r="R103" s="57"/>
+      <c r="S103" s="57"/>
+      <c r="T103" s="57"/>
+      <c r="U103" s="57"/>
+      <c r="V103" s="57"/>
+      <c r="W103" s="57"/>
+      <c r="X103" s="57"/>
+      <c r="Y103" s="57"/>
+      <c r="Z103" s="57"/>
+      <c r="AA103" s="57"/>
+    </row>
+    <row r="104" spans="5:27" ht="18" customHeight="1">
+      <c r="E104" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="F104" s="59"/>
+      <c r="G104" s="59"/>
+      <c r="H104" s="59"/>
+      <c r="I104" s="59"/>
+      <c r="J104" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="K104" s="58"/>
+      <c r="L104" s="58"/>
+      <c r="M104" s="58"/>
+      <c r="N104" s="58"/>
+      <c r="O104" s="58"/>
+      <c r="P104" s="58"/>
+      <c r="Q104" s="58"/>
+      <c r="R104" s="58"/>
+      <c r="S104" s="58"/>
+      <c r="T104" s="58"/>
+      <c r="U104" s="58"/>
+      <c r="V104" s="58"/>
+      <c r="W104" s="58"/>
+      <c r="X104" s="58"/>
+      <c r="Y104" s="58"/>
+      <c r="Z104" s="58"/>
+      <c r="AA104" s="58"/>
+    </row>
+    <row r="105" spans="5:27" ht="18" customHeight="1">
+      <c r="E105" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="F105" s="59"/>
+      <c r="G105" s="59"/>
+      <c r="H105" s="59"/>
+      <c r="I105" s="59"/>
+      <c r="J105" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="K105" s="58"/>
+      <c r="L105" s="58"/>
+      <c r="M105" s="58"/>
+      <c r="N105" s="58"/>
+      <c r="O105" s="58"/>
+      <c r="P105" s="58"/>
+      <c r="Q105" s="58"/>
+      <c r="R105" s="58"/>
+      <c r="S105" s="58"/>
+      <c r="T105" s="58"/>
+      <c r="U105" s="58"/>
+      <c r="V105" s="58"/>
+      <c r="W105" s="58"/>
+      <c r="X105" s="58"/>
+      <c r="Y105" s="58"/>
+      <c r="Z105" s="58"/>
+      <c r="AA105" s="58"/>
+    </row>
+    <row r="106" spans="5:27" ht="18" customHeight="1">
+      <c r="E106" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="F106" s="59"/>
+      <c r="G106" s="59"/>
+      <c r="H106" s="59"/>
+      <c r="I106" s="59"/>
+      <c r="J106" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="K106" s="58"/>
+      <c r="L106" s="58"/>
+      <c r="M106" s="58"/>
+      <c r="N106" s="58"/>
+      <c r="O106" s="58"/>
+      <c r="P106" s="58"/>
+      <c r="Q106" s="58"/>
+      <c r="R106" s="58"/>
+      <c r="S106" s="58"/>
+      <c r="T106" s="58"/>
+      <c r="U106" s="58"/>
+      <c r="V106" s="58"/>
+      <c r="W106" s="58"/>
+      <c r="X106" s="58"/>
+      <c r="Y106" s="58"/>
+      <c r="Z106" s="58"/>
+      <c r="AA106" s="58"/>
+    </row>
+    <row r="107" spans="5:27" ht="18" customHeight="1">
+      <c r="E107" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="F107" s="59"/>
+      <c r="G107" s="59"/>
+      <c r="H107" s="59"/>
+      <c r="I107" s="59"/>
+      <c r="J107" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="K107" s="58"/>
+      <c r="L107" s="58"/>
+      <c r="M107" s="58"/>
+      <c r="N107" s="58"/>
+      <c r="O107" s="58"/>
+      <c r="P107" s="58"/>
+      <c r="Q107" s="58"/>
+      <c r="R107" s="58"/>
+      <c r="S107" s="58"/>
+      <c r="T107" s="58"/>
+      <c r="U107" s="58"/>
+      <c r="V107" s="58"/>
+      <c r="W107" s="58"/>
+      <c r="X107" s="58"/>
+      <c r="Y107" s="58"/>
+      <c r="Z107" s="58"/>
+      <c r="AA107" s="58"/>
+    </row>
+    <row r="108" spans="5:27" ht="18" customHeight="1">
+      <c r="E108" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="F108" s="59"/>
+      <c r="G108" s="59"/>
+      <c r="H108" s="59"/>
+      <c r="I108" s="59"/>
+      <c r="J108" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="K108" s="58"/>
+      <c r="L108" s="58"/>
+      <c r="M108" s="58"/>
+      <c r="N108" s="58"/>
+      <c r="O108" s="58"/>
+      <c r="P108" s="58"/>
+      <c r="Q108" s="58"/>
+      <c r="R108" s="58"/>
+      <c r="S108" s="58"/>
+      <c r="T108" s="58"/>
+      <c r="U108" s="58"/>
+      <c r="V108" s="58"/>
+      <c r="W108" s="58"/>
+      <c r="X108" s="58"/>
+      <c r="Y108" s="58"/>
+      <c r="Z108" s="58"/>
+      <c r="AA108" s="58"/>
+    </row>
+    <row r="109" spans="5:27" ht="18" customHeight="1">
+      <c r="E109" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="F109" s="59"/>
+      <c r="G109" s="59"/>
+      <c r="H109" s="59"/>
+      <c r="I109" s="59"/>
+      <c r="J109" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="K109" s="58"/>
+      <c r="L109" s="58"/>
+      <c r="M109" s="58"/>
+      <c r="N109" s="58"/>
+      <c r="O109" s="58"/>
+      <c r="P109" s="58"/>
+      <c r="Q109" s="58"/>
+      <c r="R109" s="58"/>
+      <c r="S109" s="58"/>
+      <c r="T109" s="58"/>
+      <c r="U109" s="58"/>
+      <c r="V109" s="58"/>
+      <c r="W109" s="58"/>
+      <c r="X109" s="58"/>
+      <c r="Y109" s="58"/>
+      <c r="Z109" s="58"/>
+      <c r="AA109" s="58"/>
+    </row>
+    <row r="110" spans="5:27" ht="18" customHeight="1">
+      <c r="E110" s="21"/>
+      <c r="F110" s="21"/>
+      <c r="G110" s="21"/>
+      <c r="H110" s="21"/>
+      <c r="I110" s="21"/>
+      <c r="J110" s="22"/>
+      <c r="K110" s="22"/>
+      <c r="L110" s="22"/>
+      <c r="M110" s="22"/>
+      <c r="N110" s="22"/>
+      <c r="O110" s="22"/>
+      <c r="P110" s="22"/>
+      <c r="Q110" s="22"/>
+      <c r="R110" s="22"/>
+      <c r="S110" s="22"/>
+      <c r="T110" s="22"/>
+      <c r="U110" s="22"/>
+      <c r="V110" s="22"/>
+      <c r="W110" s="22"/>
+      <c r="X110" s="22"/>
+      <c r="Y110" s="22"/>
+      <c r="Z110" s="22"/>
+      <c r="AA110" s="22"/>
+    </row>
+    <row r="111" spans="5:27" ht="18" customHeight="1">
+      <c r="E111" s="20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" spans="5:27" ht="18" customHeight="1">
+      <c r="E112" s="12"/>
+      <c r="F112" s="17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="113" spans="5:27" ht="18" customHeight="1">
+      <c r="E113" s="12"/>
+      <c r="F113" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="114" spans="5:27" ht="18" customHeight="1">
+      <c r="E114" s="12"/>
+      <c r="F114" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="115" spans="5:27" ht="18" customHeight="1">
+      <c r="E115" s="12"/>
+      <c r="F115" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="G115" s="18"/>
+      <c r="H115" s="18"/>
+      <c r="I115" s="18"/>
+      <c r="J115" s="18"/>
+      <c r="K115" s="18"/>
+      <c r="L115" s="18"/>
+      <c r="M115" s="18"/>
+      <c r="N115" s="18"/>
+      <c r="O115" s="18"/>
+      <c r="P115" s="18"/>
+      <c r="Q115" s="18"/>
+      <c r="R115" s="18"/>
+      <c r="S115" s="18"/>
+      <c r="T115" s="18"/>
+      <c r="U115" s="18"/>
+      <c r="V115" s="18"/>
+      <c r="W115" s="18"/>
+      <c r="X115" s="18"/>
+      <c r="Y115" s="18"/>
+      <c r="Z115" s="18"/>
+      <c r="AA115" s="18"/>
+    </row>
+    <row r="116" spans="5:27" ht="18" customHeight="1">
+      <c r="E116" s="12"/>
+      <c r="F116" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="117" spans="5:27" ht="18" customHeight="1">
+      <c r="E117" s="12"/>
+      <c r="F117" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="118" spans="5:27" ht="18" customHeight="1">
+      <c r="E118" s="16"/>
+      <c r="F118" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="119" spans="5:27" ht="18" customHeight="1">
+      <c r="E119" s="12"/>
+      <c r="F119" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="120" spans="5:27" ht="18" customHeight="1">
+      <c r="E120" s="12"/>
+      <c r="F120" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="121" spans="5:27" ht="18" customHeight="1">
+      <c r="E121" s="12"/>
+      <c r="F121" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="122" spans="5:27" ht="18" customHeight="1">
+      <c r="E122" s="12"/>
+      <c r="F122" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="123" spans="5:27" ht="18" customHeight="1">
+      <c r="E123" s="12"/>
+      <c r="F123" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="124" spans="5:27" ht="18" customHeight="1">
+      <c r="E124" s="12"/>
+      <c r="F124" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="125" spans="5:27" ht="18" customHeight="1">
+      <c r="E125" s="12"/>
+      <c r="F125" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="126" spans="5:27" ht="18" customHeight="1">
+      <c r="E126" s="12"/>
+      <c r="F126" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="127" spans="5:27" ht="18" customHeight="1">
+      <c r="E127" s="12"/>
+      <c r="F127" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="128" spans="5:27" ht="18" customHeight="1">
+      <c r="E128" s="12"/>
+      <c r="F128" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="129" spans="5:6" ht="18" customHeight="1">
+      <c r="E129" s="12"/>
+      <c r="F129" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="130" spans="5:6" ht="18" customHeight="1">
+      <c r="E130" s="12"/>
+      <c r="F130" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="131" spans="5:6" ht="18" customHeight="1">
+      <c r="E131" s="12"/>
+      <c r="F131" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="132" spans="5:6" ht="18" customHeight="1">
+      <c r="E132" s="12"/>
+      <c r="F132" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="133" spans="5:6" ht="18" customHeight="1">
+      <c r="E133" s="12"/>
+      <c r="F133" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="134" spans="5:6" ht="18" customHeight="1">
+      <c r="E134" s="12"/>
+      <c r="F134" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="135" spans="5:6" ht="18" customHeight="1">
+      <c r="E135" s="12"/>
+      <c r="F135" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="136" spans="5:6" ht="18" customHeight="1">
+      <c r="E136" s="12"/>
+      <c r="F136" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="137" spans="5:6" ht="18" customHeight="1">
+      <c r="E137" s="12"/>
+      <c r="F137" s="12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="138" spans="5:6" ht="18" customHeight="1">
+      <c r="E138" s="12"/>
+      <c r="F138" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="139" spans="5:6" ht="18" customHeight="1">
+      <c r="E139" s="12"/>
+      <c r="F139" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="140" spans="5:6" ht="18" customHeight="1">
+      <c r="E140" s="12"/>
+      <c r="F140" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="141" spans="5:6" ht="18" customHeight="1">
+      <c r="E141" s="12"/>
+      <c r="F141" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="142" spans="5:6" ht="18" customHeight="1">
+      <c r="E142" s="12"/>
+      <c r="F142" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="143" spans="5:6" ht="18" customHeight="1">
+      <c r="E143" s="12"/>
+      <c r="F143" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="144" spans="5:6" ht="18" customHeight="1">
+      <c r="E144" s="20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="146" spans="6:16" ht="18" customHeight="1">
+      <c r="F146" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="G146" s="18"/>
+      <c r="H146" s="18"/>
+      <c r="I146" s="18"/>
+      <c r="J146" s="18"/>
+    </row>
+    <row r="147" spans="6:16" ht="18" customHeight="1">
+      <c r="G147" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="148" spans="6:16" ht="18" customHeight="1">
+      <c r="F148" s="15"/>
+    </row>
+    <row r="149" spans="6:16" ht="18" customHeight="1">
+      <c r="F149" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="G149" s="18"/>
+      <c r="H149" s="18"/>
+      <c r="I149" s="18"/>
+      <c r="J149" s="18"/>
+      <c r="K149" s="18"/>
+      <c r="L149" s="18"/>
+      <c r="M149" s="18"/>
+      <c r="N149" s="18"/>
+      <c r="O149" s="18"/>
+      <c r="P149" s="18"/>
+    </row>
+    <row r="150" spans="6:16" ht="18" customHeight="1">
+      <c r="G150" s="15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="151" spans="6:16" ht="18" customHeight="1">
+      <c r="G151" s="15"/>
+    </row>
+    <row r="152" spans="6:16" ht="18" customHeight="1">
+      <c r="F152" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="G152" s="25"/>
+    </row>
+    <row r="153" spans="6:16" s="26" customFormat="1" ht="18" customHeight="1">
+      <c r="G153" s="27"/>
+    </row>
+    <row r="154" spans="6:16" ht="18" customHeight="1">
+      <c r="G154" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="H154" s="28"/>
+      <c r="I154" s="28"/>
+    </row>
+    <row r="155" spans="6:16" ht="18" customHeight="1">
+      <c r="H155" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="156" spans="6:16" ht="18" customHeight="1">
+      <c r="H156" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="I156" s="24"/>
+      <c r="J156" s="24"/>
+      <c r="K156" s="24"/>
+      <c r="L156" s="24"/>
+      <c r="M156" s="24"/>
+      <c r="N156" s="24"/>
+    </row>
+    <row r="157" spans="6:16" ht="18" customHeight="1">
+      <c r="H157" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="158" spans="6:16" ht="18" customHeight="1">
+      <c r="H158" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="159" spans="6:16" ht="18" customHeight="1">
+      <c r="H159" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="160" spans="6:16" ht="18" customHeight="1">
+      <c r="H160" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="161" spans="7:18" ht="18" customHeight="1">
+      <c r="H161" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="162" spans="7:18" ht="18" customHeight="1">
+      <c r="H162" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="163" spans="7:18" ht="18" customHeight="1">
+      <c r="H163" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="164" spans="7:18" ht="18" customHeight="1">
+      <c r="H164" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="165" spans="7:18" ht="18" customHeight="1">
+      <c r="H165" s="12" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="4:15" ht="18" customHeight="1">
-      <c r="D30" s="21" t="s">
+    <row r="166" spans="7:18" ht="18" customHeight="1">
+      <c r="H166" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="167" spans="7:18" ht="18" customHeight="1">
+      <c r="H167" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I167" s="24"/>
+      <c r="J167" s="24"/>
+      <c r="K167" s="24"/>
+      <c r="L167" s="24"/>
+      <c r="M167" s="24"/>
+      <c r="N167" s="24"/>
+      <c r="O167" s="24"/>
+      <c r="P167" s="24"/>
+      <c r="Q167" s="24"/>
+      <c r="R167" s="24"/>
+    </row>
+    <row r="168" spans="7:18" ht="18" customHeight="1">
+      <c r="H168" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="169" spans="7:18" ht="18" customHeight="1">
+      <c r="H169" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="171" spans="7:18" ht="18" customHeight="1">
+      <c r="G171" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="H171" s="28"/>
+      <c r="I171" s="28"/>
+    </row>
+    <row r="172" spans="7:18" ht="18" customHeight="1">
+      <c r="H172" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="173" spans="7:18" ht="18" customHeight="1">
+      <c r="H173" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="I173" s="24"/>
+      <c r="J173" s="24"/>
+      <c r="K173" s="24"/>
+      <c r="L173" s="24"/>
+      <c r="M173" s="24"/>
+    </row>
+    <row r="174" spans="7:18" ht="18" customHeight="1">
+      <c r="H174" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="175" spans="7:18" ht="18" customHeight="1">
+      <c r="H175" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="176" spans="7:18" ht="18" customHeight="1">
+      <c r="H176" s="12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="177" spans="4:13" ht="18" customHeight="1">
+      <c r="H177" s="12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="178" spans="4:13" ht="18" customHeight="1">
+      <c r="H178" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="179" spans="4:13" ht="18" customHeight="1">
+      <c r="H179" s="12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="180" spans="4:13" ht="18" customHeight="1">
+      <c r="H180" s="12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="181" spans="4:13" ht="18" customHeight="1">
+      <c r="H181" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="182" spans="4:13" ht="18" customHeight="1">
+      <c r="H182" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="183" spans="4:13" ht="18" customHeight="1">
+      <c r="H183" s="12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="184" spans="4:13" ht="18" customHeight="1">
+      <c r="H184" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="185" spans="4:13" ht="18" customHeight="1">
+      <c r="H185" s="12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="187" spans="4:13" ht="18" customHeight="1">
+      <c r="D187" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="E187" s="14"/>
+      <c r="F187" s="14"/>
+      <c r="G187" s="14"/>
+      <c r="H187" s="14"/>
+    </row>
+    <row r="188" spans="4:13" ht="18" customHeight="1">
+      <c r="E188" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="M188" s="29" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="189" spans="4:13" ht="18" customHeight="1">
+      <c r="E189" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="M189" s="29" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="190" spans="4:13" ht="18" customHeight="1">
+      <c r="E190" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="M190" s="29" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="192" spans="4:13" ht="18" customHeight="1">
+      <c r="E192" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="193" spans="5:5" ht="18" customHeight="1">
+      <c r="E193" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="194" spans="5:5" ht="18" customHeight="1">
+      <c r="E194" s="17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="195" spans="5:5" ht="18" customHeight="1">
+      <c r="E195" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="196" spans="5:5" ht="18" customHeight="1">
+      <c r="E196" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="197" spans="5:5" ht="18" customHeight="1">
+      <c r="E197" s="12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="198" spans="5:5" ht="18" customHeight="1">
+      <c r="E198" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="199" spans="5:5" ht="18" customHeight="1">
+      <c r="E199" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="200" spans="5:5" ht="18" customHeight="1">
+      <c r="E200" s="12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="201" spans="5:5" ht="18" customHeight="1">
+      <c r="E201" s="12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="202" spans="5:5" ht="18" customHeight="1">
+      <c r="E202" s="12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="203" spans="5:5" ht="18" customHeight="1">
+      <c r="E203" s="12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="204" spans="5:5" ht="18" customHeight="1">
+      <c r="E204" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="205" spans="5:5" ht="18" customHeight="1">
+      <c r="E205" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="206" spans="5:5" ht="18" customHeight="1">
+      <c r="E206" s="12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="207" spans="5:5" ht="18" customHeight="1">
+      <c r="E207" s="12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="208" spans="5:5" ht="18" customHeight="1">
+      <c r="E208" s="12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="209" spans="5:5" ht="18" customHeight="1">
+      <c r="E209" s="12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="210" spans="5:5" ht="18" customHeight="1">
+      <c r="E210" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="211" spans="5:5" ht="18" customHeight="1">
+      <c r="E211" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="212" spans="5:5" ht="18" customHeight="1">
+      <c r="E212" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="213" spans="5:5" ht="18" customHeight="1">
+      <c r="E213" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="214" spans="5:5" ht="18" customHeight="1">
+      <c r="E214" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="215" spans="5:5" ht="18" customHeight="1">
+      <c r="E215" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="216" spans="5:5" ht="18" customHeight="1">
+      <c r="E216" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="217" spans="5:5" ht="18" customHeight="1">
+      <c r="E217" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="218" spans="5:5" ht="18" customHeight="1">
+      <c r="E218" s="12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="219" spans="5:5" ht="18" customHeight="1">
+      <c r="E219" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="220" spans="5:5" ht="18" customHeight="1">
+      <c r="E220" s="12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="221" spans="5:5" ht="18" customHeight="1">
+      <c r="E221" s="12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="222" spans="5:5" ht="18" customHeight="1">
+      <c r="E222" s="12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="223" spans="5:5" ht="18" customHeight="1">
+      <c r="E223" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="224" spans="5:5" ht="18" customHeight="1">
+      <c r="E224" s="12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="225" spans="3:7" ht="18" customHeight="1">
+      <c r="E225" s="12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="226" spans="3:7" ht="18" customHeight="1">
+      <c r="E226" s="12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="227" spans="3:7" ht="18" customHeight="1">
+      <c r="E227" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="228" spans="3:7" ht="18" customHeight="1">
+      <c r="E228" s="12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="229" spans="3:7" ht="18" customHeight="1">
+      <c r="E229" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="230" spans="3:7" ht="18" customHeight="1">
+      <c r="E230" s="12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="231" spans="3:7" ht="18" customHeight="1">
+      <c r="E231" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="232" spans="3:7" ht="18" customHeight="1">
+      <c r="E232" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="234" spans="3:7" ht="18" customHeight="1">
+      <c r="C234" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="D234" s="14"/>
+      <c r="E234" s="14"/>
+      <c r="F234" s="14"/>
+      <c r="G234" s="14"/>
+    </row>
+    <row r="235" spans="3:7" ht="18" customHeight="1">
+      <c r="D235" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="263" spans="4:33" ht="18" customHeight="1">
+      <c r="D263" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="E263" s="19"/>
+      <c r="F263" s="19"/>
+      <c r="G263" s="19"/>
+      <c r="H263" s="19"/>
+    </row>
+    <row r="264" spans="4:33" ht="18" customHeight="1">
+      <c r="E264" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="266" spans="4:33" ht="18" customHeight="1">
+      <c r="E266" s="57" t="s">
+        <v>172</v>
+      </c>
+      <c r="F266" s="57"/>
+      <c r="G266" s="57"/>
+      <c r="H266" s="57"/>
+      <c r="I266" s="57"/>
+      <c r="J266" s="57"/>
+      <c r="K266" s="57"/>
+      <c r="L266" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="M266" s="57"/>
+      <c r="N266" s="57"/>
+      <c r="O266" s="57"/>
+      <c r="P266" s="57"/>
+      <c r="Q266" s="57"/>
+      <c r="R266" s="57"/>
+      <c r="S266" s="57"/>
+      <c r="T266" s="57"/>
+      <c r="U266" s="57"/>
+      <c r="V266" s="57"/>
+      <c r="W266" s="57"/>
+      <c r="X266" s="57"/>
+      <c r="Y266" s="57"/>
+      <c r="Z266" s="57"/>
+      <c r="AA266" s="57"/>
+      <c r="AB266" s="57"/>
+      <c r="AC266" s="57"/>
+      <c r="AD266" s="57"/>
+      <c r="AE266" s="57"/>
+      <c r="AF266" s="57"/>
+      <c r="AG266" s="57"/>
+    </row>
+    <row r="267" spans="4:33" ht="18" customHeight="1">
+      <c r="E267" s="53" t="s">
+        <v>173</v>
+      </c>
+      <c r="F267" s="53"/>
+      <c r="G267" s="53"/>
+      <c r="H267" s="53"/>
+      <c r="I267" s="53"/>
+      <c r="J267" s="53"/>
+      <c r="K267" s="53"/>
+      <c r="L267" s="58" t="s">
+        <v>174</v>
+      </c>
+      <c r="M267" s="58"/>
+      <c r="N267" s="58"/>
+      <c r="O267" s="58"/>
+      <c r="P267" s="58"/>
+      <c r="Q267" s="58"/>
+      <c r="R267" s="58"/>
+      <c r="S267" s="58"/>
+      <c r="T267" s="58"/>
+      <c r="U267" s="58"/>
+      <c r="V267" s="58"/>
+      <c r="W267" s="58"/>
+      <c r="X267" s="58"/>
+      <c r="Y267" s="58"/>
+      <c r="Z267" s="58"/>
+      <c r="AA267" s="58"/>
+      <c r="AB267" s="58"/>
+      <c r="AC267" s="58"/>
+      <c r="AD267" s="58"/>
+      <c r="AE267" s="58"/>
+      <c r="AF267" s="58"/>
+      <c r="AG267" s="58"/>
+    </row>
+    <row r="268" spans="4:33" ht="18" customHeight="1">
+      <c r="E268" s="53" t="s">
+        <v>175</v>
+      </c>
+      <c r="F268" s="53"/>
+      <c r="G268" s="53"/>
+      <c r="H268" s="53"/>
+      <c r="I268" s="53"/>
+      <c r="J268" s="53"/>
+      <c r="K268" s="53"/>
+      <c r="L268" s="58" t="s">
+        <v>176</v>
+      </c>
+      <c r="M268" s="58"/>
+      <c r="N268" s="58"/>
+      <c r="O268" s="58"/>
+      <c r="P268" s="58"/>
+      <c r="Q268" s="58"/>
+      <c r="R268" s="58"/>
+      <c r="S268" s="58"/>
+      <c r="T268" s="58"/>
+      <c r="U268" s="58"/>
+      <c r="V268" s="58"/>
+      <c r="W268" s="58"/>
+      <c r="X268" s="58"/>
+      <c r="Y268" s="58"/>
+      <c r="Z268" s="58"/>
+      <c r="AA268" s="58"/>
+      <c r="AB268" s="58"/>
+      <c r="AC268" s="58"/>
+      <c r="AD268" s="58"/>
+      <c r="AE268" s="58"/>
+      <c r="AF268" s="58"/>
+      <c r="AG268" s="58"/>
+    </row>
+    <row r="269" spans="4:33" ht="18" customHeight="1">
+      <c r="E269" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="F269" s="53"/>
+      <c r="G269" s="53"/>
+      <c r="H269" s="53"/>
+      <c r="I269" s="53"/>
+      <c r="J269" s="53"/>
+      <c r="K269" s="53"/>
+      <c r="L269" s="54" t="s">
+        <v>180</v>
+      </c>
+      <c r="M269" s="55"/>
+      <c r="N269" s="55"/>
+      <c r="O269" s="55"/>
+      <c r="P269" s="55"/>
+      <c r="Q269" s="55"/>
+      <c r="R269" s="55"/>
+      <c r="S269" s="55"/>
+      <c r="T269" s="55"/>
+      <c r="U269" s="55"/>
+      <c r="V269" s="55"/>
+      <c r="W269" s="55"/>
+      <c r="X269" s="55"/>
+      <c r="Y269" s="55"/>
+      <c r="Z269" s="55"/>
+      <c r="AA269" s="55"/>
+      <c r="AB269" s="55"/>
+      <c r="AC269" s="55"/>
+      <c r="AD269" s="55"/>
+      <c r="AE269" s="55"/>
+      <c r="AF269" s="55"/>
+      <c r="AG269" s="56"/>
+    </row>
+    <row r="270" spans="4:33" ht="18" customHeight="1">
+      <c r="E270" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="F270" s="53"/>
+      <c r="G270" s="53"/>
+      <c r="H270" s="53"/>
+      <c r="I270" s="53"/>
+      <c r="J270" s="53"/>
+      <c r="K270" s="53"/>
+      <c r="L270" s="54" t="s">
+        <v>179</v>
+      </c>
+      <c r="M270" s="55"/>
+      <c r="N270" s="55"/>
+      <c r="O270" s="55"/>
+      <c r="P270" s="55"/>
+      <c r="Q270" s="55"/>
+      <c r="R270" s="55"/>
+      <c r="S270" s="55"/>
+      <c r="T270" s="55"/>
+      <c r="U270" s="55"/>
+      <c r="V270" s="55"/>
+      <c r="W270" s="55"/>
+      <c r="X270" s="55"/>
+      <c r="Y270" s="55"/>
+      <c r="Z270" s="55"/>
+      <c r="AA270" s="55"/>
+      <c r="AB270" s="55"/>
+      <c r="AC270" s="55"/>
+      <c r="AD270" s="55"/>
+      <c r="AE270" s="55"/>
+      <c r="AF270" s="55"/>
+      <c r="AG270" s="56"/>
+    </row>
+    <row r="272" spans="4:33" ht="18" customHeight="1">
+      <c r="E272" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="273" spans="5:5" ht="18" customHeight="1">
+      <c r="E273" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="274" spans="5:5" ht="18" customHeight="1">
+      <c r="E274" s="17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="275" spans="5:5" ht="18" customHeight="1">
+      <c r="E275" s="12" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="276" spans="5:5" ht="18" customHeight="1">
+      <c r="E276" s="12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="277" spans="5:5" ht="18" customHeight="1">
+      <c r="E277" s="12" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="278" spans="5:5" ht="18" customHeight="1">
+      <c r="E278" s="12" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="279" spans="5:5" ht="18" customHeight="1">
+      <c r="E279" s="12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="280" spans="5:5" ht="18" customHeight="1">
+      <c r="E280" s="30" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="281" spans="5:5" ht="18" customHeight="1">
+      <c r="E281" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="282" spans="5:5" ht="18" customHeight="1">
+      <c r="E282" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="283" spans="5:5" ht="18" customHeight="1">
+      <c r="E283" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="284" spans="5:5" ht="18" customHeight="1">
+      <c r="E284" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="285" spans="5:5" ht="18" customHeight="1">
+      <c r="E285" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="286" spans="5:5" ht="18" customHeight="1">
+      <c r="E286" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="287" spans="5:5" ht="18" customHeight="1">
+      <c r="E287" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="288" spans="5:5" ht="18" customHeight="1">
+      <c r="E288" s="12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="289" spans="5:27" ht="18" customHeight="1">
+      <c r="E289" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="290" spans="5:27" ht="18" customHeight="1">
+      <c r="E290" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="291" spans="5:27" ht="18" customHeight="1">
+      <c r="E291" s="12" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="292" spans="5:27" ht="18" customHeight="1">
+      <c r="E292" s="12" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="293" spans="5:27" ht="18" customHeight="1">
+      <c r="F293" s="12" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="294" spans="5:27" ht="18" customHeight="1">
+      <c r="F294" s="12" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="295" spans="5:27" ht="18" customHeight="1">
+      <c r="F295" s="12" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="296" spans="5:27" ht="18" customHeight="1">
+      <c r="F296" s="12" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="297" spans="5:27" ht="18" customHeight="1">
+      <c r="E297" s="12" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="298" spans="5:27" ht="18" customHeight="1">
+      <c r="E298" s="12" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="299" spans="5:27" ht="18" customHeight="1">
+      <c r="E299" s="12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="300" spans="5:27" ht="18" customHeight="1">
+      <c r="E300" s="12" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="301" spans="5:27" ht="18" customHeight="1">
+      <c r="E301" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="AA301" s="31"/>
+    </row>
+    <row r="302" spans="5:27" ht="18" customHeight="1">
+      <c r="E302" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="AA302" s="31"/>
+    </row>
+    <row r="303" spans="5:27" ht="18" customHeight="1">
+      <c r="E303" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="AA303" s="31"/>
+    </row>
+    <row r="304" spans="5:27" ht="18" customHeight="1">
+      <c r="E304" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA304" s="31"/>
+    </row>
+    <row r="305" spans="5:27" ht="18" customHeight="1">
+      <c r="E305" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="AA305" s="31"/>
+    </row>
+    <row r="306" spans="5:27" ht="18" customHeight="1">
+      <c r="E306" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA306" s="31"/>
+    </row>
+    <row r="307" spans="5:27" ht="18" customHeight="1">
+      <c r="E307" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA307" s="31"/>
+    </row>
+    <row r="309" spans="5:27" ht="18" customHeight="1">
+      <c r="E309" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="F309" s="18"/>
+      <c r="G309" s="18"/>
+      <c r="H309" s="18"/>
+      <c r="I309" s="18"/>
+      <c r="J309" s="18"/>
+      <c r="K309" s="18"/>
+      <c r="L309" s="18"/>
+      <c r="M309" s="18"/>
+      <c r="N309" s="18"/>
+      <c r="P309" s="29" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="311" spans="5:27" ht="18" customHeight="1">
+      <c r="F311" s="17" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="312" spans="5:27" ht="18" customHeight="1">
+      <c r="F312" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="313" spans="5:27" ht="18" customHeight="1">
+      <c r="F313" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="314" spans="5:27" ht="18" customHeight="1">
+      <c r="F314" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="315" spans="5:27" ht="18" customHeight="1">
+      <c r="F315" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="316" spans="5:27" ht="18" customHeight="1">
+      <c r="F316" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="317" spans="5:27" ht="18" customHeight="1">
+      <c r="F317" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="318" spans="5:27" ht="18" customHeight="1">
+      <c r="F318" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="319" spans="5:27" ht="18" customHeight="1">
+      <c r="F319" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="320" spans="5:27" ht="18" customHeight="1">
+      <c r="F320" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="321" spans="6:6" ht="18" customHeight="1">
+      <c r="F321" s="12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="322" spans="6:6" ht="18" customHeight="1">
+      <c r="F322" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="323" spans="6:6" ht="18" customHeight="1">
+      <c r="F323" s="12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="324" spans="6:6" ht="18" customHeight="1">
+      <c r="F324" s="12" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="325" spans="6:6" ht="18" customHeight="1">
+      <c r="F325" s="12" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="326" spans="6:6" ht="18" customHeight="1">
+      <c r="F326" s="12" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="327" spans="6:6" ht="18" customHeight="1">
+      <c r="F327" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="328" spans="6:6" ht="18" customHeight="1">
+      <c r="F328" s="12" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="329" spans="6:6" ht="18" customHeight="1">
+      <c r="F329" s="12" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="330" spans="6:6" ht="18" customHeight="1">
+      <c r="F330" s="12" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="331" spans="6:6" ht="18" customHeight="1">
+      <c r="F331" s="12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="332" spans="6:6" ht="18" customHeight="1">
+      <c r="F332" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="333" spans="6:6" ht="18" customHeight="1">
+      <c r="F333" s="12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="334" spans="6:6" ht="18" customHeight="1">
+      <c r="F334" s="12" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="335" spans="6:6" ht="18" customHeight="1">
+      <c r="F335" s="12" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="336" spans="6:6" ht="18" customHeight="1">
+      <c r="F336" s="12" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="337" spans="6:6" ht="18" customHeight="1">
+      <c r="F337" s="12" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="338" spans="6:6" ht="18" customHeight="1">
+      <c r="F338" s="12" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="339" spans="6:6" ht="18" customHeight="1">
+      <c r="F339" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="340" spans="6:6" ht="18" customHeight="1">
+      <c r="F340" s="12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="341" spans="6:6" ht="18" customHeight="1">
+      <c r="F341" s="12" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="342" spans="6:6" ht="18" customHeight="1">
+      <c r="F342" s="12" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="343" spans="6:6" ht="18" customHeight="1">
+      <c r="F343" s="12" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="344" spans="6:6" ht="18" customHeight="1">
+      <c r="F344" s="12" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="345" spans="6:6" ht="18" customHeight="1">
+      <c r="F345" s="12" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="346" spans="6:6" ht="18" customHeight="1">
+      <c r="F346" s="12" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="347" spans="6:6" ht="18" customHeight="1">
+      <c r="F347" s="12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="348" spans="6:6" ht="18" customHeight="1">
+      <c r="F348" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="349" spans="6:6" ht="18" customHeight="1">
+      <c r="F349" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="350" spans="6:6" ht="18" customHeight="1">
+      <c r="F350" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="351" spans="6:6" ht="18" customHeight="1">
+      <c r="F351" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="366" spans="5:22" ht="18" customHeight="1">
+      <c r="E366" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="F366" s="35"/>
+      <c r="G366" s="35"/>
+      <c r="H366" s="35"/>
+      <c r="I366" s="35"/>
+      <c r="J366" s="35"/>
+      <c r="K366" s="35"/>
+      <c r="L366" s="35"/>
+      <c r="M366" s="35"/>
+      <c r="N366" s="35"/>
+      <c r="O366" s="35"/>
+      <c r="P366" s="35"/>
+      <c r="Q366" s="35"/>
+      <c r="R366" s="35"/>
+      <c r="S366" s="35"/>
+      <c r="T366" s="35"/>
+      <c r="U366" s="35"/>
+      <c r="V366" s="36"/>
+    </row>
+    <row r="367" spans="5:22" ht="18" customHeight="1">
+      <c r="E367" s="37" t="s">
+        <v>228</v>
+      </c>
+      <c r="F367" s="38"/>
+      <c r="G367" s="38"/>
+      <c r="H367" s="38"/>
+      <c r="I367" s="38"/>
+      <c r="J367" s="38"/>
+      <c r="K367" s="38"/>
+      <c r="L367" s="38"/>
+      <c r="M367" s="38"/>
+      <c r="N367" s="38"/>
+      <c r="O367" s="38"/>
+      <c r="P367" s="38"/>
+      <c r="Q367" s="38"/>
+      <c r="R367" s="38"/>
+      <c r="S367" s="38"/>
+      <c r="T367" s="38"/>
+      <c r="U367" s="38"/>
+      <c r="V367" s="39"/>
+    </row>
+    <row r="368" spans="5:22" ht="18" customHeight="1">
+      <c r="E368" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="F368" s="38"/>
+      <c r="G368" s="38"/>
+      <c r="H368" s="38"/>
+      <c r="I368" s="38"/>
+      <c r="J368" s="38"/>
+      <c r="K368" s="38"/>
+      <c r="L368" s="38"/>
+      <c r="M368" s="38"/>
+      <c r="N368" s="38"/>
+      <c r="O368" s="38"/>
+      <c r="P368" s="38"/>
+      <c r="Q368" s="38"/>
+      <c r="R368" s="38"/>
+      <c r="S368" s="38"/>
+      <c r="T368" s="38"/>
+      <c r="U368" s="38"/>
+      <c r="V368" s="39"/>
+    </row>
+    <row r="369" spans="5:22" ht="18" customHeight="1">
+      <c r="E369" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="F369" s="38"/>
+      <c r="G369" s="38"/>
+      <c r="H369" s="38"/>
+      <c r="I369" s="38"/>
+      <c r="J369" s="38"/>
+      <c r="K369" s="38"/>
+      <c r="L369" s="38"/>
+      <c r="M369" s="38"/>
+      <c r="N369" s="38"/>
+      <c r="O369" s="38"/>
+      <c r="P369" s="38"/>
+      <c r="Q369" s="38"/>
+      <c r="R369" s="38"/>
+      <c r="S369" s="38"/>
+      <c r="T369" s="38"/>
+      <c r="U369" s="38"/>
+      <c r="V369" s="39"/>
+    </row>
+    <row r="370" spans="5:22" ht="18" customHeight="1">
+      <c r="E370" s="37" t="s">
+        <v>231</v>
+      </c>
+      <c r="F370" s="38"/>
+      <c r="G370" s="38"/>
+      <c r="H370" s="38"/>
+      <c r="I370" s="38"/>
+      <c r="J370" s="38"/>
+      <c r="K370" s="38"/>
+      <c r="L370" s="38"/>
+      <c r="M370" s="38"/>
+      <c r="N370" s="38"/>
+      <c r="O370" s="38"/>
+      <c r="P370" s="38"/>
+      <c r="Q370" s="38"/>
+      <c r="R370" s="38"/>
+      <c r="S370" s="38"/>
+      <c r="T370" s="38"/>
+      <c r="U370" s="38"/>
+      <c r="V370" s="39"/>
+    </row>
+    <row r="371" spans="5:22" ht="18" customHeight="1">
+      <c r="E371" s="37" t="s">
+        <v>232</v>
+      </c>
+      <c r="F371" s="38"/>
+      <c r="G371" s="38"/>
+      <c r="H371" s="38"/>
+      <c r="I371" s="38"/>
+      <c r="J371" s="38"/>
+      <c r="K371" s="38"/>
+      <c r="L371" s="38"/>
+      <c r="M371" s="38"/>
+      <c r="N371" s="38"/>
+      <c r="O371" s="38"/>
+      <c r="P371" s="38"/>
+      <c r="Q371" s="38"/>
+      <c r="R371" s="38"/>
+      <c r="S371" s="38"/>
+      <c r="T371" s="38"/>
+      <c r="U371" s="38"/>
+      <c r="V371" s="39"/>
+    </row>
+    <row r="372" spans="5:22" ht="18" customHeight="1">
+      <c r="E372" s="40" t="s">
+        <v>233</v>
+      </c>
+      <c r="F372" s="41"/>
+      <c r="G372" s="41"/>
+      <c r="H372" s="41"/>
+      <c r="I372" s="41"/>
+      <c r="J372" s="41"/>
+      <c r="K372" s="41"/>
+      <c r="L372" s="41"/>
+      <c r="M372" s="41"/>
+      <c r="N372" s="41"/>
+      <c r="O372" s="41"/>
+      <c r="P372" s="41"/>
+      <c r="Q372" s="41"/>
+      <c r="R372" s="41"/>
+      <c r="S372" s="41"/>
+      <c r="T372" s="41"/>
+      <c r="U372" s="41"/>
+      <c r="V372" s="42"/>
+    </row>
+    <row r="373" spans="5:22" ht="18" customHeight="1">
+      <c r="E373" s="33"/>
+    </row>
+    <row r="374" spans="5:22" ht="18" customHeight="1">
+      <c r="E374" s="17" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="375" spans="5:22" ht="18" customHeight="1">
+      <c r="E375" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="376" spans="5:22" ht="18" customHeight="1">
+      <c r="E376" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="377" spans="5:22" ht="18" customHeight="1">
+      <c r="E377" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="378" spans="5:22" ht="18" customHeight="1">
+      <c r="E378" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="379" spans="5:22" ht="18" customHeight="1">
+      <c r="E379" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="380" spans="5:22" ht="18" customHeight="1">
+      <c r="E380" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="381" spans="5:22" ht="18" customHeight="1">
+      <c r="E381" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="382" spans="5:22" ht="18" customHeight="1">
+      <c r="E382" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="383" spans="5:22" ht="18" customHeight="1">
+      <c r="E383" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="384" spans="5:22" ht="18" customHeight="1">
+      <c r="E384" s="12" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="385" spans="5:22" ht="18" customHeight="1">
+      <c r="E385" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="386" spans="5:22" ht="18" customHeight="1">
+      <c r="E386" s="12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="387" spans="5:22" ht="18" customHeight="1">
+      <c r="E387" s="12" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="388" spans="5:22" ht="18" customHeight="1">
+      <c r="E388" s="12" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="389" spans="5:22" ht="18" customHeight="1">
+      <c r="E389" s="12" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="390" spans="5:22" ht="18" customHeight="1">
+      <c r="F390" s="12" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="391" spans="5:22" ht="18" customHeight="1">
+      <c r="E391" s="12" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="392" spans="5:22" ht="18" customHeight="1">
+      <c r="E392" s="12" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="393" spans="5:22" ht="18" customHeight="1">
+      <c r="E393" s="12" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="394" spans="5:22" ht="18" customHeight="1">
+      <c r="E394" s="12" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="395" spans="5:22" ht="18" customHeight="1">
+      <c r="E395" s="12" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="396" spans="5:22" ht="18" customHeight="1">
+      <c r="E396" s="12" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="397" spans="5:22" ht="18" customHeight="1">
+      <c r="E397" s="12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="398" spans="5:22" ht="18" customHeight="1">
+      <c r="E398" s="12" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="399" spans="5:22" ht="18" customHeight="1">
+      <c r="E399" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="G399" s="18"/>
+      <c r="H399" s="18"/>
+      <c r="I399" s="18"/>
+      <c r="J399" s="18"/>
+      <c r="K399" s="18"/>
+      <c r="L399" s="18"/>
+      <c r="M399" s="18"/>
+      <c r="N399" s="18"/>
+      <c r="O399" s="18"/>
+      <c r="P399" s="18"/>
+      <c r="Q399" s="18"/>
+      <c r="R399" s="18"/>
+      <c r="S399" s="18"/>
+      <c r="T399" s="18"/>
+      <c r="U399" s="18"/>
+      <c r="V399" s="18"/>
+    </row>
+    <row r="400" spans="5:22" ht="18" customHeight="1">
+      <c r="E400" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="G400" s="18"/>
+      <c r="H400" s="18"/>
+      <c r="I400" s="18"/>
+      <c r="J400" s="18"/>
+      <c r="K400" s="18"/>
+      <c r="L400" s="18"/>
+      <c r="M400" s="18"/>
+      <c r="N400" s="18"/>
+      <c r="O400" s="18"/>
+      <c r="P400" s="18"/>
+      <c r="Q400" s="18"/>
+      <c r="R400" s="18"/>
+      <c r="S400" s="18"/>
+      <c r="T400" s="18"/>
+      <c r="U400" s="18"/>
+      <c r="V400" s="18"/>
+    </row>
+    <row r="401" spans="4:8" ht="18" customHeight="1">
+      <c r="E401" s="12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="402" spans="4:8" ht="18" customHeight="1">
+      <c r="E402" s="12" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="403" spans="4:8" ht="18" customHeight="1">
+      <c r="E403" s="12" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="404" spans="4:8" ht="18" customHeight="1">
+      <c r="E404" s="12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="405" spans="4:8" ht="18" customHeight="1">
+      <c r="E405" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="406" spans="4:8" ht="18" customHeight="1">
+      <c r="E406" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="407" spans="4:8" ht="18" customHeight="1">
+      <c r="E407" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="409" spans="4:8" ht="18" customHeight="1">
+      <c r="D409" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="E409" s="19"/>
+      <c r="F409" s="19"/>
+      <c r="G409" s="19"/>
+      <c r="H409" s="19"/>
+    </row>
+    <row r="410" spans="4:8" ht="18" customHeight="1">
+      <c r="E410" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="411" spans="4:8" ht="18" customHeight="1">
+      <c r="E411" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="413" spans="4:8" ht="18" customHeight="1">
+      <c r="E413" s="43" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="414" spans="4:8" ht="18" customHeight="1">
+      <c r="F414" s="32" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="415" spans="4:8" ht="18" customHeight="1">
+      <c r="F415" s="32" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="417" spans="6:25" ht="18" customHeight="1">
+      <c r="F417" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="418" spans="6:25" ht="18" customHeight="1">
+      <c r="F418" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="419" spans="6:25" ht="18" customHeight="1">
+      <c r="F419" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="4:15" ht="18" customHeight="1">
-      <c r="D31" s="22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="4:15" ht="18" customHeight="1">
-      <c r="D32" s="22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="4:4" ht="18" customHeight="1">
-      <c r="D33" s="22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="4:4" ht="18" customHeight="1">
-      <c r="D34" s="21" t="s">
+    <row r="420" spans="6:25" ht="18" customHeight="1">
+      <c r="F420" s="17" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="421" spans="6:25" ht="18" customHeight="1">
+      <c r="F421" s="12" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="422" spans="6:25" ht="18" customHeight="1">
+      <c r="F422" s="12" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="423" spans="6:25" ht="18" customHeight="1">
+      <c r="F423" s="12" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="424" spans="6:25" ht="18" customHeight="1">
+      <c r="F424" s="12" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="425" spans="6:25" ht="18" customHeight="1">
+      <c r="F425" s="12" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="426" spans="6:25" ht="18" customHeight="1">
+      <c r="F426" s="12" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="427" spans="6:25" ht="18" customHeight="1">
+      <c r="F427" s="12" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="428" spans="6:25" ht="18" customHeight="1">
+      <c r="F428" s="17" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="429" spans="6:25" ht="18" customHeight="1">
+      <c r="F429" s="44" t="s">
+        <v>265</v>
+      </c>
+      <c r="G429" s="26"/>
+      <c r="H429" s="26"/>
+      <c r="I429" s="26"/>
+      <c r="J429" s="26"/>
+      <c r="K429" s="26"/>
+      <c r="L429" s="26"/>
+      <c r="M429" s="26"/>
+      <c r="N429" s="26"/>
+      <c r="O429" s="26"/>
+      <c r="P429" s="26"/>
+      <c r="Q429" s="26"/>
+      <c r="R429" s="26"/>
+      <c r="S429" s="26"/>
+      <c r="T429" s="26"/>
+      <c r="U429" s="26"/>
+      <c r="V429" s="26"/>
+      <c r="W429" s="26"/>
+      <c r="X429" s="26"/>
+      <c r="Y429" s="26"/>
+    </row>
+    <row r="430" spans="6:25" ht="18" customHeight="1">
+      <c r="F430" s="44" t="s">
+        <v>266</v>
+      </c>
+      <c r="G430" s="26"/>
+      <c r="H430" s="26"/>
+      <c r="I430" s="26"/>
+      <c r="J430" s="26"/>
+      <c r="K430" s="26"/>
+      <c r="L430" s="26"/>
+      <c r="M430" s="26"/>
+      <c r="N430" s="26"/>
+      <c r="O430" s="26"/>
+      <c r="P430" s="26"/>
+      <c r="Q430" s="26"/>
+      <c r="R430" s="26"/>
+      <c r="S430" s="26"/>
+      <c r="T430" s="26"/>
+      <c r="U430" s="26"/>
+      <c r="V430" s="26"/>
+      <c r="W430" s="26"/>
+      <c r="X430" s="26"/>
+      <c r="Y430" s="26"/>
+    </row>
+    <row r="431" spans="6:25" ht="18" customHeight="1">
+      <c r="F431" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="G431" s="26"/>
+      <c r="H431" s="26"/>
+      <c r="I431" s="26"/>
+      <c r="J431" s="26"/>
+      <c r="K431" s="26"/>
+      <c r="L431" s="26"/>
+      <c r="M431" s="26"/>
+      <c r="N431" s="26"/>
+      <c r="O431" s="26"/>
+      <c r="P431" s="26"/>
+      <c r="Q431" s="26"/>
+      <c r="R431" s="26"/>
+      <c r="S431" s="26"/>
+      <c r="T431" s="26"/>
+      <c r="U431" s="26"/>
+      <c r="V431" s="26"/>
+      <c r="W431" s="26"/>
+      <c r="X431" s="26"/>
+      <c r="Y431" s="26"/>
+    </row>
+    <row r="432" spans="6:25" ht="18" customHeight="1">
+      <c r="F432" s="44" t="s">
+        <v>268</v>
+      </c>
+      <c r="G432" s="26"/>
+      <c r="H432" s="26"/>
+      <c r="I432" s="26"/>
+      <c r="J432" s="26"/>
+      <c r="K432" s="26"/>
+      <c r="L432" s="26"/>
+      <c r="M432" s="26"/>
+      <c r="N432" s="26"/>
+      <c r="O432" s="26"/>
+      <c r="P432" s="26"/>
+      <c r="Q432" s="26"/>
+      <c r="R432" s="26"/>
+      <c r="S432" s="26"/>
+      <c r="T432" s="26"/>
+      <c r="U432" s="26"/>
+      <c r="V432" s="26"/>
+      <c r="W432" s="26"/>
+      <c r="X432" s="26"/>
+      <c r="Y432" s="26"/>
+    </row>
+    <row r="433" spans="4:25" ht="18" customHeight="1">
+      <c r="F433" s="44" t="s">
+        <v>259</v>
+      </c>
+      <c r="G433" s="26"/>
+      <c r="H433" s="26"/>
+      <c r="I433" s="26"/>
+      <c r="J433" s="26"/>
+      <c r="K433" s="26"/>
+      <c r="L433" s="26"/>
+      <c r="M433" s="26"/>
+      <c r="N433" s="26"/>
+      <c r="O433" s="26"/>
+      <c r="P433" s="26"/>
+      <c r="Q433" s="26"/>
+      <c r="R433" s="26"/>
+      <c r="S433" s="26"/>
+      <c r="T433" s="26"/>
+      <c r="U433" s="26"/>
+      <c r="V433" s="26"/>
+      <c r="W433" s="26"/>
+      <c r="X433" s="26"/>
+      <c r="Y433" s="26"/>
+    </row>
+    <row r="434" spans="4:25" ht="18" customHeight="1">
+      <c r="F434" s="44" t="s">
+        <v>269</v>
+      </c>
+      <c r="G434" s="26"/>
+      <c r="H434" s="26"/>
+      <c r="I434" s="26"/>
+      <c r="J434" s="26"/>
+      <c r="K434" s="26"/>
+      <c r="L434" s="26"/>
+      <c r="M434" s="26"/>
+      <c r="N434" s="26"/>
+      <c r="O434" s="26"/>
+      <c r="P434" s="26"/>
+      <c r="Q434" s="26"/>
+      <c r="R434" s="26"/>
+      <c r="S434" s="26"/>
+      <c r="T434" s="26"/>
+      <c r="U434" s="26"/>
+      <c r="V434" s="26"/>
+      <c r="W434" s="26"/>
+      <c r="X434" s="26"/>
+      <c r="Y434" s="26"/>
+    </row>
+    <row r="435" spans="4:25" ht="18" customHeight="1">
+      <c r="F435" s="44" t="s">
+        <v>270</v>
+      </c>
+      <c r="G435" s="26"/>
+      <c r="H435" s="26"/>
+      <c r="I435" s="26"/>
+      <c r="J435" s="26"/>
+      <c r="K435" s="26"/>
+      <c r="L435" s="26"/>
+      <c r="M435" s="26"/>
+      <c r="N435" s="26"/>
+      <c r="O435" s="26"/>
+      <c r="P435" s="26"/>
+      <c r="Q435" s="26"/>
+      <c r="R435" s="26"/>
+      <c r="S435" s="26"/>
+      <c r="T435" s="26"/>
+      <c r="U435" s="26"/>
+      <c r="V435" s="26"/>
+      <c r="W435" s="26"/>
+      <c r="X435" s="26"/>
+      <c r="Y435" s="26"/>
+    </row>
+    <row r="436" spans="4:25" ht="18" customHeight="1">
+      <c r="F436" s="44" t="s">
+        <v>259</v>
+      </c>
+      <c r="G436" s="26"/>
+      <c r="H436" s="26"/>
+      <c r="I436" s="26"/>
+      <c r="J436" s="26"/>
+      <c r="K436" s="26"/>
+      <c r="L436" s="26"/>
+      <c r="M436" s="26"/>
+      <c r="N436" s="26"/>
+      <c r="O436" s="26"/>
+      <c r="P436" s="26"/>
+      <c r="Q436" s="26"/>
+      <c r="R436" s="26"/>
+      <c r="S436" s="26"/>
+      <c r="T436" s="26"/>
+      <c r="U436" s="26"/>
+      <c r="V436" s="26"/>
+      <c r="W436" s="26"/>
+      <c r="X436" s="26"/>
+      <c r="Y436" s="26"/>
+    </row>
+    <row r="437" spans="4:25" ht="18" customHeight="1">
+      <c r="F437" s="44" t="s">
+        <v>271</v>
+      </c>
+      <c r="G437" s="26"/>
+      <c r="H437" s="26"/>
+      <c r="I437" s="26"/>
+      <c r="J437" s="26"/>
+      <c r="K437" s="26"/>
+      <c r="L437" s="26"/>
+      <c r="M437" s="26"/>
+      <c r="N437" s="26"/>
+      <c r="O437" s="26"/>
+      <c r="P437" s="26"/>
+      <c r="Q437" s="26"/>
+      <c r="R437" s="26"/>
+      <c r="S437" s="26"/>
+      <c r="T437" s="26"/>
+      <c r="U437" s="26"/>
+      <c r="V437" s="26"/>
+      <c r="W437" s="26"/>
+      <c r="X437" s="26"/>
+      <c r="Y437" s="26"/>
+    </row>
+    <row r="438" spans="4:25" ht="18" customHeight="1">
+      <c r="F438" s="44" t="s">
+        <v>272</v>
+      </c>
+      <c r="G438" s="26"/>
+      <c r="H438" s="26"/>
+      <c r="I438" s="26"/>
+      <c r="J438" s="26"/>
+      <c r="K438" s="26"/>
+      <c r="L438" s="26"/>
+      <c r="M438" s="26"/>
+      <c r="N438" s="26"/>
+      <c r="O438" s="26"/>
+      <c r="P438" s="26"/>
+      <c r="Q438" s="26"/>
+      <c r="R438" s="26"/>
+      <c r="S438" s="26"/>
+      <c r="T438" s="26"/>
+      <c r="U438" s="26"/>
+      <c r="V438" s="26"/>
+      <c r="W438" s="26"/>
+      <c r="X438" s="26"/>
+      <c r="Y438" s="26"/>
+    </row>
+    <row r="439" spans="4:25" ht="18" customHeight="1">
+      <c r="F439" s="17" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="441" spans="4:25" ht="18" customHeight="1">
+      <c r="D441" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="E441" s="14"/>
+      <c r="F441" s="14"/>
+      <c r="G441" s="14"/>
+      <c r="H441" s="14"/>
+    </row>
+    <row r="442" spans="4:25" ht="18" customHeight="1">
+      <c r="E442" s="6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="444" spans="4:25" ht="18" customHeight="1">
+      <c r="E444" s="6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="445" spans="4:25" ht="18" customHeight="1">
+      <c r="F445" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="446" spans="4:25" ht="18" customHeight="1">
+      <c r="F446" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="447" spans="4:25" ht="18" customHeight="1">
+      <c r="F447" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="4:4" ht="18" customHeight="1">
-      <c r="D35" s="21" t="s">
+    <row r="448" spans="4:25" ht="18" customHeight="1">
+      <c r="F448" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="4:4" ht="18" customHeight="1">
-      <c r="D36" s="21" t="s">
+    <row r="449" spans="5:6" ht="18" customHeight="1">
+      <c r="F449" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="4:4" ht="18" customHeight="1">
-      <c r="D37" s="21" t="s">
+    <row r="450" spans="5:6" ht="18" customHeight="1">
+      <c r="F450" s="12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="4:4" ht="18" customHeight="1">
-      <c r="D38" s="21" t="s">
+    <row r="451" spans="5:6" ht="18" customHeight="1">
+      <c r="F451" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="4:4" ht="18" customHeight="1">
-      <c r="D39" s="21" t="s">
+    <row r="452" spans="5:6" ht="18" customHeight="1">
+      <c r="F452" s="12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="4:4" ht="18" customHeight="1">
-      <c r="D40" s="21" t="s">
+    <row r="453" spans="5:6" ht="18" customHeight="1">
+      <c r="F453" s="12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="4:4" ht="18" customHeight="1">
-      <c r="D41" s="21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="42" spans="4:4" ht="18" customHeight="1">
-      <c r="D42" s="21" t="s">
+    <row r="454" spans="5:6" ht="18" customHeight="1">
+      <c r="F454" s="12" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="455" spans="5:6" ht="18" customHeight="1">
+      <c r="F455" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="456" spans="5:6" ht="18" customHeight="1">
+      <c r="F456" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="458" spans="5:6" ht="18" customHeight="1">
+      <c r="E458" s="6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="459" spans="5:6" ht="18" customHeight="1">
+      <c r="F459" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="460" spans="5:6" ht="18" customHeight="1">
+      <c r="F460" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="461" spans="5:6" ht="18" customHeight="1">
+      <c r="F461" s="17" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="462" spans="5:6" ht="18" customHeight="1">
+      <c r="F462" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="463" spans="5:6" ht="18" customHeight="1">
+      <c r="F463" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="464" spans="5:6" ht="18" customHeight="1">
+      <c r="F464" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="465" spans="4:11" ht="18" customHeight="1">
+      <c r="F465" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="466" spans="4:11" ht="18" customHeight="1">
+      <c r="F466" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="467" spans="4:11" ht="18" customHeight="1">
+      <c r="F467" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="468" spans="4:11" ht="18" customHeight="1">
+      <c r="F468" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="469" spans="4:11" ht="18" customHeight="1">
+      <c r="F469" s="12" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="470" spans="4:11" ht="18" customHeight="1">
+      <c r="F470" s="12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="4:4" ht="18" customHeight="1">
-      <c r="D43" s="21" t="s">
+    <row r="471" spans="4:11" ht="18" customHeight="1">
+      <c r="F471" s="12" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="472" spans="4:11" ht="18" customHeight="1">
+      <c r="F472" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="473" spans="4:11" ht="18" customHeight="1">
+      <c r="F473" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="475" spans="4:11" ht="18" customHeight="1">
+      <c r="D475" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="E475" s="14"/>
+      <c r="F475" s="14"/>
+      <c r="G475" s="14"/>
+      <c r="H475" s="14"/>
+      <c r="I475" s="14"/>
+      <c r="J475" s="14"/>
+      <c r="K475" s="14"/>
+    </row>
+    <row r="476" spans="4:11" ht="18" customHeight="1">
+      <c r="E476" s="6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="477" spans="4:11" ht="18" customHeight="1">
+      <c r="E477" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="479" spans="4:11" ht="18" customHeight="1">
+      <c r="E479" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="480" spans="4:11" ht="18" customHeight="1">
+      <c r="F480" s="6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="482" spans="5:7" ht="18" customHeight="1">
+      <c r="E482" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="F482" s="19"/>
+      <c r="G482" s="19"/>
+    </row>
+    <row r="483" spans="5:7" ht="18" customHeight="1">
+      <c r="F483" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="484" spans="5:7" ht="18" customHeight="1">
+      <c r="F484" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="485" spans="5:7" ht="18" customHeight="1">
+      <c r="F485" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="486" spans="5:7" ht="18" customHeight="1">
+      <c r="F486" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="487" spans="5:7" ht="18" customHeight="1">
+      <c r="F487" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="488" spans="5:7" ht="18" customHeight="1">
+      <c r="F488" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="489" spans="5:7" ht="18" customHeight="1">
+      <c r="F489" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="490" spans="5:7" ht="18" customHeight="1">
+      <c r="F490" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="491" spans="5:7" ht="18" customHeight="1">
+      <c r="F491" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="492" spans="5:7" ht="18" customHeight="1">
+      <c r="F492" s="12" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="493" spans="5:7" ht="18" customHeight="1">
+      <c r="F493" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="494" spans="5:7" ht="18" customHeight="1">
+      <c r="F494" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="495" spans="5:7" ht="18" customHeight="1">
+      <c r="F495" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="496" spans="5:7" ht="18" customHeight="1">
+      <c r="F496" s="12"/>
+    </row>
+    <row r="497" spans="5:12" ht="18" customHeight="1">
+      <c r="E497" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="F497" s="19"/>
+      <c r="G497" s="19"/>
+      <c r="H497" s="19"/>
+      <c r="I497" s="19"/>
+      <c r="J497" s="19"/>
+      <c r="L497" s="29" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="498" spans="5:12" ht="18" customHeight="1">
+      <c r="F498" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="499" spans="5:12" ht="18" customHeight="1">
+      <c r="F499" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="500" spans="5:12" ht="18" customHeight="1">
+      <c r="F500" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="501" spans="5:12" ht="18" customHeight="1">
+      <c r="F501" s="17" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="502" spans="5:12" ht="18" customHeight="1">
+      <c r="F502" s="12" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="503" spans="5:12" ht="18" customHeight="1">
+      <c r="F503" s="12" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="504" spans="5:12" ht="18" customHeight="1">
+      <c r="F504" s="12" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="505" spans="5:12" ht="18" customHeight="1">
+      <c r="F505" s="12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="4:4" ht="18" customHeight="1">
-      <c r="D44" s="21" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="45" spans="4:4" ht="18" customHeight="1">
-      <c r="D45" s="21" t="s">
+    <row r="506" spans="5:12" ht="18" customHeight="1">
+      <c r="F506" s="12" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="507" spans="5:12" ht="18" customHeight="1">
+      <c r="F507" s="12" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="508" spans="5:12" ht="18" customHeight="1">
+      <c r="F508" s="12" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="509" spans="5:12" ht="18" customHeight="1">
+      <c r="F509" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="510" spans="5:12" ht="18" customHeight="1">
+      <c r="F510" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="511" spans="5:12" ht="18" customHeight="1">
+      <c r="F511" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="512" spans="5:12" ht="18" customHeight="1">
+      <c r="F512" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="513" spans="2:7" ht="18" customHeight="1">
+      <c r="F513" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="514" spans="2:7" ht="18" customHeight="1">
+      <c r="F514" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="515" spans="2:7" ht="18" customHeight="1">
+      <c r="F515" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="516" spans="2:7" ht="18" customHeight="1">
+      <c r="F516" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="517" spans="2:7" ht="18" customHeight="1">
+      <c r="F517" s="12" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="518" spans="2:7" ht="18" customHeight="1">
+      <c r="F518" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="519" spans="2:7" ht="18" customHeight="1">
+      <c r="F519" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="520" spans="2:7" ht="18" customHeight="1">
+      <c r="F520" s="12" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="521" spans="2:7" ht="18" customHeight="1">
+      <c r="F521" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="4:4" ht="18" customHeight="1">
-      <c r="D46" s="21" t="s">
+    <row r="522" spans="2:7" ht="18" customHeight="1">
+      <c r="F522" s="12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="4:4" ht="18" customHeight="1">
-      <c r="D47" s="21"/>
-    </row>
-    <row r="57" spans="4:6" ht="18" customHeight="1">
-      <c r="D57" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E57" s="23"/>
-      <c r="F57" s="23"/>
-    </row>
-    <row r="58" spans="4:6" ht="18" customHeight="1">
-      <c r="E58" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="59" spans="4:6" ht="18" customHeight="1">
-      <c r="E59" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="61" spans="4:6" ht="18" customHeight="1">
-      <c r="E61" s="29" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="62" spans="4:6" ht="18" customHeight="1">
-      <c r="E62" s="21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="63" spans="4:6" ht="18" customHeight="1">
-      <c r="E63" s="21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="64" spans="4:6" ht="18" customHeight="1">
-      <c r="E64" s="22" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="65" spans="5:5" ht="18" customHeight="1">
-      <c r="E65" s="22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="66" spans="5:5" ht="18" customHeight="1">
-      <c r="E66" s="21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="67" spans="5:5" ht="18" customHeight="1">
-      <c r="E67" s="21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="68" spans="5:5" ht="18" customHeight="1">
-      <c r="E68" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="69" spans="5:5" ht="18" customHeight="1">
-      <c r="E69" s="21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="70" spans="5:5" ht="18" customHeight="1">
-      <c r="E70" s="21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="71" spans="5:5" ht="18" customHeight="1">
-      <c r="E71" s="21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="72" spans="5:5" ht="18" customHeight="1">
-      <c r="E72" s="21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="73" spans="5:5" ht="18" customHeight="1">
-      <c r="E73" s="21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="74" spans="5:5" ht="18" customHeight="1">
-      <c r="E74" s="21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="75" spans="5:5" ht="18" customHeight="1">
-      <c r="E75" s="21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="76" spans="5:5" ht="18" customHeight="1">
-      <c r="E76" s="21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="77" spans="5:5" ht="18" customHeight="1">
-      <c r="E77" s="21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="78" spans="5:5" ht="18" customHeight="1">
-      <c r="E78" s="21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="79" spans="5:5" ht="18" customHeight="1">
-      <c r="E79" s="21" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="80" spans="5:5" ht="18" customHeight="1">
-      <c r="E80" s="21" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="81" spans="4:8" ht="18" customHeight="1">
-      <c r="E81" s="21" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="82" spans="4:8" ht="18" customHeight="1">
-      <c r="E82" s="21" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="83" spans="4:8" ht="18" customHeight="1">
-      <c r="E83" s="21" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="84" spans="4:8" ht="18" customHeight="1">
-      <c r="E84" s="21" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="85" spans="4:8" ht="18" customHeight="1">
-      <c r="E85" s="21" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="86" spans="4:8" ht="18" customHeight="1">
-      <c r="E86" s="21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="87" spans="4:8" ht="18" customHeight="1">
-      <c r="E87" s="21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="88" spans="4:8" ht="18" customHeight="1">
-      <c r="E88" s="21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="89" spans="4:8" ht="18" customHeight="1">
-      <c r="E89" s="21"/>
-    </row>
-    <row r="90" spans="4:8" ht="18" customHeight="1">
-      <c r="D90" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="E90" s="23"/>
-      <c r="F90" s="23"/>
-      <c r="G90" s="23"/>
-      <c r="H90" s="23"/>
-    </row>
-    <row r="91" spans="4:8" ht="18" customHeight="1">
-      <c r="E91" s="14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="92" spans="4:8" ht="18" customHeight="1">
-      <c r="E92" s="14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="94" spans="4:8" ht="18" customHeight="1">
-      <c r="E94" s="24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="95" spans="4:8" ht="18" customHeight="1">
-      <c r="E95" s="29" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="96" spans="4:8" ht="18" customHeight="1">
-      <c r="E96" s="21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="98" spans="5:27" ht="18" customHeight="1">
-      <c r="E98" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="99" spans="5:27" ht="18" customHeight="1">
-      <c r="E99" s="14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="100" spans="5:27" ht="18" customHeight="1">
-      <c r="E100" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="101" spans="5:27" ht="18" customHeight="1">
-      <c r="E101" s="14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="103" spans="5:27" ht="18" customHeight="1">
-      <c r="E103" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="F103" s="26"/>
-      <c r="G103" s="26"/>
-      <c r="H103" s="26"/>
-      <c r="I103" s="26"/>
-      <c r="J103" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="K103" s="26"/>
-      <c r="L103" s="26"/>
-      <c r="M103" s="26"/>
-      <c r="N103" s="26"/>
-      <c r="O103" s="26"/>
-      <c r="P103" s="26"/>
-      <c r="Q103" s="26"/>
-      <c r="R103" s="26"/>
-      <c r="S103" s="26"/>
-      <c r="T103" s="26"/>
-      <c r="U103" s="26"/>
-      <c r="V103" s="26"/>
-      <c r="W103" s="26"/>
-      <c r="X103" s="26"/>
-      <c r="Y103" s="26"/>
-      <c r="Z103" s="26"/>
-      <c r="AA103" s="26"/>
-    </row>
-    <row r="104" spans="5:27" ht="18" customHeight="1">
-      <c r="E104" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="F104" s="25"/>
-      <c r="G104" s="25"/>
-      <c r="H104" s="25"/>
-      <c r="I104" s="25"/>
-      <c r="J104" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="K104" s="27"/>
-      <c r="L104" s="27"/>
-      <c r="M104" s="27"/>
-      <c r="N104" s="27"/>
-      <c r="O104" s="27"/>
-      <c r="P104" s="27"/>
-      <c r="Q104" s="27"/>
-      <c r="R104" s="27"/>
-      <c r="S104" s="27"/>
-      <c r="T104" s="27"/>
-      <c r="U104" s="27"/>
-      <c r="V104" s="27"/>
-      <c r="W104" s="27"/>
-      <c r="X104" s="27"/>
-      <c r="Y104" s="27"/>
-      <c r="Z104" s="27"/>
-      <c r="AA104" s="27"/>
-    </row>
-    <row r="105" spans="5:27" ht="18" customHeight="1">
-      <c r="E105" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="F105" s="25"/>
-      <c r="G105" s="25"/>
-      <c r="H105" s="25"/>
-      <c r="I105" s="25"/>
-      <c r="J105" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="K105" s="27"/>
-      <c r="L105" s="27"/>
-      <c r="M105" s="27"/>
-      <c r="N105" s="27"/>
-      <c r="O105" s="27"/>
-      <c r="P105" s="27"/>
-      <c r="Q105" s="27"/>
-      <c r="R105" s="27"/>
-      <c r="S105" s="27"/>
-      <c r="T105" s="27"/>
-      <c r="U105" s="27"/>
-      <c r="V105" s="27"/>
-      <c r="W105" s="27"/>
-      <c r="X105" s="27"/>
-      <c r="Y105" s="27"/>
-      <c r="Z105" s="27"/>
-      <c r="AA105" s="27"/>
-    </row>
-    <row r="106" spans="5:27" ht="18" customHeight="1">
-      <c r="E106" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="F106" s="25"/>
-      <c r="G106" s="25"/>
-      <c r="H106" s="25"/>
-      <c r="I106" s="25"/>
-      <c r="J106" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="K106" s="27"/>
-      <c r="L106" s="27"/>
-      <c r="M106" s="27"/>
-      <c r="N106" s="27"/>
-      <c r="O106" s="27"/>
-      <c r="P106" s="27"/>
-      <c r="Q106" s="27"/>
-      <c r="R106" s="27"/>
-      <c r="S106" s="27"/>
-      <c r="T106" s="27"/>
-      <c r="U106" s="27"/>
-      <c r="V106" s="27"/>
-      <c r="W106" s="27"/>
-      <c r="X106" s="27"/>
-      <c r="Y106" s="27"/>
-      <c r="Z106" s="27"/>
-      <c r="AA106" s="27"/>
-    </row>
-    <row r="107" spans="5:27" ht="18" customHeight="1">
-      <c r="E107" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="F107" s="25"/>
-      <c r="G107" s="25"/>
-      <c r="H107" s="25"/>
-      <c r="I107" s="25"/>
-      <c r="J107" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="K107" s="27"/>
-      <c r="L107" s="27"/>
-      <c r="M107" s="27"/>
-      <c r="N107" s="27"/>
-      <c r="O107" s="27"/>
-      <c r="P107" s="27"/>
-      <c r="Q107" s="27"/>
-      <c r="R107" s="27"/>
-      <c r="S107" s="27"/>
-      <c r="T107" s="27"/>
-      <c r="U107" s="27"/>
-      <c r="V107" s="27"/>
-      <c r="W107" s="27"/>
-      <c r="X107" s="27"/>
-      <c r="Y107" s="27"/>
-      <c r="Z107" s="27"/>
-      <c r="AA107" s="27"/>
-    </row>
-    <row r="108" spans="5:27" ht="18" customHeight="1">
-      <c r="E108" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="F108" s="25"/>
-      <c r="G108" s="25"/>
-      <c r="H108" s="25"/>
-      <c r="I108" s="25"/>
-      <c r="J108" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="K108" s="27"/>
-      <c r="L108" s="27"/>
-      <c r="M108" s="27"/>
-      <c r="N108" s="27"/>
-      <c r="O108" s="27"/>
-      <c r="P108" s="27"/>
-      <c r="Q108" s="27"/>
-      <c r="R108" s="27"/>
-      <c r="S108" s="27"/>
-      <c r="T108" s="27"/>
-      <c r="U108" s="27"/>
-      <c r="V108" s="27"/>
-      <c r="W108" s="27"/>
-      <c r="X108" s="27"/>
-      <c r="Y108" s="27"/>
-      <c r="Z108" s="27"/>
-      <c r="AA108" s="27"/>
-    </row>
-    <row r="109" spans="5:27" ht="18" customHeight="1">
-      <c r="E109" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="F109" s="25"/>
-      <c r="G109" s="25"/>
-      <c r="H109" s="25"/>
-      <c r="I109" s="25"/>
-      <c r="J109" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="K109" s="27"/>
-      <c r="L109" s="27"/>
-      <c r="M109" s="27"/>
-      <c r="N109" s="27"/>
-      <c r="O109" s="27"/>
-      <c r="P109" s="27"/>
-      <c r="Q109" s="27"/>
-      <c r="R109" s="27"/>
-      <c r="S109" s="27"/>
-      <c r="T109" s="27"/>
-      <c r="U109" s="27"/>
-      <c r="V109" s="27"/>
-      <c r="W109" s="27"/>
-      <c r="X109" s="27"/>
-      <c r="Y109" s="27"/>
-      <c r="Z109" s="27"/>
-      <c r="AA109" s="27"/>
-    </row>
-    <row r="110" spans="5:27" ht="18" customHeight="1">
-      <c r="E110" s="33"/>
-      <c r="F110" s="33"/>
-      <c r="G110" s="33"/>
-      <c r="H110" s="33"/>
-      <c r="I110" s="33"/>
-      <c r="J110" s="34"/>
-      <c r="K110" s="34"/>
-      <c r="L110" s="34"/>
-      <c r="M110" s="34"/>
-      <c r="N110" s="34"/>
-      <c r="O110" s="34"/>
-      <c r="P110" s="34"/>
-      <c r="Q110" s="34"/>
-      <c r="R110" s="34"/>
-      <c r="S110" s="34"/>
-      <c r="T110" s="34"/>
-      <c r="U110" s="34"/>
-      <c r="V110" s="34"/>
-      <c r="W110" s="34"/>
-      <c r="X110" s="34"/>
-      <c r="Y110" s="34"/>
-      <c r="Z110" s="34"/>
-      <c r="AA110" s="34"/>
-    </row>
-    <row r="111" spans="5:27" ht="18" customHeight="1">
-      <c r="E111" s="32" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="112" spans="5:27" ht="18" customHeight="1">
-      <c r="E112" s="21"/>
-      <c r="F112" s="29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="113" spans="5:27" ht="18" customHeight="1">
-      <c r="E113" s="21"/>
-      <c r="F113" s="29" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="114" spans="5:27" ht="18" customHeight="1">
-      <c r="E114" s="21"/>
-      <c r="F114" s="21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="115" spans="5:27" ht="18" customHeight="1">
-      <c r="E115" s="21"/>
-      <c r="F115" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="G115" s="30"/>
-      <c r="H115" s="30"/>
-      <c r="I115" s="30"/>
-      <c r="J115" s="30"/>
-      <c r="K115" s="30"/>
-      <c r="L115" s="30"/>
-      <c r="M115" s="30"/>
-      <c r="N115" s="30"/>
-      <c r="O115" s="30"/>
-      <c r="P115" s="30"/>
-      <c r="Q115" s="30"/>
-      <c r="R115" s="30"/>
-      <c r="S115" s="30"/>
-      <c r="T115" s="30"/>
-      <c r="U115" s="30"/>
-      <c r="V115" s="30"/>
-      <c r="W115" s="30"/>
-      <c r="X115" s="30"/>
-      <c r="Y115" s="30"/>
-      <c r="Z115" s="30"/>
-      <c r="AA115" s="30"/>
-    </row>
-    <row r="116" spans="5:27" ht="18" customHeight="1">
-      <c r="E116" s="21"/>
-      <c r="F116" s="29" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="117" spans="5:27" ht="18" customHeight="1">
-      <c r="E117" s="21"/>
-      <c r="F117" s="21" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="118" spans="5:27" ht="18" customHeight="1">
-      <c r="E118" s="28"/>
-      <c r="F118" s="29" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="119" spans="5:27" ht="18" customHeight="1">
-      <c r="E119" s="21"/>
-      <c r="F119" s="21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="120" spans="5:27" ht="18" customHeight="1">
-      <c r="E120" s="21"/>
-      <c r="F120" s="21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="121" spans="5:27" ht="18" customHeight="1">
-      <c r="E121" s="21"/>
-      <c r="F121" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="122" spans="5:27" ht="18" customHeight="1">
-      <c r="E122" s="21"/>
-      <c r="F122" s="21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="123" spans="5:27" ht="18" customHeight="1">
-      <c r="E123" s="21"/>
-      <c r="F123" s="21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="124" spans="5:27" ht="18" customHeight="1">
-      <c r="E124" s="21"/>
-      <c r="F124" s="21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="125" spans="5:27" ht="18" customHeight="1">
-      <c r="E125" s="21"/>
-      <c r="F125" s="21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="126" spans="5:27" ht="18" customHeight="1">
-      <c r="E126" s="21"/>
-      <c r="F126" s="21" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="127" spans="5:27" ht="18" customHeight="1">
-      <c r="E127" s="21"/>
-      <c r="F127" s="21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="128" spans="5:27" ht="18" customHeight="1">
-      <c r="E128" s="21"/>
-      <c r="F128" s="21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="129" spans="5:6" ht="18" customHeight="1">
-      <c r="E129" s="21"/>
-      <c r="F129" s="21" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="130" spans="5:6" ht="18" customHeight="1">
-      <c r="E130" s="21"/>
-      <c r="F130" s="21" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="131" spans="5:6" ht="18" customHeight="1">
-      <c r="E131" s="21"/>
-      <c r="F131" s="21" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="132" spans="5:6" ht="18" customHeight="1">
-      <c r="E132" s="21"/>
-      <c r="F132" s="21" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="133" spans="5:6" ht="18" customHeight="1">
-      <c r="E133" s="21"/>
-      <c r="F133" s="21" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="134" spans="5:6" ht="18" customHeight="1">
-      <c r="E134" s="21"/>
-      <c r="F134" s="21" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="135" spans="5:6" ht="18" customHeight="1">
-      <c r="E135" s="21"/>
-      <c r="F135" s="21" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="136" spans="5:6" ht="18" customHeight="1">
-      <c r="E136" s="21"/>
-      <c r="F136" s="21" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="137" spans="5:6" ht="18" customHeight="1">
-      <c r="E137" s="21"/>
-      <c r="F137" s="21" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="138" spans="5:6" ht="18" customHeight="1">
-      <c r="E138" s="21"/>
-      <c r="F138" s="21" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="139" spans="5:6" ht="18" customHeight="1">
-      <c r="E139" s="21"/>
-      <c r="F139" s="21" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="140" spans="5:6" ht="18" customHeight="1">
-      <c r="E140" s="21"/>
-      <c r="F140" s="21" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="141" spans="5:6" ht="18" customHeight="1">
-      <c r="E141" s="21"/>
-      <c r="F141" s="21" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="142" spans="5:6" ht="18" customHeight="1">
-      <c r="E142" s="21"/>
-      <c r="F142" s="21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="143" spans="5:6" ht="18" customHeight="1">
-      <c r="E143" s="21"/>
-      <c r="F143" s="21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="144" spans="5:6" ht="18" customHeight="1">
-      <c r="E144" s="32" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="146" spans="6:16" ht="18" customHeight="1">
-      <c r="F146" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="G146" s="30"/>
-      <c r="H146" s="30"/>
-      <c r="I146" s="30"/>
-      <c r="J146" s="30"/>
-    </row>
-    <row r="147" spans="6:16" ht="18" customHeight="1">
-      <c r="G147" s="24" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="148" spans="6:16" ht="18" customHeight="1">
-      <c r="F148" s="24"/>
-    </row>
-    <row r="149" spans="6:16" ht="18" customHeight="1">
-      <c r="F149" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="G149" s="30"/>
-      <c r="H149" s="30"/>
-      <c r="I149" s="30"/>
-      <c r="J149" s="30"/>
-      <c r="K149" s="30"/>
-      <c r="L149" s="30"/>
-      <c r="M149" s="30"/>
-      <c r="N149" s="30"/>
-      <c r="O149" s="30"/>
-      <c r="P149" s="30"/>
-    </row>
-    <row r="150" spans="6:16" ht="18" customHeight="1">
-      <c r="G150" s="24" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="151" spans="6:16" ht="18" customHeight="1">
-      <c r="G151" s="24"/>
-    </row>
-    <row r="152" spans="6:16" ht="18" customHeight="1">
-      <c r="F152" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="G152" s="37"/>
-    </row>
-    <row r="153" spans="6:16" s="38" customFormat="1" ht="18" customHeight="1">
-      <c r="G153" s="39"/>
-    </row>
-    <row r="154" spans="6:16" ht="18" customHeight="1">
-      <c r="G154" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="H154" s="40"/>
-      <c r="I154" s="40"/>
-    </row>
-    <row r="155" spans="6:16" ht="18" customHeight="1">
-      <c r="H155" s="29" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="156" spans="6:16" ht="18" customHeight="1">
-      <c r="H156" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="I156" s="36"/>
-      <c r="J156" s="36"/>
-      <c r="K156" s="36"/>
-      <c r="L156" s="36"/>
-      <c r="M156" s="36"/>
-      <c r="N156" s="36"/>
-    </row>
-    <row r="157" spans="6:16" ht="18" customHeight="1">
-      <c r="H157" s="21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="158" spans="6:16" ht="18" customHeight="1">
-      <c r="H158" s="21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="159" spans="6:16" ht="18" customHeight="1">
-      <c r="H159" s="21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="160" spans="6:16" ht="18" customHeight="1">
-      <c r="H160" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="161" spans="7:18" ht="18" customHeight="1">
-      <c r="H161" s="21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="162" spans="7:18" ht="18" customHeight="1">
-      <c r="H162" s="21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="163" spans="7:18" ht="18" customHeight="1">
-      <c r="H163" s="21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="164" spans="7:18" ht="18" customHeight="1">
-      <c r="H164" s="21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="165" spans="7:18" ht="18" customHeight="1">
-      <c r="H165" s="21" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="166" spans="7:18" ht="18" customHeight="1">
-      <c r="H166" s="21" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="167" spans="7:18" ht="18" customHeight="1">
-      <c r="H167" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="I167" s="36"/>
-      <c r="J167" s="36"/>
-      <c r="K167" s="36"/>
-      <c r="L167" s="36"/>
-      <c r="M167" s="36"/>
-      <c r="N167" s="36"/>
-      <c r="O167" s="36"/>
-      <c r="P167" s="36"/>
-      <c r="Q167" s="36"/>
-      <c r="R167" s="36"/>
-    </row>
-    <row r="168" spans="7:18" ht="18" customHeight="1">
-      <c r="H168" s="21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="169" spans="7:18" ht="18" customHeight="1">
-      <c r="H169" s="21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="171" spans="7:18" ht="18" customHeight="1">
-      <c r="G171" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="H171" s="40"/>
-      <c r="I171" s="40"/>
-    </row>
-    <row r="172" spans="7:18" ht="18" customHeight="1">
-      <c r="H172" s="29" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="173" spans="7:18" ht="18" customHeight="1">
-      <c r="H173" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="I173" s="36"/>
-      <c r="J173" s="36"/>
-      <c r="K173" s="36"/>
-      <c r="L173" s="36"/>
-      <c r="M173" s="36"/>
-    </row>
-    <row r="174" spans="7:18" ht="18" customHeight="1">
-      <c r="H174" s="21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="175" spans="7:18" ht="18" customHeight="1">
-      <c r="H175" s="21" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="176" spans="7:18" ht="18" customHeight="1">
-      <c r="H176" s="21" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="177" spans="4:13" ht="18" customHeight="1">
-      <c r="H177" s="21" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="178" spans="4:13" ht="18" customHeight="1">
-      <c r="H178" s="21" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="179" spans="4:13" ht="18" customHeight="1">
-      <c r="H179" s="21" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="180" spans="4:13" ht="18" customHeight="1">
-      <c r="H180" s="21" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="181" spans="4:13" ht="18" customHeight="1">
-      <c r="H181" s="21" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="182" spans="4:13" ht="18" customHeight="1">
-      <c r="H182" s="21" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="183" spans="4:13" ht="18" customHeight="1">
-      <c r="H183" s="21" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="184" spans="4:13" ht="18" customHeight="1">
-      <c r="H184" s="21" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="185" spans="4:13" ht="18" customHeight="1">
-      <c r="H185" s="21" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="187" spans="4:13" ht="18" customHeight="1">
-      <c r="D187" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="E187" s="23"/>
-      <c r="F187" s="23"/>
-      <c r="G187" s="23"/>
-      <c r="H187" s="23"/>
-    </row>
-    <row r="188" spans="4:13" ht="18" customHeight="1">
-      <c r="E188" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="M188" s="41" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="189" spans="4:13" ht="18" customHeight="1">
-      <c r="E189" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="M189" s="41" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="190" spans="4:13" ht="18" customHeight="1">
-      <c r="E190" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="M190" s="41" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="192" spans="4:13" ht="18" customHeight="1">
-      <c r="E192" s="29" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="193" spans="5:5" ht="18" customHeight="1">
-      <c r="E193" s="21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="194" spans="5:5" ht="18" customHeight="1">
-      <c r="E194" s="29" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="195" spans="5:5" ht="18" customHeight="1">
-      <c r="E195" s="21" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="196" spans="5:5" ht="18" customHeight="1">
-      <c r="E196" s="21" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="197" spans="5:5" ht="18" customHeight="1">
-      <c r="E197" s="21" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="198" spans="5:5" ht="18" customHeight="1">
-      <c r="E198" s="21" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="199" spans="5:5" ht="18" customHeight="1">
-      <c r="E199" s="21" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="200" spans="5:5" ht="18" customHeight="1">
-      <c r="E200" s="21" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="201" spans="5:5" ht="18" customHeight="1">
-      <c r="E201" s="21" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="202" spans="5:5" ht="18" customHeight="1">
-      <c r="E202" s="21" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="203" spans="5:5" ht="18" customHeight="1">
-      <c r="E203" s="21" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="204" spans="5:5" ht="18" customHeight="1">
-      <c r="E204" s="21" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="205" spans="5:5" ht="18" customHeight="1">
-      <c r="E205" s="21" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="206" spans="5:5" ht="18" customHeight="1">
-      <c r="E206" s="21" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="207" spans="5:5" ht="18" customHeight="1">
-      <c r="E207" s="21" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="208" spans="5:5" ht="18" customHeight="1">
-      <c r="E208" s="21" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="209" spans="5:5" ht="18" customHeight="1">
-      <c r="E209" s="21" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="210" spans="5:5" ht="18" customHeight="1">
-      <c r="E210" s="21" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="211" spans="5:5" ht="18" customHeight="1">
-      <c r="E211" s="21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="212" spans="5:5" ht="18" customHeight="1">
-      <c r="E212" s="21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="213" spans="5:5" ht="18" customHeight="1">
-      <c r="E213" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="214" spans="5:5" ht="18" customHeight="1">
-      <c r="E214" s="21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="215" spans="5:5" ht="18" customHeight="1">
-      <c r="E215" s="21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="216" spans="5:5" ht="18" customHeight="1">
-      <c r="E216" s="21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="217" spans="5:5" ht="18" customHeight="1">
-      <c r="E217" s="21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="218" spans="5:5" ht="18" customHeight="1">
-      <c r="E218" s="21" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="219" spans="5:5" ht="18" customHeight="1">
-      <c r="E219" s="21" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="220" spans="5:5" ht="18" customHeight="1">
-      <c r="E220" s="21" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="221" spans="5:5" ht="18" customHeight="1">
-      <c r="E221" s="21" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="222" spans="5:5" ht="18" customHeight="1">
-      <c r="E222" s="21" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="223" spans="5:5" ht="18" customHeight="1">
-      <c r="E223" s="21" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="224" spans="5:5" ht="18" customHeight="1">
-      <c r="E224" s="21" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="225" spans="3:7" ht="18" customHeight="1">
-      <c r="E225" s="21" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="226" spans="3:7" ht="18" customHeight="1">
-      <c r="E226" s="21" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="227" spans="3:7" ht="18" customHeight="1">
-      <c r="E227" s="21" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="228" spans="3:7" ht="18" customHeight="1">
-      <c r="E228" s="21" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="229" spans="3:7" ht="18" customHeight="1">
-      <c r="E229" s="21" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="230" spans="3:7" ht="18" customHeight="1">
-      <c r="E230" s="21" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="231" spans="3:7" ht="18" customHeight="1">
-      <c r="E231" s="21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="232" spans="3:7" ht="18" customHeight="1">
-      <c r="E232" s="21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="234" spans="3:7" ht="18" customHeight="1">
-      <c r="C234" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="D234" s="23"/>
-      <c r="E234" s="23"/>
-      <c r="F234" s="23"/>
-      <c r="G234" s="23"/>
-    </row>
-    <row r="235" spans="3:7" ht="18" customHeight="1">
-      <c r="D235" s="14" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="263" spans="4:33" ht="18" customHeight="1">
-      <c r="D263" s="31" t="s">
-        <v>171</v>
-      </c>
-      <c r="E263" s="31"/>
-      <c r="F263" s="31"/>
-      <c r="G263" s="31"/>
-      <c r="H263" s="31"/>
-    </row>
-    <row r="264" spans="4:33" ht="18" customHeight="1">
-      <c r="E264" s="14" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="266" spans="4:33" ht="18" customHeight="1">
-      <c r="E266" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="F266" s="26"/>
-      <c r="G266" s="26"/>
-      <c r="H266" s="26"/>
-      <c r="I266" s="26"/>
-      <c r="J266" s="26"/>
-      <c r="K266" s="26"/>
-      <c r="L266" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="M266" s="26"/>
-      <c r="N266" s="26"/>
-      <c r="O266" s="26"/>
-      <c r="P266" s="26"/>
-      <c r="Q266" s="26"/>
-      <c r="R266" s="26"/>
-      <c r="S266" s="26"/>
-      <c r="T266" s="26"/>
-      <c r="U266" s="26"/>
-      <c r="V266" s="26"/>
-      <c r="W266" s="26"/>
-      <c r="X266" s="26"/>
-      <c r="Y266" s="26"/>
-      <c r="Z266" s="26"/>
-      <c r="AA266" s="26"/>
-      <c r="AB266" s="26"/>
-      <c r="AC266" s="26"/>
-      <c r="AD266" s="26"/>
-      <c r="AE266" s="26"/>
-      <c r="AF266" s="26"/>
-      <c r="AG266" s="26"/>
-    </row>
-    <row r="267" spans="4:33" ht="18" customHeight="1">
-      <c r="E267" s="45" t="s">
-        <v>174</v>
-      </c>
-      <c r="F267" s="45"/>
-      <c r="G267" s="45"/>
-      <c r="H267" s="45"/>
-      <c r="I267" s="45"/>
-      <c r="J267" s="45"/>
-      <c r="K267" s="45"/>
-      <c r="L267" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="M267" s="27"/>
-      <c r="N267" s="27"/>
-      <c r="O267" s="27"/>
-      <c r="P267" s="27"/>
-      <c r="Q267" s="27"/>
-      <c r="R267" s="27"/>
-      <c r="S267" s="27"/>
-      <c r="T267" s="27"/>
-      <c r="U267" s="27"/>
-      <c r="V267" s="27"/>
-      <c r="W267" s="27"/>
-      <c r="X267" s="27"/>
-      <c r="Y267" s="27"/>
-      <c r="Z267" s="27"/>
-      <c r="AA267" s="27"/>
-      <c r="AB267" s="27"/>
-      <c r="AC267" s="27"/>
-      <c r="AD267" s="27"/>
-      <c r="AE267" s="27"/>
-      <c r="AF267" s="27"/>
-      <c r="AG267" s="27"/>
-    </row>
-    <row r="268" spans="4:33" ht="18" customHeight="1">
-      <c r="E268" s="45" t="s">
-        <v>176</v>
-      </c>
-      <c r="F268" s="45"/>
-      <c r="G268" s="45"/>
-      <c r="H268" s="45"/>
-      <c r="I268" s="45"/>
-      <c r="J268" s="45"/>
-      <c r="K268" s="45"/>
-      <c r="L268" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="M268" s="27"/>
-      <c r="N268" s="27"/>
-      <c r="O268" s="27"/>
-      <c r="P268" s="27"/>
-      <c r="Q268" s="27"/>
-      <c r="R268" s="27"/>
-      <c r="S268" s="27"/>
-      <c r="T268" s="27"/>
-      <c r="U268" s="27"/>
-      <c r="V268" s="27"/>
-      <c r="W268" s="27"/>
-      <c r="X268" s="27"/>
-      <c r="Y268" s="27"/>
-      <c r="Z268" s="27"/>
-      <c r="AA268" s="27"/>
-      <c r="AB268" s="27"/>
-      <c r="AC268" s="27"/>
-      <c r="AD268" s="27"/>
-      <c r="AE268" s="27"/>
-      <c r="AF268" s="27"/>
-      <c r="AG268" s="27"/>
-    </row>
-    <row r="269" spans="4:33" ht="18" customHeight="1">
-      <c r="E269" s="45" t="s">
-        <v>178</v>
-      </c>
-      <c r="F269" s="45"/>
-      <c r="G269" s="45"/>
-      <c r="H269" s="45"/>
-      <c r="I269" s="45"/>
-      <c r="J269" s="45"/>
-      <c r="K269" s="45"/>
-      <c r="L269" s="42" t="s">
-        <v>181</v>
-      </c>
-      <c r="M269" s="43"/>
-      <c r="N269" s="43"/>
-      <c r="O269" s="43"/>
-      <c r="P269" s="43"/>
-      <c r="Q269" s="43"/>
-      <c r="R269" s="43"/>
-      <c r="S269" s="43"/>
-      <c r="T269" s="43"/>
-      <c r="U269" s="43"/>
-      <c r="V269" s="43"/>
-      <c r="W269" s="43"/>
-      <c r="X269" s="43"/>
-      <c r="Y269" s="43"/>
-      <c r="Z269" s="43"/>
-      <c r="AA269" s="43"/>
-      <c r="AB269" s="43"/>
-      <c r="AC269" s="43"/>
-      <c r="AD269" s="43"/>
-      <c r="AE269" s="43"/>
-      <c r="AF269" s="43"/>
-      <c r="AG269" s="44"/>
-    </row>
-    <row r="270" spans="4:33" ht="18" customHeight="1">
-      <c r="E270" s="45" t="s">
-        <v>179</v>
-      </c>
-      <c r="F270" s="45"/>
-      <c r="G270" s="45"/>
-      <c r="H270" s="45"/>
-      <c r="I270" s="45"/>
-      <c r="J270" s="45"/>
-      <c r="K270" s="45"/>
-      <c r="L270" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="M270" s="43"/>
-      <c r="N270" s="43"/>
-      <c r="O270" s="43"/>
-      <c r="P270" s="43"/>
-      <c r="Q270" s="43"/>
-      <c r="R270" s="43"/>
-      <c r="S270" s="43"/>
-      <c r="T270" s="43"/>
-      <c r="U270" s="43"/>
-      <c r="V270" s="43"/>
-      <c r="W270" s="43"/>
-      <c r="X270" s="43"/>
-      <c r="Y270" s="43"/>
-      <c r="Z270" s="43"/>
-      <c r="AA270" s="43"/>
-      <c r="AB270" s="43"/>
-      <c r="AC270" s="43"/>
-      <c r="AD270" s="43"/>
-      <c r="AE270" s="43"/>
-      <c r="AF270" s="43"/>
-      <c r="AG270" s="44"/>
-    </row>
-    <row r="272" spans="4:33" ht="18" customHeight="1">
-      <c r="E272" s="29" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="273" spans="5:5" ht="18" customHeight="1">
-      <c r="E273" s="21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="274" spans="5:5" ht="18" customHeight="1">
-      <c r="E274" s="29" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="275" spans="5:5" ht="18" customHeight="1">
-      <c r="E275" s="21" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="276" spans="5:5" ht="18" customHeight="1">
-      <c r="E276" s="21" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="277" spans="5:5" ht="18" customHeight="1">
-      <c r="E277" s="21" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="278" spans="5:5" ht="18" customHeight="1">
-      <c r="E278" s="21" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="279" spans="5:5" ht="18" customHeight="1">
-      <c r="E279" s="21" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="280" spans="5:5" ht="18" customHeight="1">
-      <c r="E280" s="46" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="281" spans="5:5" ht="18" customHeight="1">
-      <c r="E281" s="21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="282" spans="5:5" ht="18" customHeight="1">
-      <c r="E282" s="21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="283" spans="5:5" ht="18" customHeight="1">
-      <c r="E283" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="284" spans="5:5" ht="18" customHeight="1">
-      <c r="E284" s="21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="285" spans="5:5" ht="18" customHeight="1">
-      <c r="E285" s="21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="286" spans="5:5" ht="18" customHeight="1">
-      <c r="E286" s="21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="287" spans="5:5" ht="18" customHeight="1">
-      <c r="E287" s="21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="288" spans="5:5" ht="18" customHeight="1">
-      <c r="E288" s="21" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="289" spans="5:27" ht="18" customHeight="1">
-      <c r="E289" s="21" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="290" spans="5:27" ht="18" customHeight="1">
-      <c r="E290" s="21" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="291" spans="5:27" ht="18" customHeight="1">
-      <c r="E291" s="21" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="292" spans="5:27" ht="18" customHeight="1">
-      <c r="E292" s="21" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="293" spans="5:27" ht="18" customHeight="1">
-      <c r="F293" s="21" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="294" spans="5:27" ht="18" customHeight="1">
-      <c r="F294" s="21" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="295" spans="5:27" ht="18" customHeight="1">
-      <c r="F295" s="21" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="296" spans="5:27" ht="18" customHeight="1">
-      <c r="F296" s="21" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="297" spans="5:27" ht="18" customHeight="1">
-      <c r="E297" s="21" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="298" spans="5:27" ht="18" customHeight="1">
-      <c r="E298" s="21" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="299" spans="5:27" ht="18" customHeight="1">
-      <c r="E299" s="21" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="300" spans="5:27" ht="18" customHeight="1">
-      <c r="E300" s="21" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="301" spans="5:27" ht="18" customHeight="1">
-      <c r="E301" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="AA301" s="47"/>
-    </row>
-    <row r="302" spans="5:27" ht="18" customHeight="1">
-      <c r="E302" s="21" t="s">
-        <v>201</v>
-      </c>
-      <c r="AA302" s="47"/>
-    </row>
-    <row r="303" spans="5:27" ht="18" customHeight="1">
-      <c r="E303" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="AA303" s="47"/>
-    </row>
-    <row r="304" spans="5:27" ht="18" customHeight="1">
-      <c r="E304" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="AA304" s="47"/>
-    </row>
-    <row r="305" spans="5:27" ht="18" customHeight="1">
-      <c r="E305" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="AA305" s="47"/>
-    </row>
-    <row r="306" spans="5:27" ht="18" customHeight="1">
-      <c r="E306" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA306" s="47"/>
-    </row>
-    <row r="307" spans="5:27" ht="18" customHeight="1">
-      <c r="E307" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA307" s="47"/>
-    </row>
-    <row r="309" spans="5:27" ht="18" customHeight="1">
-      <c r="E309" s="30" t="s">
-        <v>204</v>
-      </c>
-      <c r="F309" s="30"/>
-      <c r="G309" s="30"/>
-      <c r="H309" s="30"/>
-      <c r="I309" s="30"/>
-      <c r="J309" s="30"/>
-      <c r="K309" s="30"/>
-      <c r="L309" s="30"/>
-      <c r="M309" s="30"/>
-      <c r="N309" s="30"/>
-      <c r="P309" s="41" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="311" spans="5:27" ht="18" customHeight="1">
-      <c r="F311" s="29" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="312" spans="5:27" ht="18" customHeight="1">
-      <c r="F312" s="29" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="313" spans="5:27" ht="18" customHeight="1">
-      <c r="F313" s="21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="314" spans="5:27" ht="18" customHeight="1">
-      <c r="F314" s="21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="315" spans="5:27" ht="18" customHeight="1">
-      <c r="F315" s="21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="316" spans="5:27" ht="18" customHeight="1">
-      <c r="F316" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="317" spans="5:27" ht="18" customHeight="1">
-      <c r="F317" s="21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="318" spans="5:27" ht="18" customHeight="1">
-      <c r="F318" s="21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="319" spans="5:27" ht="18" customHeight="1">
-      <c r="F319" s="21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="320" spans="5:27" ht="18" customHeight="1">
-      <c r="F320" s="21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="321" spans="6:6" ht="18" customHeight="1">
-      <c r="F321" s="21" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="322" spans="6:6" ht="18" customHeight="1">
-      <c r="F322" s="21" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="323" spans="6:6" ht="18" customHeight="1">
-      <c r="F323" s="21" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="324" spans="6:6" ht="18" customHeight="1">
-      <c r="F324" s="21" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="325" spans="6:6" ht="18" customHeight="1">
-      <c r="F325" s="21" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="326" spans="6:6" ht="18" customHeight="1">
-      <c r="F326" s="21" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="327" spans="6:6" ht="18" customHeight="1">
-      <c r="F327" s="21" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="328" spans="6:6" ht="18" customHeight="1">
-      <c r="F328" s="21" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="329" spans="6:6" ht="18" customHeight="1">
-      <c r="F329" s="21" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="330" spans="6:6" ht="18" customHeight="1">
-      <c r="F330" s="21" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="331" spans="6:6" ht="18" customHeight="1">
-      <c r="F331" s="21" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="332" spans="6:6" ht="18" customHeight="1">
-      <c r="F332" s="21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="333" spans="6:6" ht="18" customHeight="1">
-      <c r="F333" s="21" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="334" spans="6:6" ht="18" customHeight="1">
-      <c r="F334" s="21" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="335" spans="6:6" ht="18" customHeight="1">
-      <c r="F335" s="21" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="336" spans="6:6" ht="18" customHeight="1">
-      <c r="F336" s="21" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="337" spans="6:6" ht="18" customHeight="1">
-      <c r="F337" s="21" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="338" spans="6:6" ht="18" customHeight="1">
-      <c r="F338" s="21" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="339" spans="6:6" ht="18" customHeight="1">
-      <c r="F339" s="21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="340" spans="6:6" ht="18" customHeight="1">
-      <c r="F340" s="21" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="341" spans="6:6" ht="18" customHeight="1">
-      <c r="F341" s="21" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="342" spans="6:6" ht="18" customHeight="1">
-      <c r="F342" s="21" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="343" spans="6:6" ht="18" customHeight="1">
-      <c r="F343" s="21" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="344" spans="6:6" ht="18" customHeight="1">
-      <c r="F344" s="21" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="345" spans="6:6" ht="18" customHeight="1">
-      <c r="F345" s="21" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="346" spans="6:6" ht="18" customHeight="1">
-      <c r="F346" s="21" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="347" spans="6:6" ht="18" customHeight="1">
-      <c r="F347" s="21" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="348" spans="6:6" ht="18" customHeight="1">
-      <c r="F348" s="21" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="349" spans="6:6" ht="18" customHeight="1">
-      <c r="F349" s="21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="350" spans="6:6" ht="18" customHeight="1">
-      <c r="F350" s="21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="351" spans="6:6" ht="18" customHeight="1">
-      <c r="F351" s="21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="366" spans="5:22" ht="18" customHeight="1">
-      <c r="E366" s="50" t="s">
-        <v>228</v>
-      </c>
-      <c r="F366" s="51"/>
-      <c r="G366" s="51"/>
-      <c r="H366" s="51"/>
-      <c r="I366" s="51"/>
-      <c r="J366" s="51"/>
-      <c r="K366" s="51"/>
-      <c r="L366" s="51"/>
-      <c r="M366" s="51"/>
-      <c r="N366" s="51"/>
-      <c r="O366" s="51"/>
-      <c r="P366" s="51"/>
-      <c r="Q366" s="51"/>
-      <c r="R366" s="51"/>
-      <c r="S366" s="51"/>
-      <c r="T366" s="51"/>
-      <c r="U366" s="51"/>
-      <c r="V366" s="52"/>
-    </row>
-    <row r="367" spans="5:22" ht="18" customHeight="1">
-      <c r="E367" s="53" t="s">
-        <v>229</v>
-      </c>
-      <c r="F367" s="54"/>
-      <c r="G367" s="54"/>
-      <c r="H367" s="54"/>
-      <c r="I367" s="54"/>
-      <c r="J367" s="54"/>
-      <c r="K367" s="54"/>
-      <c r="L367" s="54"/>
-      <c r="M367" s="54"/>
-      <c r="N367" s="54"/>
-      <c r="O367" s="54"/>
-      <c r="P367" s="54"/>
-      <c r="Q367" s="54"/>
-      <c r="R367" s="54"/>
-      <c r="S367" s="54"/>
-      <c r="T367" s="54"/>
-      <c r="U367" s="54"/>
-      <c r="V367" s="55"/>
-    </row>
-    <row r="368" spans="5:22" ht="18" customHeight="1">
-      <c r="E368" s="53" t="s">
-        <v>230</v>
-      </c>
-      <c r="F368" s="54"/>
-      <c r="G368" s="54"/>
-      <c r="H368" s="54"/>
-      <c r="I368" s="54"/>
-      <c r="J368" s="54"/>
-      <c r="K368" s="54"/>
-      <c r="L368" s="54"/>
-      <c r="M368" s="54"/>
-      <c r="N368" s="54"/>
-      <c r="O368" s="54"/>
-      <c r="P368" s="54"/>
-      <c r="Q368" s="54"/>
-      <c r="R368" s="54"/>
-      <c r="S368" s="54"/>
-      <c r="T368" s="54"/>
-      <c r="U368" s="54"/>
-      <c r="V368" s="55"/>
-    </row>
-    <row r="369" spans="5:22" ht="18" customHeight="1">
-      <c r="E369" s="53" t="s">
-        <v>231</v>
-      </c>
-      <c r="F369" s="54"/>
-      <c r="G369" s="54"/>
-      <c r="H369" s="54"/>
-      <c r="I369" s="54"/>
-      <c r="J369" s="54"/>
-      <c r="K369" s="54"/>
-      <c r="L369" s="54"/>
-      <c r="M369" s="54"/>
-      <c r="N369" s="54"/>
-      <c r="O369" s="54"/>
-      <c r="P369" s="54"/>
-      <c r="Q369" s="54"/>
-      <c r="R369" s="54"/>
-      <c r="S369" s="54"/>
-      <c r="T369" s="54"/>
-      <c r="U369" s="54"/>
-      <c r="V369" s="55"/>
-    </row>
-    <row r="370" spans="5:22" ht="18" customHeight="1">
-      <c r="E370" s="53" t="s">
-        <v>232</v>
-      </c>
-      <c r="F370" s="54"/>
-      <c r="G370" s="54"/>
-      <c r="H370" s="54"/>
-      <c r="I370" s="54"/>
-      <c r="J370" s="54"/>
-      <c r="K370" s="54"/>
-      <c r="L370" s="54"/>
-      <c r="M370" s="54"/>
-      <c r="N370" s="54"/>
-      <c r="O370" s="54"/>
-      <c r="P370" s="54"/>
-      <c r="Q370" s="54"/>
-      <c r="R370" s="54"/>
-      <c r="S370" s="54"/>
-      <c r="T370" s="54"/>
-      <c r="U370" s="54"/>
-      <c r="V370" s="55"/>
-    </row>
-    <row r="371" spans="5:22" ht="18" customHeight="1">
-      <c r="E371" s="53" t="s">
-        <v>233</v>
-      </c>
-      <c r="F371" s="54"/>
-      <c r="G371" s="54"/>
-      <c r="H371" s="54"/>
-      <c r="I371" s="54"/>
-      <c r="J371" s="54"/>
-      <c r="K371" s="54"/>
-      <c r="L371" s="54"/>
-      <c r="M371" s="54"/>
-      <c r="N371" s="54"/>
-      <c r="O371" s="54"/>
-      <c r="P371" s="54"/>
-      <c r="Q371" s="54"/>
-      <c r="R371" s="54"/>
-      <c r="S371" s="54"/>
-      <c r="T371" s="54"/>
-      <c r="U371" s="54"/>
-      <c r="V371" s="55"/>
-    </row>
-    <row r="372" spans="5:22" ht="18" customHeight="1">
-      <c r="E372" s="56" t="s">
-        <v>234</v>
-      </c>
-      <c r="F372" s="57"/>
-      <c r="G372" s="57"/>
-      <c r="H372" s="57"/>
-      <c r="I372" s="57"/>
-      <c r="J372" s="57"/>
-      <c r="K372" s="57"/>
-      <c r="L372" s="57"/>
-      <c r="M372" s="57"/>
-      <c r="N372" s="57"/>
-      <c r="O372" s="57"/>
-      <c r="P372" s="57"/>
-      <c r="Q372" s="57"/>
-      <c r="R372" s="57"/>
-      <c r="S372" s="57"/>
-      <c r="T372" s="57"/>
-      <c r="U372" s="57"/>
-      <c r="V372" s="58"/>
-    </row>
-    <row r="373" spans="5:22" ht="18" customHeight="1">
-      <c r="E373" s="49"/>
-    </row>
-    <row r="374" spans="5:22" ht="18" customHeight="1">
-      <c r="E374" s="29" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="375" spans="5:22" ht="18" customHeight="1">
-      <c r="E375" s="29" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="376" spans="5:22" ht="18" customHeight="1">
-      <c r="E376" s="21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="377" spans="5:22" ht="18" customHeight="1">
-      <c r="E377" s="21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="378" spans="5:22" ht="18" customHeight="1">
-      <c r="E378" s="21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="379" spans="5:22" ht="18" customHeight="1">
-      <c r="E379" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="380" spans="5:22" ht="18" customHeight="1">
-      <c r="E380" s="21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="381" spans="5:22" ht="18" customHeight="1">
-      <c r="E381" s="21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="382" spans="5:22" ht="18" customHeight="1">
-      <c r="E382" s="21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="383" spans="5:22" ht="18" customHeight="1">
-      <c r="E383" s="21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="384" spans="5:22" ht="18" customHeight="1">
-      <c r="E384" s="21" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="385" spans="5:22" ht="18" customHeight="1">
-      <c r="E385" s="21" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="386" spans="5:22" ht="18" customHeight="1">
-      <c r="E386" s="21" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="387" spans="5:22" ht="18" customHeight="1">
-      <c r="E387" s="21" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="388" spans="5:22" ht="18" customHeight="1">
-      <c r="E388" s="21" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="389" spans="5:22" ht="18" customHeight="1">
-      <c r="E389" s="21" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="390" spans="5:22" ht="18" customHeight="1">
-      <c r="F390" s="21" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="391" spans="5:22" ht="18" customHeight="1">
-      <c r="E391" s="21" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="392" spans="5:22" ht="18" customHeight="1">
-      <c r="E392" s="21" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="393" spans="5:22" ht="18" customHeight="1">
-      <c r="E393" s="21" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="394" spans="5:22" ht="18" customHeight="1">
-      <c r="E394" s="21" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="395" spans="5:22" ht="18" customHeight="1">
-      <c r="E395" s="21" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="396" spans="5:22" ht="18" customHeight="1">
-      <c r="E396" s="21" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="397" spans="5:22" ht="18" customHeight="1">
-      <c r="E397" s="21" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="398" spans="5:22" ht="18" customHeight="1">
-      <c r="E398" s="21" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="399" spans="5:22" ht="18" customHeight="1">
-      <c r="E399" s="21" t="s">
-        <v>246</v>
-      </c>
-      <c r="G399" s="30"/>
-      <c r="H399" s="30"/>
-      <c r="I399" s="30"/>
-      <c r="J399" s="30"/>
-      <c r="K399" s="30"/>
-      <c r="L399" s="30"/>
-      <c r="M399" s="30"/>
-      <c r="N399" s="30"/>
-      <c r="O399" s="30"/>
-      <c r="P399" s="30"/>
-      <c r="Q399" s="30"/>
-      <c r="R399" s="30"/>
-      <c r="S399" s="30"/>
-      <c r="T399" s="30"/>
-      <c r="U399" s="30"/>
-      <c r="V399" s="30"/>
-    </row>
-    <row r="400" spans="5:22" ht="18" customHeight="1">
-      <c r="E400" s="21" t="s">
-        <v>247</v>
-      </c>
-      <c r="G400" s="30"/>
-      <c r="H400" s="30"/>
-      <c r="I400" s="30"/>
-      <c r="J400" s="30"/>
-      <c r="K400" s="30"/>
-      <c r="L400" s="30"/>
-      <c r="M400" s="30"/>
-      <c r="N400" s="30"/>
-      <c r="O400" s="30"/>
-      <c r="P400" s="30"/>
-      <c r="Q400" s="30"/>
-      <c r="R400" s="30"/>
-      <c r="S400" s="30"/>
-      <c r="T400" s="30"/>
-      <c r="U400" s="30"/>
-      <c r="V400" s="30"/>
-    </row>
-    <row r="401" spans="4:8" ht="18" customHeight="1">
-      <c r="E401" s="21" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="402" spans="4:8" ht="18" customHeight="1">
-      <c r="E402" s="21" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="403" spans="4:8" ht="18" customHeight="1">
-      <c r="E403" s="21" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="404" spans="4:8" ht="18" customHeight="1">
-      <c r="E404" s="21" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="405" spans="4:8" ht="18" customHeight="1">
-      <c r="E405" s="21" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="406" spans="4:8" ht="18" customHeight="1">
-      <c r="E406" s="21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="407" spans="4:8" ht="18" customHeight="1">
-      <c r="E407" s="21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="409" spans="4:8" ht="18" customHeight="1">
-      <c r="D409" s="31" t="s">
-        <v>250</v>
-      </c>
-      <c r="E409" s="31"/>
-      <c r="F409" s="31"/>
-      <c r="G409" s="31"/>
-      <c r="H409" s="31"/>
-    </row>
-    <row r="410" spans="4:8" ht="18" customHeight="1">
-      <c r="E410" s="14" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="411" spans="4:8" ht="18" customHeight="1">
-      <c r="E411" s="14" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="413" spans="4:8" ht="18" customHeight="1">
-      <c r="E413" s="59" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="414" spans="4:8" ht="18" customHeight="1">
-      <c r="F414" s="48" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="415" spans="4:8" ht="18" customHeight="1">
-      <c r="F415" s="48" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="417" spans="6:25" ht="18" customHeight="1">
-      <c r="F417" s="29" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="418" spans="6:25" ht="18" customHeight="1">
-      <c r="F418" s="21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="419" spans="6:25" ht="18" customHeight="1">
-      <c r="F419" s="21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="420" spans="6:25" ht="18" customHeight="1">
-      <c r="F420" s="29" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="421" spans="6:25" ht="18" customHeight="1">
-      <c r="F421" s="21" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="422" spans="6:25" ht="18" customHeight="1">
-      <c r="F422" s="21" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="423" spans="6:25" ht="18" customHeight="1">
-      <c r="F423" s="21" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="424" spans="6:25" ht="18" customHeight="1">
-      <c r="F424" s="21" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="425" spans="6:25" ht="18" customHeight="1">
-      <c r="F425" s="21" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="426" spans="6:25" ht="18" customHeight="1">
-      <c r="F426" s="21" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="427" spans="6:25" ht="18" customHeight="1">
-      <c r="F427" s="21" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="428" spans="6:25" ht="18" customHeight="1">
-      <c r="F428" s="29" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="429" spans="6:25" ht="18" customHeight="1">
-      <c r="F429" s="60" t="s">
-        <v>266</v>
-      </c>
-      <c r="G429" s="38"/>
-      <c r="H429" s="38"/>
-      <c r="I429" s="38"/>
-      <c r="J429" s="38"/>
-      <c r="K429" s="38"/>
-      <c r="L429" s="38"/>
-      <c r="M429" s="38"/>
-      <c r="N429" s="38"/>
-      <c r="O429" s="38"/>
-      <c r="P429" s="38"/>
-      <c r="Q429" s="38"/>
-      <c r="R429" s="38"/>
-      <c r="S429" s="38"/>
-      <c r="T429" s="38"/>
-      <c r="U429" s="38"/>
-      <c r="V429" s="38"/>
-      <c r="W429" s="38"/>
-      <c r="X429" s="38"/>
-      <c r="Y429" s="38"/>
-    </row>
-    <row r="430" spans="6:25" ht="18" customHeight="1">
-      <c r="F430" s="60" t="s">
-        <v>267</v>
-      </c>
-      <c r="G430" s="38"/>
-      <c r="H430" s="38"/>
-      <c r="I430" s="38"/>
-      <c r="J430" s="38"/>
-      <c r="K430" s="38"/>
-      <c r="L430" s="38"/>
-      <c r="M430" s="38"/>
-      <c r="N430" s="38"/>
-      <c r="O430" s="38"/>
-      <c r="P430" s="38"/>
-      <c r="Q430" s="38"/>
-      <c r="R430" s="38"/>
-      <c r="S430" s="38"/>
-      <c r="T430" s="38"/>
-      <c r="U430" s="38"/>
-      <c r="V430" s="38"/>
-      <c r="W430" s="38"/>
-      <c r="X430" s="38"/>
-      <c r="Y430" s="38"/>
-    </row>
-    <row r="431" spans="6:25" ht="18" customHeight="1">
-      <c r="F431" s="60" t="s">
-        <v>268</v>
-      </c>
-      <c r="G431" s="38"/>
-      <c r="H431" s="38"/>
-      <c r="I431" s="38"/>
-      <c r="J431" s="38"/>
-      <c r="K431" s="38"/>
-      <c r="L431" s="38"/>
-      <c r="M431" s="38"/>
-      <c r="N431" s="38"/>
-      <c r="O431" s="38"/>
-      <c r="P431" s="38"/>
-      <c r="Q431" s="38"/>
-      <c r="R431" s="38"/>
-      <c r="S431" s="38"/>
-      <c r="T431" s="38"/>
-      <c r="U431" s="38"/>
-      <c r="V431" s="38"/>
-      <c r="W431" s="38"/>
-      <c r="X431" s="38"/>
-      <c r="Y431" s="38"/>
-    </row>
-    <row r="432" spans="6:25" ht="18" customHeight="1">
-      <c r="F432" s="60" t="s">
-        <v>269</v>
-      </c>
-      <c r="G432" s="38"/>
-      <c r="H432" s="38"/>
-      <c r="I432" s="38"/>
-      <c r="J432" s="38"/>
-      <c r="K432" s="38"/>
-      <c r="L432" s="38"/>
-      <c r="M432" s="38"/>
-      <c r="N432" s="38"/>
-      <c r="O432" s="38"/>
-      <c r="P432" s="38"/>
-      <c r="Q432" s="38"/>
-      <c r="R432" s="38"/>
-      <c r="S432" s="38"/>
-      <c r="T432" s="38"/>
-      <c r="U432" s="38"/>
-      <c r="V432" s="38"/>
-      <c r="W432" s="38"/>
-      <c r="X432" s="38"/>
-      <c r="Y432" s="38"/>
-    </row>
-    <row r="433" spans="4:25" ht="18" customHeight="1">
-      <c r="F433" s="60" t="s">
-        <v>260</v>
-      </c>
-      <c r="G433" s="38"/>
-      <c r="H433" s="38"/>
-      <c r="I433" s="38"/>
-      <c r="J433" s="38"/>
-      <c r="K433" s="38"/>
-      <c r="L433" s="38"/>
-      <c r="M433" s="38"/>
-      <c r="N433" s="38"/>
-      <c r="O433" s="38"/>
-      <c r="P433" s="38"/>
-      <c r="Q433" s="38"/>
-      <c r="R433" s="38"/>
-      <c r="S433" s="38"/>
-      <c r="T433" s="38"/>
-      <c r="U433" s="38"/>
-      <c r="V433" s="38"/>
-      <c r="W433" s="38"/>
-      <c r="X433" s="38"/>
-      <c r="Y433" s="38"/>
-    </row>
-    <row r="434" spans="4:25" ht="18" customHeight="1">
-      <c r="F434" s="60" t="s">
-        <v>270</v>
-      </c>
-      <c r="G434" s="38"/>
-      <c r="H434" s="38"/>
-      <c r="I434" s="38"/>
-      <c r="J434" s="38"/>
-      <c r="K434" s="38"/>
-      <c r="L434" s="38"/>
-      <c r="M434" s="38"/>
-      <c r="N434" s="38"/>
-      <c r="O434" s="38"/>
-      <c r="P434" s="38"/>
-      <c r="Q434" s="38"/>
-      <c r="R434" s="38"/>
-      <c r="S434" s="38"/>
-      <c r="T434" s="38"/>
-      <c r="U434" s="38"/>
-      <c r="V434" s="38"/>
-      <c r="W434" s="38"/>
-      <c r="X434" s="38"/>
-      <c r="Y434" s="38"/>
-    </row>
-    <row r="435" spans="4:25" ht="18" customHeight="1">
-      <c r="F435" s="60" t="s">
-        <v>271</v>
-      </c>
-      <c r="G435" s="38"/>
-      <c r="H435" s="38"/>
-      <c r="I435" s="38"/>
-      <c r="J435" s="38"/>
-      <c r="K435" s="38"/>
-      <c r="L435" s="38"/>
-      <c r="M435" s="38"/>
-      <c r="N435" s="38"/>
-      <c r="O435" s="38"/>
-      <c r="P435" s="38"/>
-      <c r="Q435" s="38"/>
-      <c r="R435" s="38"/>
-      <c r="S435" s="38"/>
-      <c r="T435" s="38"/>
-      <c r="U435" s="38"/>
-      <c r="V435" s="38"/>
-      <c r="W435" s="38"/>
-      <c r="X435" s="38"/>
-      <c r="Y435" s="38"/>
-    </row>
-    <row r="436" spans="4:25" ht="18" customHeight="1">
-      <c r="F436" s="60" t="s">
-        <v>260</v>
-      </c>
-      <c r="G436" s="38"/>
-      <c r="H436" s="38"/>
-      <c r="I436" s="38"/>
-      <c r="J436" s="38"/>
-      <c r="K436" s="38"/>
-      <c r="L436" s="38"/>
-      <c r="M436" s="38"/>
-      <c r="N436" s="38"/>
-      <c r="O436" s="38"/>
-      <c r="P436" s="38"/>
-      <c r="Q436" s="38"/>
-      <c r="R436" s="38"/>
-      <c r="S436" s="38"/>
-      <c r="T436" s="38"/>
-      <c r="U436" s="38"/>
-      <c r="V436" s="38"/>
-      <c r="W436" s="38"/>
-      <c r="X436" s="38"/>
-      <c r="Y436" s="38"/>
-    </row>
-    <row r="437" spans="4:25" ht="18" customHeight="1">
-      <c r="F437" s="60" t="s">
-        <v>272</v>
-      </c>
-      <c r="G437" s="38"/>
-      <c r="H437" s="38"/>
-      <c r="I437" s="38"/>
-      <c r="J437" s="38"/>
-      <c r="K437" s="38"/>
-      <c r="L437" s="38"/>
-      <c r="M437" s="38"/>
-      <c r="N437" s="38"/>
-      <c r="O437" s="38"/>
-      <c r="P437" s="38"/>
-      <c r="Q437" s="38"/>
-      <c r="R437" s="38"/>
-      <c r="S437" s="38"/>
-      <c r="T437" s="38"/>
-      <c r="U437" s="38"/>
-      <c r="V437" s="38"/>
-      <c r="W437" s="38"/>
-      <c r="X437" s="38"/>
-      <c r="Y437" s="38"/>
-    </row>
-    <row r="438" spans="4:25" ht="18" customHeight="1">
-      <c r="F438" s="60" t="s">
-        <v>273</v>
-      </c>
-      <c r="G438" s="38"/>
-      <c r="H438" s="38"/>
-      <c r="I438" s="38"/>
-      <c r="J438" s="38"/>
-      <c r="K438" s="38"/>
-      <c r="L438" s="38"/>
-      <c r="M438" s="38"/>
-      <c r="N438" s="38"/>
-      <c r="O438" s="38"/>
-      <c r="P438" s="38"/>
-      <c r="Q438" s="38"/>
-      <c r="R438" s="38"/>
-      <c r="S438" s="38"/>
-      <c r="T438" s="38"/>
-      <c r="U438" s="38"/>
-      <c r="V438" s="38"/>
-      <c r="W438" s="38"/>
-      <c r="X438" s="38"/>
-      <c r="Y438" s="38"/>
-    </row>
-    <row r="439" spans="4:25" ht="18" customHeight="1">
-      <c r="F439" s="29" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="441" spans="4:25" ht="18" customHeight="1">
-      <c r="D441" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="E441" s="23"/>
-      <c r="F441" s="23"/>
-      <c r="G441" s="23"/>
-      <c r="H441" s="23"/>
-    </row>
-    <row r="442" spans="4:25" ht="18" customHeight="1">
-      <c r="E442" s="14" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="444" spans="4:25" ht="18" customHeight="1">
-      <c r="E444" s="14" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="445" spans="4:25" ht="18" customHeight="1">
-      <c r="F445" s="29" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="446" spans="4:25" ht="18" customHeight="1">
-      <c r="F446" s="21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="447" spans="4:25" ht="18" customHeight="1">
-      <c r="F447" s="21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="448" spans="4:25" ht="18" customHeight="1">
-      <c r="F448" s="21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="449" spans="5:6" ht="18" customHeight="1">
-      <c r="F449" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="450" spans="5:6" ht="18" customHeight="1">
-      <c r="F450" s="21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="451" spans="5:6" ht="18" customHeight="1">
-      <c r="F451" s="21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="452" spans="5:6" ht="18" customHeight="1">
-      <c r="F452" s="21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="453" spans="5:6" ht="18" customHeight="1">
-      <c r="F453" s="21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="454" spans="5:6" ht="18" customHeight="1">
-      <c r="F454" s="21" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="455" spans="5:6" ht="18" customHeight="1">
-      <c r="F455" s="21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="456" spans="5:6" ht="18" customHeight="1">
-      <c r="F456" s="21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="458" spans="5:6" ht="18" customHeight="1">
-      <c r="E458" s="14" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="459" spans="5:6" ht="18" customHeight="1">
-      <c r="F459" s="29" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="460" spans="5:6" ht="18" customHeight="1">
-      <c r="F460" s="21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="461" spans="5:6" ht="18" customHeight="1">
-      <c r="F461" s="29" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="462" spans="5:6" ht="18" customHeight="1">
-      <c r="F462" s="21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="463" spans="5:6" ht="18" customHeight="1">
-      <c r="F463" s="21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="464" spans="5:6" ht="18" customHeight="1">
-      <c r="F464" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="465" spans="4:11" ht="18" customHeight="1">
-      <c r="F465" s="21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="466" spans="4:11" ht="18" customHeight="1">
-      <c r="F466" s="21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="467" spans="4:11" ht="18" customHeight="1">
-      <c r="F467" s="21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="468" spans="4:11" ht="18" customHeight="1">
-      <c r="F468" s="21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="469" spans="4:11" ht="18" customHeight="1">
-      <c r="F469" s="21" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="470" spans="4:11" ht="18" customHeight="1">
-      <c r="F470" s="21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="471" spans="4:11" ht="18" customHeight="1">
-      <c r="F471" s="21" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="472" spans="4:11" ht="18" customHeight="1">
-      <c r="F472" s="21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="473" spans="4:11" ht="18" customHeight="1">
-      <c r="F473" s="21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="475" spans="4:11" ht="18" customHeight="1">
-      <c r="D475" s="23" t="s">
-        <v>283</v>
-      </c>
-      <c r="E475" s="23"/>
-      <c r="F475" s="23"/>
-      <c r="G475" s="23"/>
-      <c r="H475" s="23"/>
-      <c r="I475" s="23"/>
-      <c r="J475" s="23"/>
-      <c r="K475" s="23"/>
-    </row>
-    <row r="476" spans="4:11" ht="18" customHeight="1">
-      <c r="E476" s="14" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="477" spans="4:11" ht="18" customHeight="1">
-      <c r="E477" s="14" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="479" spans="4:11" ht="18" customHeight="1">
-      <c r="E479" s="14" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="480" spans="4:11" ht="18" customHeight="1">
-      <c r="F480" s="14" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="482" spans="5:7" ht="18" customHeight="1">
-      <c r="E482" s="31" t="s">
-        <v>288</v>
-      </c>
-      <c r="F482" s="31"/>
-      <c r="G482" s="31"/>
-    </row>
-    <row r="483" spans="5:7" ht="18" customHeight="1">
-      <c r="F483" s="29" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="484" spans="5:7" ht="18" customHeight="1">
-      <c r="F484" s="21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="485" spans="5:7" ht="18" customHeight="1">
-      <c r="F485" s="21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="486" spans="5:7" ht="18" customHeight="1">
-      <c r="F486" s="21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="487" spans="5:7" ht="18" customHeight="1">
-      <c r="F487" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="488" spans="5:7" ht="18" customHeight="1">
-      <c r="F488" s="21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="489" spans="5:7" ht="18" customHeight="1">
-      <c r="F489" s="21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="490" spans="5:7" ht="18" customHeight="1">
-      <c r="F490" s="21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="491" spans="5:7" ht="18" customHeight="1">
-      <c r="F491" s="21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="492" spans="5:7" ht="18" customHeight="1">
-      <c r="F492" s="21" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="493" spans="5:7" ht="18" customHeight="1">
-      <c r="F493" s="21" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="494" spans="5:7" ht="18" customHeight="1">
-      <c r="F494" s="21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="495" spans="5:7" ht="18" customHeight="1">
-      <c r="F495" s="21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="496" spans="5:7" ht="18" customHeight="1">
-      <c r="F496" s="21"/>
-    </row>
-    <row r="497" spans="5:12" ht="18" customHeight="1">
-      <c r="E497" s="31" t="s">
-        <v>289</v>
-      </c>
-      <c r="F497" s="31"/>
-      <c r="G497" s="31"/>
-      <c r="H497" s="31"/>
-      <c r="I497" s="31"/>
-      <c r="J497" s="31"/>
-      <c r="L497" s="41" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="498" spans="5:12" ht="18" customHeight="1">
-      <c r="F498" s="29" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="499" spans="5:12" ht="18" customHeight="1">
-      <c r="F499" s="21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="500" spans="5:12" ht="18" customHeight="1">
-      <c r="F500" s="21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="501" spans="5:12" ht="18" customHeight="1">
-      <c r="F501" s="29" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="502" spans="5:12" ht="18" customHeight="1">
-      <c r="F502" s="21" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="503" spans="5:12" ht="18" customHeight="1">
-      <c r="F503" s="21" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="504" spans="5:12" ht="18" customHeight="1">
-      <c r="F504" s="21" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="505" spans="5:12" ht="18" customHeight="1">
-      <c r="F505" s="21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="506" spans="5:12" ht="18" customHeight="1">
-      <c r="F506" s="21" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="507" spans="5:12" ht="18" customHeight="1">
-      <c r="F507" s="21" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="508" spans="5:12" ht="18" customHeight="1">
-      <c r="F508" s="21" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="509" spans="5:12" ht="18" customHeight="1">
-      <c r="F509" s="29" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="510" spans="5:12" ht="18" customHeight="1">
-      <c r="F510" s="21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="511" spans="5:12" ht="18" customHeight="1">
-      <c r="F511" s="21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="512" spans="5:12" ht="18" customHeight="1">
-      <c r="F512" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="513" spans="2:7" ht="18" customHeight="1">
-      <c r="F513" s="21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="514" spans="2:7" ht="18" customHeight="1">
-      <c r="F514" s="21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="515" spans="2:7" ht="18" customHeight="1">
-      <c r="F515" s="21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="516" spans="2:7" ht="18" customHeight="1">
-      <c r="F516" s="21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="517" spans="2:7" ht="18" customHeight="1">
-      <c r="F517" s="21" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="518" spans="2:7" ht="18" customHeight="1">
-      <c r="F518" s="21" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="519" spans="2:7" ht="18" customHeight="1">
-      <c r="F519" s="21" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="520" spans="2:7" ht="18" customHeight="1">
-      <c r="F520" s="21" t="s">
+    <row r="524" spans="2:7" ht="18" customHeight="1">
+      <c r="D524" s="45" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="521" spans="2:7" ht="18" customHeight="1">
-      <c r="F521" s="21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="522" spans="2:7" ht="18" customHeight="1">
-      <c r="F522" s="21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="524" spans="2:7" ht="18" customHeight="1">
-      <c r="D524" s="61" t="s">
+      <c r="E524" s="14"/>
+      <c r="F524" s="14"/>
+      <c r="G524" s="14"/>
+    </row>
+    <row r="525" spans="2:7" ht="18" customHeight="1">
+      <c r="B525" s="32" t="s">
         <v>300</v>
       </c>
-      <c r="E524" s="23"/>
-      <c r="F524" s="23"/>
-      <c r="G524" s="23"/>
-    </row>
-    <row r="525" spans="2:7" ht="18" customHeight="1">
-      <c r="B525" s="48" t="s">
+    </row>
+    <row r="526" spans="2:7" ht="18" customHeight="1">
+      <c r="B526" s="32" t="s">
         <v>301</v>
-      </c>
-    </row>
-    <row r="526" spans="2:7" ht="18" customHeight="1">
-      <c r="B526" s="48" t="s">
-        <v>302</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="E109:I109"/>
+    <mergeCell ref="J109:AA109"/>
+    <mergeCell ref="A1:A9"/>
+    <mergeCell ref="E103:I103"/>
+    <mergeCell ref="J103:AA103"/>
+    <mergeCell ref="E104:I104"/>
+    <mergeCell ref="J104:AA104"/>
+    <mergeCell ref="E105:I105"/>
+    <mergeCell ref="J105:AA105"/>
+    <mergeCell ref="E106:I106"/>
+    <mergeCell ref="J106:AA106"/>
+    <mergeCell ref="E107:I107"/>
+    <mergeCell ref="J107:AA107"/>
+    <mergeCell ref="E108:I108"/>
+    <mergeCell ref="J108:AA108"/>
     <mergeCell ref="E269:K269"/>
     <mergeCell ref="L269:AG269"/>
     <mergeCell ref="E270:K270"/>
@@ -11856,23 +14467,8 @@
     <mergeCell ref="L267:AG267"/>
     <mergeCell ref="E268:K268"/>
     <mergeCell ref="L268:AG268"/>
-    <mergeCell ref="E106:I106"/>
-    <mergeCell ref="J106:AA106"/>
-    <mergeCell ref="E107:I107"/>
-    <mergeCell ref="J107:AA107"/>
-    <mergeCell ref="E108:I108"/>
-    <mergeCell ref="J108:AA108"/>
-    <mergeCell ref="E109:I109"/>
-    <mergeCell ref="J109:AA109"/>
-    <mergeCell ref="A1:A9"/>
-    <mergeCell ref="E103:I103"/>
-    <mergeCell ref="J103:AA103"/>
-    <mergeCell ref="E104:I104"/>
-    <mergeCell ref="J104:AA104"/>
-    <mergeCell ref="E105:I105"/>
-    <mergeCell ref="J105:AA105"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1" xr:uid="{ED32210F-24A1-4FAD-B4C6-F4FE16F7D1AD}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{52C6A65A-F13C-4B89-9240-52FE014FE5B9}"/>

--- a/doc/JSP_20220513.xlsx
+++ b/doc/JSP_20220513.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DCOM_20220127\03_WEB\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E0FC0D-375A-461B-9972-8563709524AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9487F272-2A53-4272-BAF9-47CC006717F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="12630" windowHeight="15280" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12630" windowHeight="15280" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="목차" sheetId="1" r:id="rId1"/>
     <sheet name="temp" sheetId="5" r:id="rId2"/>
-    <sheet name="servlet_20220516" sheetId="4" r:id="rId3"/>
-    <sheet name="jsp01_내장객체_20220513" sheetId="3" r:id="rId4"/>
+    <sheet name="application_20220517" sheetId="6" r:id="rId3"/>
+    <sheet name="servlet_20220516" sheetId="4" r:id="rId4"/>
+    <sheet name="jsp01_내장객체_20220513" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,102 +30,102 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="413">
   <si>
     <t>NO.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>목록</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>비고</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>용어집</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>환경설정</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>css</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>목
 차</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>\\192.168.3.101</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">강사Email : </t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>jamesol@paran.com</t>
   </si>
   <si>
     <t xml:space="preserve">CAFE : </t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>https://cafe.daum.net/pcwk</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Zoom : </t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>https://us06web.zoom.us/j/5774287769?pwd=TFVXV3NkZkFnVWZ3NlVSVERZK0lZdz09</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Slack</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>https://join.slack.com/t/slack-05r6316/shared_invite/zt-12h1if6yq-TCrMZZJtNbyjh93BGBnNAA</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>평가</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>https://itsc.cafe24.com/</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>html</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>https://developer.mozilla.org/ko/docs/Web/HTML</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>https://developer.mozilla.org/ko/docs/Web/CSS/Reference</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>JSP(Java Server Page)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>JSP, ASP, PHP</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>스크립트 언어</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -151,39 +153,39 @@
       </rPr>
       <t>기반 서버</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>최초 서블릿으로 컴파일된 후에 메모리에서 처리된다.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Hello.jsp</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Hello.java</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Hello.class</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>동작</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Servlet</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>자바의 모든 기능을 사용할 수 있다</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">jsp 또는 다른 서블릿 간 데이터 공유가 쉽다. </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>사용자 정의 태그를 만들어 사용할 수 있다,(JSTL)</t>
@@ -548,15 +550,15 @@
   </si>
   <si>
     <t>긍정의 마음으로 살자</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>jsp</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>html, css, javascript, jquery</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -573,7 +575,7 @@
       </rPr>
       <t>Servlet</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">       comment</t>
@@ -734,87 +736,87 @@
   </si>
   <si>
     <t>지시어(Directives)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>jsp페이지에 속성을 기술하는 곳으로 jsp 컨테이너에게</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>해당 페이지를 어떻게 처리해야 하는지 전달하기 위한 내용을 담고 있다.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>language : 페이지에서 사용하는 언어</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>contentType : jsp MIME</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>pageEncoding : UTF-8, euc-kr, ISO-8859-1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>import : java import와 동일</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>속성</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>설명</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>session</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>세션 사용 여부를 지정</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>buffer</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>출력 버퍼의 크기를 지정</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>trimDirectiveWhite</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>errorPage</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>isErrorPage</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>html 출력 상단 2줄 공백 제거</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>해당 페이지에서 에러가 발생했을 때 에러 발생 여부를 보여줄 페이지 지정</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>해당 페이지가 에러를 처리할지 여부를 지정</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>autoFlush</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>출력 버퍼가 모두 채워졌을 때 자동으로 비울지를 결정</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">        </t>
@@ -1185,19 +1187,19 @@
   </si>
   <si>
     <t>errorPage 지정</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>&lt;%@ page errorPage='error.jsp' %&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>error를 처리하기 위한 페이지가 되기 위한 조건</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>&lt;%@ page isErrorPage='true' %&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>%&gt;</t>
@@ -1879,11 +1881,11 @@
   </si>
   <si>
     <t>1.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>2.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2153,7 +2155,7 @@
   </si>
   <si>
     <t>error.jsp</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">         빠른 시간에 복구하겠습니다.</t>
@@ -2560,35 +2562,35 @@
   </si>
   <si>
     <t>실습</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>jsp의 스크립트 요소</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>1. 스크립트릿(Scriptlet) : &lt;% %&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>2. 표현식(Expression) : &lt;%= %&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>3. 선언부(Declaration) : &lt;%! %&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>자바코드</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>자바코드지만 세미콜론이 오면 안됨</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>함수 만들기 권장되지 않음</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">jsp의 스크립트 요소                                    </t>
@@ -3564,55 +3566,55 @@
   </si>
   <si>
     <t>jsp 내장 객체</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>jsp 내에서 선언하지 않고 사용하는 객체</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>request 메서드</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>사용자가 form에 입력한 param을 얻어낼 수 있는 기능</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>메서드</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>String getParameter(name)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>param name에 저장된 값을 추출, 없으면 null return</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>String[] getParameterValues(name)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>param name이 같은 변수들의 값들이 배열로 들어온다.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Enumeration getParameterNames()</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>String getRemoteAddr()</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>클라이언트 ip</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>param으로 넘어오는 변수이름을 모두 추출 가능</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">    request내장 객체 : 웹브라우저 요청에 대한 처리</t>
@@ -4361,11 +4363,11 @@
   </si>
   <si>
     <t>h07_form.jsp '-&gt; j07_form_request.jsp</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>form 요청</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">     }</t>
@@ -6111,15 +6113,15 @@
   </si>
   <si>
     <t>response 내장 객체</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>request 기본 객체와 반대의 기능을 수행</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>웹 브라우저에 전송할 내용을 담을 수 있다.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">웹 캐시(영어: web cache) 또는 HTTP 캐시(HTTP cache)는 서버 지연을 줄이기 위해 웹 페이지, </t>
@@ -6129,7 +6131,7 @@
   </si>
   <si>
     <t>-헤더 입력 : cache control</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">                                              </t>
@@ -6596,19 +6598,19 @@
   </si>
   <si>
     <t>include 지시어</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>현재 jsp 파일에 다른 html이나 jsp문서를 포함하기 위한 기능을 제공한다.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>h10_include.jsp</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>h10_1_footer.jsp</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">        Copyright &amp;copy; 2022 PCWK All rights reserved;</t>
@@ -6783,35 +6785,35 @@
   </si>
   <si>
     <t>response를 이용한 페이지 이동</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>response에 리다이렉트</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>웹서버가 웹브라우저에게 다른 페이지로 이동하라고 응답하는 기능</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>ex)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>response.sendRedirect("이동할 url");</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>index.jsp</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>h11_response_redirect.jsp</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>로그인 성공하면 index.jsp로 이동</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7396,46 +7398,42 @@
       </rPr>
       <t xml:space="preserve">                                                                                                                                    </t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>&lt;%@ page 속성='값' 속성='값' … %&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>servlet</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Log4J</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Servlet Life Cycle</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>https://mvnrepository.com/artifact/org.apache.logging.log4j/log4j-core/2.17.1</t>
   </si>
   <si>
     <t>download url</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>안돼서 보류</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Servlet과 jsp의 역사</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>1. Servlet</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>2. jsp : Servlet의 단점인 view표현에 노력이 과다하게 들어간다.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>/**</t>
@@ -8523,82 +8521,1092 @@
   </si>
   <si>
     <t>뷰 표현이 힘들다</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>유지보수가 힘들다.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>4. MVC(Model View Controller)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Servlet Controller의 역할을 하게 된다.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>3. jsp의 단점 : html, java, css, javascript 스파게티 코드 발생</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>UI</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>게시글 등록(제목, 내용)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>param을 VO</t>
   </si>
   <si>
     <t>BoardController.java(servlet)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>doSave</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>doRetrieve</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>doSelectOne</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>doUpdate</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>doDelete</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>work_div</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>url: /board/board.do</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Tomcat(WAS)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Servlet Life Cycle</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>내장객체</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>application 내장 객체</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>application 기본 객체는 웹 어플리케이션 전반에 걸쳐서 사용되는 정보를 담고 있다.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex) 서버 정보, 서버 초기화 정보 등</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF999999"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>// 서버 정보 읽기</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>h2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;서버 정보 읽기&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>h2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    서블릿 정보 : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">application.getServerInfo() </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>br/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    서블릿 규약 메이저 버전 : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">application.getMajorVersion() </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>br/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    서블릿 규약 마이너 버전 : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">application.getMinorVersion() </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>br/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>web.xml</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>context-param</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>description</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;파라메터 설정&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>description</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>param-name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;파라메터 이름&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>param-name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>param-value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;파라메터 값&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>param-value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  &lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>context-param</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>h02_application.jsp</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>h2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;application param&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>h2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF999999"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>// init param 변수 이름 추출</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">     Enumeration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>String</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> initParamNames </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> application.getInitParameterNames();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>while</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(initParamNames.hasMoreElements()) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>String</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> paramName </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> initParamNames.nextElement();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>String</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> paramValue </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> application.getInitParameter(paramName); </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF999999"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>// 초기화 파라메터의 값을 추출</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>println</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF63A35C"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"paramName: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> paramName</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF63A35C"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>paramValue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF63A35C"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"&lt;br/&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>param-name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;pcwk&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>param-name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>param-value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;a few good man&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>param-value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>param-name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;class&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>param-name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>param-value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;cClass&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>param-value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>h01_application.jsp</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>context-param 설명</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹 상태 코드</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/HTTP_%EC%83%81%ED%83%9C_%EC%BD%94%EB%93%9C</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -9001,201 +10009,243 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="3" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="3" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="3" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="3" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="3" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="3" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="3" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="3" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="3" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="3" quotePrefix="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="3" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="3" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="3" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="3" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="3" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="3" quotePrefix="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="3" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="3" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="6" xfId="3" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="3" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="3" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="9" xfId="3" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="11" xfId="3" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="12" xfId="3" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="3" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="3" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="3" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="3" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="9" xfId="3" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="11" xfId="3" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="12" xfId="3" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" quotePrefix="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="3" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="3" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="3" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -9223,6 +10273,99 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>7469</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>164353</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>287392</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>184993</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{785AEA00-982E-A8F3-2FD9-F0BC1F973060}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3735293" y="4332941"/>
+          <a:ext cx="2902099" cy="1873346"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>186765</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>21070</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>169303</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19F2CE7B-3310-3697-40F3-E3607F043271}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4564529" y="15008412"/>
+          <a:ext cx="2971953" cy="1835244"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9770,16 +10913,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>44450</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>283508</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>224118</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>258109</xdr:colOff>
       <xdr:row>115</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>163980</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9794,8 +10937,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4070350" y="23545800"/>
-          <a:ext cx="2311400" cy="2914650"/>
+          <a:off x="4011332" y="23846118"/>
+          <a:ext cx="2305424" cy="2950509"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -9837,7 +10980,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -10443,10 +11586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:H10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -10456,22 +11599,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17.149999999999999" customHeight="1">
-      <c r="A1" s="46"/>
+      <c r="A1" s="63"/>
     </row>
     <row r="2" spans="1:9" ht="17.149999999999999" customHeight="1">
-      <c r="A2" s="46"/>
+      <c r="A2" s="63"/>
     </row>
     <row r="3" spans="1:9" ht="17.149999999999999" customHeight="1">
-      <c r="A3" s="46"/>
+      <c r="A3" s="63"/>
     </row>
     <row r="4" spans="1:9" ht="17.149999999999999" customHeight="1">
-      <c r="A4" s="46"/>
+      <c r="A4" s="63"/>
     </row>
     <row r="5" spans="1:9" ht="17.149999999999999" customHeight="1">
-      <c r="A5" s="46"/>
+      <c r="A5" s="63"/>
     </row>
     <row r="6" spans="1:9" ht="17.149999999999999" customHeight="1">
-      <c r="A6" s="46"/>
+      <c r="A6" s="63"/>
     </row>
     <row r="7" spans="1:9" ht="17.149999999999999" customHeight="1">
       <c r="B7" s="1" t="s">
@@ -10493,52 +11636,67 @@
       <c r="B8" s="4">
         <v>0</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="49"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="66"/>
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:9" ht="17.149999999999999" customHeight="1">
       <c r="B9" s="4">
         <v>1</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="52"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="69"/>
       <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:9" ht="17.149999999999999" customHeight="1">
       <c r="B10" s="4">
         <v>2</v>
       </c>
-      <c r="C10" s="50" t="s">
-        <v>303</v>
-      </c>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="52"/>
+      <c r="C10" s="67" t="s">
+        <v>381</v>
+      </c>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="69"/>
       <c r="I10" s="4"/>
     </row>
+    <row r="11" spans="1:9" ht="17.149999999999999" customHeight="1">
+      <c r="B11" s="4">
+        <v>3</v>
+      </c>
+      <c r="C11" s="67" t="s">
+        <v>382</v>
+      </c>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:A6"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H9"/>
     <mergeCell ref="C10:H10"/>
+    <mergeCell ref="C11:H11"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C8:H8" location="용어집!A1" display="용어집" xr:uid="{BF1FAEC9-2238-474D-9911-A7ADD745CA01}"/>
     <hyperlink ref="C9:H9" location="WEB_20220414!A1" display="환경설정" xr:uid="{00615576-EC01-4398-8F73-84B5296E269C}"/>
@@ -10563,7 +11721,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" customHeight="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="70" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="7" t="s">
@@ -10571,7 +11729,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="18" customHeight="1">
-      <c r="A2" s="61"/>
+      <c r="A2" s="71"/>
       <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
@@ -10580,7 +11738,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1">
-      <c r="A3" s="61"/>
+      <c r="A3" s="71"/>
       <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
@@ -10589,7 +11747,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1">
-      <c r="A4" s="61"/>
+      <c r="A4" s="71"/>
       <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
@@ -10598,7 +11756,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1">
-      <c r="A5" s="61"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
@@ -10607,7 +11765,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="18" customHeight="1">
-      <c r="A6" s="61"/>
+      <c r="A6" s="71"/>
       <c r="B6" s="6" t="s">
         <v>16</v>
       </c>
@@ -10616,7 +11774,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="18" customHeight="1">
-      <c r="A7" s="61"/>
+      <c r="A7" s="71"/>
       <c r="B7" s="6" t="s">
         <v>18</v>
       </c>
@@ -10625,7 +11783,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="18" customHeight="1">
-      <c r="A8" s="61"/>
+      <c r="A8" s="71"/>
       <c r="B8" s="6" t="s">
         <v>5</v>
       </c>
@@ -10634,7 +11792,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="18" customHeight="1">
-      <c r="A9" s="61"/>
+      <c r="A9" s="71"/>
       <c r="B9" s="6" t="s">
         <v>50</v>
       </c>
@@ -10643,7 +11801,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:A9"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1" xr:uid="{E8C2D0D0-9C8E-4A46-9E4F-F6F049228F95}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{757F8911-2014-4C19-82E6-93CADDF5ED37}"/>
@@ -10660,11 +11818,617 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACAA1AF-35CA-46FA-BE57-24F1EBB09508}">
+  <dimension ref="A1:U86"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z89" sqref="Z89"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.83203125" defaultRowHeight="18" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="3" style="6" customWidth="1"/>
+    <col min="2" max="16384" width="3.83203125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18" customHeight="1">
+      <c r="A1" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="18" customHeight="1">
+      <c r="A2" s="71"/>
+      <c r="B2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18" customHeight="1">
+      <c r="A3" s="71"/>
+      <c r="B3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="18" customHeight="1">
+      <c r="A4" s="71"/>
+      <c r="B4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="18" customHeight="1">
+      <c r="A5" s="71"/>
+      <c r="B5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="18" customHeight="1">
+      <c r="A6" s="71"/>
+      <c r="B6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18" customHeight="1">
+      <c r="A7" s="71"/>
+      <c r="B7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="18" customHeight="1">
+      <c r="A8" s="71"/>
+      <c r="B8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="18" customHeight="1">
+      <c r="A9" s="71"/>
+      <c r="B9" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="18" customHeight="1">
+      <c r="C11" s="50" t="s">
+        <v>383</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:8" ht="18" customHeight="1">
+      <c r="D12" s="49" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="18" customHeight="1">
+      <c r="D13" s="49" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="18" customHeight="1">
+      <c r="D14" s="49"/>
+    </row>
+    <row r="15" spans="1:8" ht="18" customHeight="1">
+      <c r="D15" s="51" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="18" customHeight="1">
+      <c r="D16" s="49"/>
+    </row>
+    <row r="17" spans="5:10" ht="18" customHeight="1">
+      <c r="E17" s="52" t="s">
+        <v>409</v>
+      </c>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+    </row>
+    <row r="18" spans="5:10" ht="18" customHeight="1">
+      <c r="E18" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="5:10" ht="18" customHeight="1">
+      <c r="E19" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="5:10" ht="18" customHeight="1">
+      <c r="E20" s="17" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="21" spans="5:10" ht="18" customHeight="1">
+      <c r="E21" s="12" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="22" spans="5:10" ht="18" customHeight="1">
+      <c r="E22" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="5:10" ht="18" customHeight="1">
+      <c r="E23" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="5:10" ht="18" customHeight="1">
+      <c r="E24" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="5:10" ht="18" customHeight="1">
+      <c r="E25" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="5:10" ht="18" customHeight="1">
+      <c r="E26" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="5:10" ht="18" customHeight="1">
+      <c r="E27" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="5:10" ht="18" customHeight="1">
+      <c r="E28" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="5:10" ht="18" customHeight="1">
+      <c r="E29" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="5:10" ht="18" customHeight="1">
+      <c r="E30" s="12" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="31" spans="5:10" ht="18" customHeight="1">
+      <c r="E31" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="5:10" ht="18" customHeight="1">
+      <c r="E32" s="12" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="33" spans="4:21" ht="18" customHeight="1">
+      <c r="E33" s="12" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="34" spans="4:21" ht="18" customHeight="1">
+      <c r="E34" s="12" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="35" spans="4:21" ht="18" customHeight="1">
+      <c r="E35" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="4:21" ht="18" customHeight="1">
+      <c r="E36" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="4:21" ht="18" customHeight="1">
+      <c r="D37" s="12"/>
+    </row>
+    <row r="38" spans="4:21" ht="18" customHeight="1">
+      <c r="D38" s="12"/>
+    </row>
+    <row r="39" spans="4:21" ht="18" customHeight="1">
+      <c r="D39" s="51" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="4:21" s="26" customFormat="1" ht="18" customHeight="1">
+      <c r="D40" s="53"/>
+    </row>
+    <row r="41" spans="4:21" ht="18" customHeight="1">
+      <c r="E41" s="52" t="s">
+        <v>391</v>
+      </c>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+    </row>
+    <row r="42" spans="4:21" ht="18" customHeight="1">
+      <c r="F42" s="54" t="s">
+        <v>392</v>
+      </c>
+      <c r="G42" s="55"/>
+      <c r="H42" s="55"/>
+      <c r="I42" s="55"/>
+      <c r="J42" s="55"/>
+      <c r="K42" s="55"/>
+      <c r="L42" s="55"/>
+      <c r="M42" s="55"/>
+      <c r="N42" s="55"/>
+      <c r="O42" s="55"/>
+      <c r="P42" s="55"/>
+      <c r="Q42" s="55"/>
+      <c r="R42" s="55"/>
+      <c r="S42" s="56"/>
+    </row>
+    <row r="43" spans="4:21" ht="18" customHeight="1">
+      <c r="F43" s="57" t="s">
+        <v>393</v>
+      </c>
+      <c r="G43" s="58"/>
+      <c r="H43" s="58"/>
+      <c r="I43" s="58"/>
+      <c r="J43" s="58"/>
+      <c r="K43" s="58"/>
+      <c r="L43" s="58"/>
+      <c r="M43" s="58"/>
+      <c r="N43" s="58"/>
+      <c r="O43" s="58"/>
+      <c r="P43" s="58"/>
+      <c r="Q43" s="58"/>
+      <c r="R43" s="58"/>
+      <c r="S43" s="59"/>
+    </row>
+    <row r="44" spans="4:21" ht="18" customHeight="1">
+      <c r="F44" s="57" t="s">
+        <v>394</v>
+      </c>
+      <c r="G44" s="58"/>
+      <c r="H44" s="58"/>
+      <c r="I44" s="58"/>
+      <c r="J44" s="58"/>
+      <c r="K44" s="58"/>
+      <c r="L44" s="58"/>
+      <c r="M44" s="58"/>
+      <c r="N44" s="58"/>
+      <c r="O44" s="58"/>
+      <c r="P44" s="58"/>
+      <c r="Q44" s="58"/>
+      <c r="R44" s="58"/>
+      <c r="S44" s="59"/>
+      <c r="U44" s="29" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="45" spans="4:21" ht="18" customHeight="1">
+      <c r="F45" s="57" t="s">
+        <v>395</v>
+      </c>
+      <c r="G45" s="58"/>
+      <c r="H45" s="58"/>
+      <c r="I45" s="58"/>
+      <c r="J45" s="58"/>
+      <c r="K45" s="58"/>
+      <c r="L45" s="58"/>
+      <c r="M45" s="58"/>
+      <c r="N45" s="58"/>
+      <c r="O45" s="58"/>
+      <c r="P45" s="58"/>
+      <c r="Q45" s="58"/>
+      <c r="R45" s="58"/>
+      <c r="S45" s="59"/>
+    </row>
+    <row r="46" spans="4:21" ht="18" customHeight="1">
+      <c r="F46" s="60" t="s">
+        <v>396</v>
+      </c>
+      <c r="G46" s="61"/>
+      <c r="H46" s="61"/>
+      <c r="I46" s="61"/>
+      <c r="J46" s="61"/>
+      <c r="K46" s="61"/>
+      <c r="L46" s="61"/>
+      <c r="M46" s="61"/>
+      <c r="N46" s="61"/>
+      <c r="O46" s="61"/>
+      <c r="P46" s="61"/>
+      <c r="Q46" s="61"/>
+      <c r="R46" s="61"/>
+      <c r="S46" s="62"/>
+    </row>
+    <row r="47" spans="4:21" ht="18" customHeight="1">
+      <c r="F47" s="12"/>
+    </row>
+    <row r="48" spans="4:21" ht="18" customHeight="1">
+      <c r="F48" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="49" spans="5:18" ht="18" customHeight="1">
+      <c r="F49" s="12" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="50" spans="5:18" ht="18" customHeight="1">
+      <c r="F50" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="18"/>
+      <c r="L50" s="18"/>
+      <c r="M50" s="18"/>
+      <c r="N50" s="18"/>
+      <c r="O50" s="18"/>
+      <c r="P50" s="18"/>
+      <c r="Q50" s="18"/>
+      <c r="R50" s="18"/>
+    </row>
+    <row r="51" spans="5:18" ht="18" customHeight="1">
+      <c r="F51" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="18"/>
+      <c r="L51" s="18"/>
+      <c r="M51" s="18"/>
+      <c r="N51" s="18"/>
+      <c r="O51" s="18"/>
+      <c r="P51" s="18"/>
+      <c r="Q51" s="18"/>
+      <c r="R51" s="18"/>
+    </row>
+    <row r="52" spans="5:18" ht="18" customHeight="1">
+      <c r="F52" s="12" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="53" spans="5:18" ht="18" customHeight="1">
+      <c r="F53" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="5:18" ht="18" customHeight="1">
+      <c r="F54" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="55" spans="5:18" ht="18" customHeight="1">
+      <c r="F55" s="12" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="56" spans="5:18" ht="18" customHeight="1">
+      <c r="F56" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="18"/>
+      <c r="K56" s="18"/>
+      <c r="L56" s="18"/>
+      <c r="M56" s="18"/>
+      <c r="N56" s="18"/>
+      <c r="O56" s="18"/>
+      <c r="P56" s="18"/>
+    </row>
+    <row r="57" spans="5:18" ht="18" customHeight="1">
+      <c r="F57" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="G57" s="18"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="18"/>
+      <c r="J57" s="18"/>
+      <c r="K57" s="18"/>
+      <c r="L57" s="18"/>
+      <c r="M57" s="18"/>
+      <c r="N57" s="18"/>
+      <c r="O57" s="18"/>
+      <c r="P57" s="18"/>
+    </row>
+    <row r="58" spans="5:18" ht="18" customHeight="1">
+      <c r="F58" s="12" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="60" spans="5:18" ht="18" customHeight="1">
+      <c r="E60" s="52" t="s">
+        <v>397</v>
+      </c>
+      <c r="F60" s="19"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="19"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="19"/>
+      <c r="K60" s="19"/>
+    </row>
+    <row r="61" spans="5:18" ht="18" customHeight="1">
+      <c r="F61" s="17" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="62" spans="5:18" ht="18" customHeight="1">
+      <c r="F62" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63" spans="5:18" ht="18" customHeight="1">
+      <c r="F63" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64" spans="5:18" ht="18" customHeight="1">
+      <c r="F64" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="65" spans="6:6" ht="18" customHeight="1">
+      <c r="F65" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" spans="6:6" ht="18" customHeight="1">
+      <c r="F66" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="67" spans="6:6" ht="18" customHeight="1">
+      <c r="F67" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="68" spans="6:6" ht="18" customHeight="1">
+      <c r="F68" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="69" spans="6:6" ht="18" customHeight="1">
+      <c r="F69" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="70" spans="6:6" ht="18" customHeight="1">
+      <c r="F70" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" spans="6:6" ht="18" customHeight="1">
+      <c r="F71" s="12" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="72" spans="6:6" ht="18" customHeight="1">
+      <c r="F72" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="73" spans="6:6" ht="18" customHeight="1">
+      <c r="F73" s="12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="74" spans="6:6" ht="18" customHeight="1">
+      <c r="F74" s="12" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="75" spans="6:6" ht="18" customHeight="1">
+      <c r="F75" s="12" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="76" spans="6:6" ht="18" customHeight="1">
+      <c r="F76" s="12" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="77" spans="6:6" ht="18" customHeight="1">
+      <c r="F77" s="12" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="78" spans="6:6" ht="18" customHeight="1">
+      <c r="F78" s="12" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="79" spans="6:6" ht="18" customHeight="1">
+      <c r="F79" s="12" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="80" spans="6:6" ht="18" customHeight="1">
+      <c r="F80" s="12" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="81" spans="3:8" ht="18" customHeight="1">
+      <c r="F81" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="82" spans="3:8" ht="18" customHeight="1">
+      <c r="F82" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="83" spans="3:8" ht="18" customHeight="1">
+      <c r="F83" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="85" spans="3:8" ht="18" customHeight="1">
+      <c r="C85" s="50" t="s">
+        <v>411</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="8"/>
+    </row>
+    <row r="86" spans="3:8" ht="18" customHeight="1">
+      <c r="D86" s="6" t="s">
+        <v>412</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A9"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{B0BE4E08-1E59-4AE9-88AF-5B774E0843CD}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{17B353DA-8E79-4F92-B397-ED9D14B64088}"/>
+    <hyperlink ref="A1:A9" location="목차!A1" display="목차!A1" xr:uid="{AB02C78F-3D6B-45C2-878F-10B036056818}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{F702BE2D-B50B-4C6A-85CE-4E3A6059D46A}"/>
+    <hyperlink ref="D1" r:id="rId4" xr:uid="{8567A6C7-1ECF-4DE2-9B23-434805DAB516}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{F3F3B73B-7738-499E-B76E-98017684F3AC}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{14433D07-4A8E-44DB-8A44-2C4F8419A38C}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{2A37DC95-D75C-4F08-A32F-9A3D110072DE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId8"/>
+  <drawing r:id="rId9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE21597-3425-4D96-89ED-44A782BEDFA9}">
   <dimension ref="A1:X124"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R98" sqref="R98"/>
+    <sheetView showGridLines="0" topLeftCell="A116" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB107" sqref="AB107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.83203125" defaultRowHeight="18" customHeight="1"/>
@@ -10674,7 +12438,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="18" customHeight="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="70" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="7" t="s">
@@ -10682,7 +12446,7 @@
       </c>
     </row>
     <row r="2" spans="1:24" ht="18" customHeight="1">
-      <c r="A2" s="61"/>
+      <c r="A2" s="71"/>
       <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
@@ -10691,7 +12455,7 @@
       </c>
     </row>
     <row r="3" spans="1:24" ht="18" customHeight="1">
-      <c r="A3" s="61"/>
+      <c r="A3" s="71"/>
       <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
@@ -10700,7 +12464,7 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="18" customHeight="1">
-      <c r="A4" s="61"/>
+      <c r="A4" s="71"/>
       <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
@@ -10709,7 +12473,7 @@
       </c>
     </row>
     <row r="5" spans="1:24" ht="18" customHeight="1">
-      <c r="A5" s="61"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
@@ -10718,7 +12482,7 @@
       </c>
     </row>
     <row r="6" spans="1:24" ht="18" customHeight="1">
-      <c r="A6" s="61"/>
+      <c r="A6" s="71"/>
       <c r="B6" s="6" t="s">
         <v>16</v>
       </c>
@@ -10727,7 +12491,7 @@
       </c>
     </row>
     <row r="7" spans="1:24" ht="18" customHeight="1">
-      <c r="A7" s="61"/>
+      <c r="A7" s="71"/>
       <c r="B7" s="6" t="s">
         <v>18</v>
       </c>
@@ -10736,7 +12500,7 @@
       </c>
     </row>
     <row r="8" spans="1:24" ht="18" customHeight="1">
-      <c r="A8" s="61"/>
+      <c r="A8" s="71"/>
       <c r="B8" s="6" t="s">
         <v>5</v>
       </c>
@@ -10745,14 +12509,14 @@
       </c>
     </row>
     <row r="9" spans="1:24" ht="18" customHeight="1">
-      <c r="A9" s="61"/>
+      <c r="A9" s="71"/>
       <c r="B9" s="6" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="18" customHeight="1">
-      <c r="C11" s="63" t="s">
-        <v>305</v>
+      <c r="C11" s="47" t="s">
+        <v>304</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -10760,403 +12524,403 @@
       <c r="G11" s="8"/>
     </row>
     <row r="13" spans="1:24" ht="18" customHeight="1">
-      <c r="D13" s="64" t="s">
-        <v>304</v>
+      <c r="D13" s="48" t="s">
+        <v>303</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
     </row>
     <row r="14" spans="1:24" ht="18" customHeight="1">
-      <c r="E14" s="62" t="s">
-        <v>307</v>
+      <c r="E14" s="46" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="18" customHeight="1">
       <c r="F15" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="X15" s="29" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="17" spans="6:6" ht="18" customHeight="1">
       <c r="F17" s="30" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="18" spans="6:6" ht="18" customHeight="1">
       <c r="F18" s="30" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="19" spans="6:6" ht="18" customHeight="1">
       <c r="F19" s="30" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="20" spans="6:6" ht="18" customHeight="1">
       <c r="F20" s="30" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="21" spans="6:6" ht="18" customHeight="1">
       <c r="F21" s="30" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="22" spans="6:6" ht="18" customHeight="1">
       <c r="F22" s="30" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="23" spans="6:6" ht="18" customHeight="1">
       <c r="F23" s="30" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="24" spans="6:6" ht="18" customHeight="1">
       <c r="F24" s="30" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="25" spans="6:6" ht="18" customHeight="1">
       <c r="F25" s="30" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="26" spans="6:6" ht="18" customHeight="1">
       <c r="F26" s="13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="27" spans="6:6" ht="18" customHeight="1">
       <c r="F27" s="13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="28" spans="6:6" ht="18" customHeight="1">
       <c r="F28" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="29" spans="6:6" ht="18" customHeight="1">
       <c r="F29" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="30" spans="6:6" ht="18" customHeight="1">
       <c r="F30" s="12" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="31" spans="6:6" ht="18" customHeight="1">
       <c r="F31" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="32" spans="6:6" ht="18" customHeight="1">
       <c r="F32" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="33" spans="6:6" ht="18" customHeight="1">
       <c r="F33" s="12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="34" spans="6:6" ht="18" customHeight="1">
       <c r="F34" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="35" spans="6:6" ht="18" customHeight="1">
       <c r="F35" s="30" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="36" spans="6:6" ht="18" customHeight="1">
       <c r="F36" s="12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="37" spans="6:6" ht="18" customHeight="1">
       <c r="F37" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="38" spans="6:6" ht="18" customHeight="1">
       <c r="F38" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="39" spans="6:6" ht="18" customHeight="1">
       <c r="F39" s="12" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="40" spans="6:6" ht="18" customHeight="1">
       <c r="F40" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="41" spans="6:6" ht="18" customHeight="1">
       <c r="F41" s="13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="42" spans="6:6" ht="18" customHeight="1">
       <c r="F42" s="12" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="43" spans="6:6" ht="18" customHeight="1">
       <c r="F43" s="12" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="44" spans="6:6" ht="18" customHeight="1">
       <c r="F44" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="45" spans="6:6" ht="18" customHeight="1">
       <c r="F45" s="12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="46" spans="6:6" ht="18" customHeight="1">
       <c r="F46" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="47" spans="6:6" ht="18" customHeight="1">
       <c r="F47" s="12" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="48" spans="6:6" ht="18" customHeight="1">
       <c r="F48" s="12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="49" spans="6:6" ht="18" customHeight="1">
       <c r="F49" s="13" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="50" spans="6:6" ht="18" customHeight="1">
       <c r="F50" s="13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="51" spans="6:6" ht="18" customHeight="1">
       <c r="F51" s="12" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="52" spans="6:6" ht="18" customHeight="1">
       <c r="F52" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="53" spans="6:6" ht="18" customHeight="1">
       <c r="F53" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="54" spans="6:6" ht="18" customHeight="1">
       <c r="F54" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="55" spans="6:6" ht="18" customHeight="1">
       <c r="F55" s="12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="56" spans="6:6" ht="18" customHeight="1">
       <c r="F56" s="12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="57" spans="6:6" ht="18" customHeight="1">
       <c r="F57" s="13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="58" spans="6:6" ht="18" customHeight="1">
       <c r="F58" s="13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="59" spans="6:6" ht="18" customHeight="1">
       <c r="F59" s="12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="60" spans="6:6" ht="18" customHeight="1">
       <c r="F60" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="61" spans="6:6" ht="18" customHeight="1">
       <c r="F61" s="12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="62" spans="6:6" ht="18" customHeight="1">
       <c r="F62" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="63" spans="6:6" ht="18" customHeight="1">
       <c r="F63" s="12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="64" spans="6:6" ht="18" customHeight="1">
       <c r="F64" s="12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="65" spans="6:6" ht="18" customHeight="1">
       <c r="F65" s="13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="66" spans="6:6" ht="18" customHeight="1">
       <c r="F66" s="13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="67" spans="6:6" ht="18" customHeight="1">
       <c r="F67" s="12" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="68" spans="6:6" ht="18" customHeight="1">
       <c r="F68" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="69" spans="6:6" ht="18" customHeight="1">
       <c r="F69" s="12" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="70" spans="6:6" ht="18" customHeight="1">
       <c r="F70" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="71" spans="6:6" ht="18" customHeight="1">
       <c r="F71" s="12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="72" spans="6:6" ht="18" customHeight="1">
       <c r="F72" s="12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="73" spans="6:6" ht="18" customHeight="1">
       <c r="F73" s="12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="74" spans="6:6" ht="18" customHeight="1">
       <c r="F74" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="75" spans="6:6" ht="18" customHeight="1">
       <c r="F75" s="13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="76" spans="6:6" ht="18" customHeight="1">
       <c r="F76" s="12" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="77" spans="6:6" ht="18" customHeight="1">
       <c r="F77" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="78" spans="6:6" ht="18" customHeight="1">
       <c r="F78" s="12" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="79" spans="6:6" ht="18" customHeight="1">
       <c r="F79" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="80" spans="6:6" ht="18" customHeight="1">
       <c r="F80" s="12" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="81" spans="3:8" ht="18" customHeight="1">
       <c r="F81" s="12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="82" spans="3:8" ht="18" customHeight="1">
       <c r="F82" s="12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="83" spans="3:8" ht="18" customHeight="1">
       <c r="F83" s="13" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="84" spans="3:8" ht="18" customHeight="1">
       <c r="F84" s="13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="85" spans="3:8" ht="18" customHeight="1">
       <c r="F85" s="12" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="86" spans="3:8" ht="18" customHeight="1">
       <c r="F86" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="87" spans="3:8" ht="18" customHeight="1">
       <c r="F87" s="12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="88" spans="3:8" ht="18" customHeight="1">
       <c r="F88" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="89" spans="3:8" ht="18" customHeight="1">
       <c r="F89" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="90" spans="3:8" ht="18" customHeight="1">
       <c r="F90" s="12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="91" spans="3:8" ht="18" customHeight="1">
       <c r="F91" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="93" spans="3:8" ht="18" customHeight="1">
-      <c r="C93" s="63" t="s">
-        <v>309</v>
+      <c r="C93" s="47" t="s">
+        <v>308</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -11165,92 +12929,92 @@
       <c r="H93" s="8"/>
     </row>
     <row r="94" spans="3:8" ht="18" customHeight="1">
-      <c r="D94" s="62" t="s">
+      <c r="D94" s="46" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="95" spans="3:8" ht="18" customHeight="1">
+      <c r="E95" s="46" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="96" spans="3:8" ht="18" customHeight="1">
+      <c r="E96" s="46"/>
+    </row>
+    <row r="97" spans="4:23" ht="18" customHeight="1">
+      <c r="D97" s="46" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="95" spans="3:8" ht="18" customHeight="1">
-      <c r="E95" s="62" t="s">
+    <row r="98" spans="4:23" ht="18" customHeight="1">
+      <c r="D98" s="46"/>
+      <c r="F98" s="46" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="96" spans="3:8" ht="18" customHeight="1">
-      <c r="E96" s="62"/>
-    </row>
-    <row r="97" spans="4:23" ht="18" customHeight="1">
-      <c r="D97" s="62" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="98" spans="4:23" ht="18" customHeight="1">
-      <c r="D98" s="62"/>
-      <c r="F98" s="62" t="s">
+    <row r="99" spans="4:23" ht="18" customHeight="1">
+      <c r="D99" s="46"/>
+      <c r="F99" s="46"/>
+    </row>
+    <row r="100" spans="4:23" ht="18" customHeight="1">
+      <c r="D100" s="46" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="101" spans="4:23" ht="18" customHeight="1">
+      <c r="D101" s="46"/>
+    </row>
+    <row r="102" spans="4:23" ht="18" customHeight="1">
+      <c r="D102" s="46" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="99" spans="4:23" ht="18" customHeight="1">
-      <c r="D99" s="62"/>
-      <c r="F99" s="62"/>
-    </row>
-    <row r="100" spans="4:23" ht="18" customHeight="1">
-      <c r="D100" s="62" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="101" spans="4:23" ht="18" customHeight="1">
-      <c r="D101" s="62"/>
-    </row>
-    <row r="102" spans="4:23" ht="18" customHeight="1">
-      <c r="D102" s="62" t="s">
+    <row r="103" spans="4:23" ht="18" customHeight="1">
+      <c r="E103" s="46" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="103" spans="4:23" ht="18" customHeight="1">
-      <c r="E103" s="62" t="s">
-        <v>368</v>
-      </c>
-      <c r="R103" s="62" t="s">
-        <v>381</v>
+      <c r="R103" s="46" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="106" spans="4:23" ht="18" customHeight="1">
-      <c r="R106" s="62"/>
+      <c r="R106" s="46"/>
     </row>
     <row r="107" spans="4:23" ht="18" customHeight="1">
       <c r="W107" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="109" spans="4:23" ht="18" customHeight="1">
-      <c r="H109" s="62" t="s">
-        <v>371</v>
+      <c r="H109" s="46" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="110" spans="4:23" ht="18" customHeight="1">
-      <c r="H110" s="62"/>
+      <c r="H110" s="46"/>
     </row>
     <row r="116" spans="3:9" ht="18" customHeight="1">
-      <c r="F116" s="62" t="s">
-        <v>370</v>
+      <c r="F116" s="46" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="117" spans="3:9" ht="18" customHeight="1">
-      <c r="F117" s="62"/>
+      <c r="F117" s="46"/>
     </row>
     <row r="118" spans="3:9" ht="18" customHeight="1">
-      <c r="C118" s="63" t="s">
-        <v>380</v>
+      <c r="C118" s="47" t="s">
+        <v>379</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
-      <c r="F118" s="63"/>
+      <c r="F118" s="47"/>
       <c r="G118" s="8"/>
       <c r="H118" s="8"/>
       <c r="I118" s="8"/>
     </row>
     <row r="119" spans="3:9" ht="18" customHeight="1">
-      <c r="C119" s="63" t="s">
-        <v>373</v>
+      <c r="C119" s="47" t="s">
+        <v>372</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -11260,38 +13024,38 @@
       <c r="I119" s="8"/>
     </row>
     <row r="120" spans="3:9" ht="18" customHeight="1">
-      <c r="C120" s="62" t="s">
-        <v>379</v>
-      </c>
-      <c r="F120" s="62" t="s">
+      <c r="C120" s="46" t="s">
+        <v>378</v>
+      </c>
+      <c r="F120" s="46" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="121" spans="3:9" ht="18" customHeight="1">
+      <c r="F121" s="46" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="121" spans="3:9" ht="18" customHeight="1">
-      <c r="F121" s="62" t="s">
+    <row r="122" spans="3:9" ht="18" customHeight="1">
+      <c r="F122" s="46" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="122" spans="3:9" ht="18" customHeight="1">
-      <c r="F122" s="62" t="s">
+    <row r="123" spans="3:9" ht="18" customHeight="1">
+      <c r="F123" s="46" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="123" spans="3:9" ht="18" customHeight="1">
-      <c r="F123" s="62" t="s">
+    <row r="124" spans="3:9" ht="18" customHeight="1">
+      <c r="F124" s="46" t="s">
         <v>377</v>
-      </c>
-    </row>
-    <row r="124" spans="3:9" ht="18" customHeight="1">
-      <c r="F124" s="62" t="s">
-        <v>378</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A9"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1" xr:uid="{3267B893-B558-417C-AECD-68E95FE9780C}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{F80D48AF-A25B-4026-9266-92AC82705362}"/>
@@ -11308,7 +13072,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBB27A66-D63B-46A9-BA60-EF871E53836C}">
   <dimension ref="A1:AG526"/>
   <sheetViews>
@@ -11323,7 +13087,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="70" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="7" t="s">
@@ -11331,7 +13095,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="18" customHeight="1">
-      <c r="A2" s="61"/>
+      <c r="A2" s="71"/>
       <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
@@ -11340,7 +13104,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" customHeight="1">
-      <c r="A3" s="61"/>
+      <c r="A3" s="71"/>
       <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
@@ -11349,7 +13113,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="18" customHeight="1">
-      <c r="A4" s="61"/>
+      <c r="A4" s="71"/>
       <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
@@ -11358,7 +13122,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="18" customHeight="1">
-      <c r="A5" s="61"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
@@ -11367,7 +13131,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="18" customHeight="1">
-      <c r="A6" s="61"/>
+      <c r="A6" s="71"/>
       <c r="B6" s="6" t="s">
         <v>16</v>
       </c>
@@ -11376,7 +13140,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="18" customHeight="1">
-      <c r="A7" s="61"/>
+      <c r="A7" s="71"/>
       <c r="B7" s="6" t="s">
         <v>18</v>
       </c>
@@ -11385,7 +13149,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1">
-      <c r="A8" s="61"/>
+      <c r="A8" s="71"/>
       <c r="B8" s="6" t="s">
         <v>5</v>
       </c>
@@ -11394,7 +13158,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1">
-      <c r="A9" s="61"/>
+      <c r="A9" s="71"/>
       <c r="B9" s="6" t="s">
         <v>50</v>
       </c>
@@ -11791,207 +13555,207 @@
       </c>
     </row>
     <row r="103" spans="5:27" ht="18" customHeight="1">
-      <c r="E103" s="57" t="s">
+      <c r="E103" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="F103" s="57"/>
-      <c r="G103" s="57"/>
-      <c r="H103" s="57"/>
-      <c r="I103" s="57"/>
-      <c r="J103" s="57" t="s">
+      <c r="F103" s="76"/>
+      <c r="G103" s="76"/>
+      <c r="H103" s="76"/>
+      <c r="I103" s="76"/>
+      <c r="J103" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="K103" s="57"/>
-      <c r="L103" s="57"/>
-      <c r="M103" s="57"/>
-      <c r="N103" s="57"/>
-      <c r="O103" s="57"/>
-      <c r="P103" s="57"/>
-      <c r="Q103" s="57"/>
-      <c r="R103" s="57"/>
-      <c r="S103" s="57"/>
-      <c r="T103" s="57"/>
-      <c r="U103" s="57"/>
-      <c r="V103" s="57"/>
-      <c r="W103" s="57"/>
-      <c r="X103" s="57"/>
-      <c r="Y103" s="57"/>
-      <c r="Z103" s="57"/>
-      <c r="AA103" s="57"/>
+      <c r="K103" s="76"/>
+      <c r="L103" s="76"/>
+      <c r="M103" s="76"/>
+      <c r="N103" s="76"/>
+      <c r="O103" s="76"/>
+      <c r="P103" s="76"/>
+      <c r="Q103" s="76"/>
+      <c r="R103" s="76"/>
+      <c r="S103" s="76"/>
+      <c r="T103" s="76"/>
+      <c r="U103" s="76"/>
+      <c r="V103" s="76"/>
+      <c r="W103" s="76"/>
+      <c r="X103" s="76"/>
+      <c r="Y103" s="76"/>
+      <c r="Z103" s="76"/>
+      <c r="AA103" s="76"/>
     </row>
     <row r="104" spans="5:27" ht="18" customHeight="1">
-      <c r="E104" s="59" t="s">
+      <c r="E104" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="F104" s="59"/>
-      <c r="G104" s="59"/>
-      <c r="H104" s="59"/>
-      <c r="I104" s="59"/>
-      <c r="J104" s="58" t="s">
+      <c r="F104" s="78"/>
+      <c r="G104" s="78"/>
+      <c r="H104" s="78"/>
+      <c r="I104" s="78"/>
+      <c r="J104" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="K104" s="58"/>
-      <c r="L104" s="58"/>
-      <c r="M104" s="58"/>
-      <c r="N104" s="58"/>
-      <c r="O104" s="58"/>
-      <c r="P104" s="58"/>
-      <c r="Q104" s="58"/>
-      <c r="R104" s="58"/>
-      <c r="S104" s="58"/>
-      <c r="T104" s="58"/>
-      <c r="U104" s="58"/>
-      <c r="V104" s="58"/>
-      <c r="W104" s="58"/>
-      <c r="X104" s="58"/>
-      <c r="Y104" s="58"/>
-      <c r="Z104" s="58"/>
-      <c r="AA104" s="58"/>
+      <c r="K104" s="77"/>
+      <c r="L104" s="77"/>
+      <c r="M104" s="77"/>
+      <c r="N104" s="77"/>
+      <c r="O104" s="77"/>
+      <c r="P104" s="77"/>
+      <c r="Q104" s="77"/>
+      <c r="R104" s="77"/>
+      <c r="S104" s="77"/>
+      <c r="T104" s="77"/>
+      <c r="U104" s="77"/>
+      <c r="V104" s="77"/>
+      <c r="W104" s="77"/>
+      <c r="X104" s="77"/>
+      <c r="Y104" s="77"/>
+      <c r="Z104" s="77"/>
+      <c r="AA104" s="77"/>
     </row>
     <row r="105" spans="5:27" ht="18" customHeight="1">
-      <c r="E105" s="59" t="s">
+      <c r="E105" s="78" t="s">
         <v>72</v>
       </c>
-      <c r="F105" s="59"/>
-      <c r="G105" s="59"/>
-      <c r="H105" s="59"/>
-      <c r="I105" s="59"/>
-      <c r="J105" s="58" t="s">
+      <c r="F105" s="78"/>
+      <c r="G105" s="78"/>
+      <c r="H105" s="78"/>
+      <c r="I105" s="78"/>
+      <c r="J105" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="K105" s="58"/>
-      <c r="L105" s="58"/>
-      <c r="M105" s="58"/>
-      <c r="N105" s="58"/>
-      <c r="O105" s="58"/>
-      <c r="P105" s="58"/>
-      <c r="Q105" s="58"/>
-      <c r="R105" s="58"/>
-      <c r="S105" s="58"/>
-      <c r="T105" s="58"/>
-      <c r="U105" s="58"/>
-      <c r="V105" s="58"/>
-      <c r="W105" s="58"/>
-      <c r="X105" s="58"/>
-      <c r="Y105" s="58"/>
-      <c r="Z105" s="58"/>
-      <c r="AA105" s="58"/>
+      <c r="K105" s="77"/>
+      <c r="L105" s="77"/>
+      <c r="M105" s="77"/>
+      <c r="N105" s="77"/>
+      <c r="O105" s="77"/>
+      <c r="P105" s="77"/>
+      <c r="Q105" s="77"/>
+      <c r="R105" s="77"/>
+      <c r="S105" s="77"/>
+      <c r="T105" s="77"/>
+      <c r="U105" s="77"/>
+      <c r="V105" s="77"/>
+      <c r="W105" s="77"/>
+      <c r="X105" s="77"/>
+      <c r="Y105" s="77"/>
+      <c r="Z105" s="77"/>
+      <c r="AA105" s="77"/>
     </row>
     <row r="106" spans="5:27" ht="18" customHeight="1">
-      <c r="E106" s="59" t="s">
+      <c r="E106" s="78" t="s">
         <v>80</v>
       </c>
-      <c r="F106" s="59"/>
-      <c r="G106" s="59"/>
-      <c r="H106" s="59"/>
-      <c r="I106" s="59"/>
-      <c r="J106" s="58" t="s">
+      <c r="F106" s="78"/>
+      <c r="G106" s="78"/>
+      <c r="H106" s="78"/>
+      <c r="I106" s="78"/>
+      <c r="J106" s="77" t="s">
         <v>81</v>
       </c>
-      <c r="K106" s="58"/>
-      <c r="L106" s="58"/>
-      <c r="M106" s="58"/>
-      <c r="N106" s="58"/>
-      <c r="O106" s="58"/>
-      <c r="P106" s="58"/>
-      <c r="Q106" s="58"/>
-      <c r="R106" s="58"/>
-      <c r="S106" s="58"/>
-      <c r="T106" s="58"/>
-      <c r="U106" s="58"/>
-      <c r="V106" s="58"/>
-      <c r="W106" s="58"/>
-      <c r="X106" s="58"/>
-      <c r="Y106" s="58"/>
-      <c r="Z106" s="58"/>
-      <c r="AA106" s="58"/>
+      <c r="K106" s="77"/>
+      <c r="L106" s="77"/>
+      <c r="M106" s="77"/>
+      <c r="N106" s="77"/>
+      <c r="O106" s="77"/>
+      <c r="P106" s="77"/>
+      <c r="Q106" s="77"/>
+      <c r="R106" s="77"/>
+      <c r="S106" s="77"/>
+      <c r="T106" s="77"/>
+      <c r="U106" s="77"/>
+      <c r="V106" s="77"/>
+      <c r="W106" s="77"/>
+      <c r="X106" s="77"/>
+      <c r="Y106" s="77"/>
+      <c r="Z106" s="77"/>
+      <c r="AA106" s="77"/>
     </row>
     <row r="107" spans="5:27" ht="18" customHeight="1">
-      <c r="E107" s="59" t="s">
+      <c r="E107" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="F107" s="59"/>
-      <c r="G107" s="59"/>
-      <c r="H107" s="59"/>
-      <c r="I107" s="59"/>
-      <c r="J107" s="58" t="s">
+      <c r="F107" s="78"/>
+      <c r="G107" s="78"/>
+      <c r="H107" s="78"/>
+      <c r="I107" s="78"/>
+      <c r="J107" s="77" t="s">
         <v>77</v>
       </c>
-      <c r="K107" s="58"/>
-      <c r="L107" s="58"/>
-      <c r="M107" s="58"/>
-      <c r="N107" s="58"/>
-      <c r="O107" s="58"/>
-      <c r="P107" s="58"/>
-      <c r="Q107" s="58"/>
-      <c r="R107" s="58"/>
-      <c r="S107" s="58"/>
-      <c r="T107" s="58"/>
-      <c r="U107" s="58"/>
-      <c r="V107" s="58"/>
-      <c r="W107" s="58"/>
-      <c r="X107" s="58"/>
-      <c r="Y107" s="58"/>
-      <c r="Z107" s="58"/>
-      <c r="AA107" s="58"/>
+      <c r="K107" s="77"/>
+      <c r="L107" s="77"/>
+      <c r="M107" s="77"/>
+      <c r="N107" s="77"/>
+      <c r="O107" s="77"/>
+      <c r="P107" s="77"/>
+      <c r="Q107" s="77"/>
+      <c r="R107" s="77"/>
+      <c r="S107" s="77"/>
+      <c r="T107" s="77"/>
+      <c r="U107" s="77"/>
+      <c r="V107" s="77"/>
+      <c r="W107" s="77"/>
+      <c r="X107" s="77"/>
+      <c r="Y107" s="77"/>
+      <c r="Z107" s="77"/>
+      <c r="AA107" s="77"/>
     </row>
     <row r="108" spans="5:27" ht="18" customHeight="1">
-      <c r="E108" s="59" t="s">
+      <c r="E108" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="F108" s="59"/>
-      <c r="G108" s="59"/>
-      <c r="H108" s="59"/>
-      <c r="I108" s="59"/>
-      <c r="J108" s="58" t="s">
+      <c r="F108" s="78"/>
+      <c r="G108" s="78"/>
+      <c r="H108" s="78"/>
+      <c r="I108" s="78"/>
+      <c r="J108" s="77" t="s">
         <v>78</v>
       </c>
-      <c r="K108" s="58"/>
-      <c r="L108" s="58"/>
-      <c r="M108" s="58"/>
-      <c r="N108" s="58"/>
-      <c r="O108" s="58"/>
-      <c r="P108" s="58"/>
-      <c r="Q108" s="58"/>
-      <c r="R108" s="58"/>
-      <c r="S108" s="58"/>
-      <c r="T108" s="58"/>
-      <c r="U108" s="58"/>
-      <c r="V108" s="58"/>
-      <c r="W108" s="58"/>
-      <c r="X108" s="58"/>
-      <c r="Y108" s="58"/>
-      <c r="Z108" s="58"/>
-      <c r="AA108" s="58"/>
+      <c r="K108" s="77"/>
+      <c r="L108" s="77"/>
+      <c r="M108" s="77"/>
+      <c r="N108" s="77"/>
+      <c r="O108" s="77"/>
+      <c r="P108" s="77"/>
+      <c r="Q108" s="77"/>
+      <c r="R108" s="77"/>
+      <c r="S108" s="77"/>
+      <c r="T108" s="77"/>
+      <c r="U108" s="77"/>
+      <c r="V108" s="77"/>
+      <c r="W108" s="77"/>
+      <c r="X108" s="77"/>
+      <c r="Y108" s="77"/>
+      <c r="Z108" s="77"/>
+      <c r="AA108" s="77"/>
     </row>
     <row r="109" spans="5:27" ht="18" customHeight="1">
-      <c r="E109" s="59" t="s">
+      <c r="E109" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="F109" s="59"/>
-      <c r="G109" s="59"/>
-      <c r="H109" s="59"/>
-      <c r="I109" s="59"/>
-      <c r="J109" s="58" t="s">
+      <c r="F109" s="78"/>
+      <c r="G109" s="78"/>
+      <c r="H109" s="78"/>
+      <c r="I109" s="78"/>
+      <c r="J109" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="K109" s="58"/>
-      <c r="L109" s="58"/>
-      <c r="M109" s="58"/>
-      <c r="N109" s="58"/>
-      <c r="O109" s="58"/>
-      <c r="P109" s="58"/>
-      <c r="Q109" s="58"/>
-      <c r="R109" s="58"/>
-      <c r="S109" s="58"/>
-      <c r="T109" s="58"/>
-      <c r="U109" s="58"/>
-      <c r="V109" s="58"/>
-      <c r="W109" s="58"/>
-      <c r="X109" s="58"/>
-      <c r="Y109" s="58"/>
-      <c r="Z109" s="58"/>
-      <c r="AA109" s="58"/>
+      <c r="K109" s="77"/>
+      <c r="L109" s="77"/>
+      <c r="M109" s="77"/>
+      <c r="N109" s="77"/>
+      <c r="O109" s="77"/>
+      <c r="P109" s="77"/>
+      <c r="Q109" s="77"/>
+      <c r="R109" s="77"/>
+      <c r="S109" s="77"/>
+      <c r="T109" s="77"/>
+      <c r="U109" s="77"/>
+      <c r="V109" s="77"/>
+      <c r="W109" s="77"/>
+      <c r="X109" s="77"/>
+      <c r="Y109" s="77"/>
+      <c r="Z109" s="77"/>
+      <c r="AA109" s="77"/>
     </row>
     <row r="110" spans="5:27" ht="18" customHeight="1">
       <c r="E110" s="21"/>
@@ -12737,179 +14501,179 @@
       </c>
     </row>
     <row r="266" spans="4:33" ht="18" customHeight="1">
-      <c r="E266" s="57" t="s">
+      <c r="E266" s="76" t="s">
         <v>172</v>
       </c>
-      <c r="F266" s="57"/>
-      <c r="G266" s="57"/>
-      <c r="H266" s="57"/>
-      <c r="I266" s="57"/>
-      <c r="J266" s="57"/>
-      <c r="K266" s="57"/>
-      <c r="L266" s="57" t="s">
+      <c r="F266" s="76"/>
+      <c r="G266" s="76"/>
+      <c r="H266" s="76"/>
+      <c r="I266" s="76"/>
+      <c r="J266" s="76"/>
+      <c r="K266" s="76"/>
+      <c r="L266" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="M266" s="57"/>
-      <c r="N266" s="57"/>
-      <c r="O266" s="57"/>
-      <c r="P266" s="57"/>
-      <c r="Q266" s="57"/>
-      <c r="R266" s="57"/>
-      <c r="S266" s="57"/>
-      <c r="T266" s="57"/>
-      <c r="U266" s="57"/>
-      <c r="V266" s="57"/>
-      <c r="W266" s="57"/>
-      <c r="X266" s="57"/>
-      <c r="Y266" s="57"/>
-      <c r="Z266" s="57"/>
-      <c r="AA266" s="57"/>
-      <c r="AB266" s="57"/>
-      <c r="AC266" s="57"/>
-      <c r="AD266" s="57"/>
-      <c r="AE266" s="57"/>
-      <c r="AF266" s="57"/>
-      <c r="AG266" s="57"/>
+      <c r="M266" s="76"/>
+      <c r="N266" s="76"/>
+      <c r="O266" s="76"/>
+      <c r="P266" s="76"/>
+      <c r="Q266" s="76"/>
+      <c r="R266" s="76"/>
+      <c r="S266" s="76"/>
+      <c r="T266" s="76"/>
+      <c r="U266" s="76"/>
+      <c r="V266" s="76"/>
+      <c r="W266" s="76"/>
+      <c r="X266" s="76"/>
+      <c r="Y266" s="76"/>
+      <c r="Z266" s="76"/>
+      <c r="AA266" s="76"/>
+      <c r="AB266" s="76"/>
+      <c r="AC266" s="76"/>
+      <c r="AD266" s="76"/>
+      <c r="AE266" s="76"/>
+      <c r="AF266" s="76"/>
+      <c r="AG266" s="76"/>
     </row>
     <row r="267" spans="4:33" ht="18" customHeight="1">
-      <c r="E267" s="53" t="s">
+      <c r="E267" s="72" t="s">
         <v>173</v>
       </c>
-      <c r="F267" s="53"/>
-      <c r="G267" s="53"/>
-      <c r="H267" s="53"/>
-      <c r="I267" s="53"/>
-      <c r="J267" s="53"/>
-      <c r="K267" s="53"/>
-      <c r="L267" s="58" t="s">
+      <c r="F267" s="72"/>
+      <c r="G267" s="72"/>
+      <c r="H267" s="72"/>
+      <c r="I267" s="72"/>
+      <c r="J267" s="72"/>
+      <c r="K267" s="72"/>
+      <c r="L267" s="77" t="s">
         <v>174</v>
       </c>
-      <c r="M267" s="58"/>
-      <c r="N267" s="58"/>
-      <c r="O267" s="58"/>
-      <c r="P267" s="58"/>
-      <c r="Q267" s="58"/>
-      <c r="R267" s="58"/>
-      <c r="S267" s="58"/>
-      <c r="T267" s="58"/>
-      <c r="U267" s="58"/>
-      <c r="V267" s="58"/>
-      <c r="W267" s="58"/>
-      <c r="X267" s="58"/>
-      <c r="Y267" s="58"/>
-      <c r="Z267" s="58"/>
-      <c r="AA267" s="58"/>
-      <c r="AB267" s="58"/>
-      <c r="AC267" s="58"/>
-      <c r="AD267" s="58"/>
-      <c r="AE267" s="58"/>
-      <c r="AF267" s="58"/>
-      <c r="AG267" s="58"/>
+      <c r="M267" s="77"/>
+      <c r="N267" s="77"/>
+      <c r="O267" s="77"/>
+      <c r="P267" s="77"/>
+      <c r="Q267" s="77"/>
+      <c r="R267" s="77"/>
+      <c r="S267" s="77"/>
+      <c r="T267" s="77"/>
+      <c r="U267" s="77"/>
+      <c r="V267" s="77"/>
+      <c r="W267" s="77"/>
+      <c r="X267" s="77"/>
+      <c r="Y267" s="77"/>
+      <c r="Z267" s="77"/>
+      <c r="AA267" s="77"/>
+      <c r="AB267" s="77"/>
+      <c r="AC267" s="77"/>
+      <c r="AD267" s="77"/>
+      <c r="AE267" s="77"/>
+      <c r="AF267" s="77"/>
+      <c r="AG267" s="77"/>
     </row>
     <row r="268" spans="4:33" ht="18" customHeight="1">
-      <c r="E268" s="53" t="s">
+      <c r="E268" s="72" t="s">
         <v>175</v>
       </c>
-      <c r="F268" s="53"/>
-      <c r="G268" s="53"/>
-      <c r="H268" s="53"/>
-      <c r="I268" s="53"/>
-      <c r="J268" s="53"/>
-      <c r="K268" s="53"/>
-      <c r="L268" s="58" t="s">
+      <c r="F268" s="72"/>
+      <c r="G268" s="72"/>
+      <c r="H268" s="72"/>
+      <c r="I268" s="72"/>
+      <c r="J268" s="72"/>
+      <c r="K268" s="72"/>
+      <c r="L268" s="77" t="s">
         <v>176</v>
       </c>
-      <c r="M268" s="58"/>
-      <c r="N268" s="58"/>
-      <c r="O268" s="58"/>
-      <c r="P268" s="58"/>
-      <c r="Q268" s="58"/>
-      <c r="R268" s="58"/>
-      <c r="S268" s="58"/>
-      <c r="T268" s="58"/>
-      <c r="U268" s="58"/>
-      <c r="V268" s="58"/>
-      <c r="W268" s="58"/>
-      <c r="X268" s="58"/>
-      <c r="Y268" s="58"/>
-      <c r="Z268" s="58"/>
-      <c r="AA268" s="58"/>
-      <c r="AB268" s="58"/>
-      <c r="AC268" s="58"/>
-      <c r="AD268" s="58"/>
-      <c r="AE268" s="58"/>
-      <c r="AF268" s="58"/>
-      <c r="AG268" s="58"/>
+      <c r="M268" s="77"/>
+      <c r="N268" s="77"/>
+      <c r="O268" s="77"/>
+      <c r="P268" s="77"/>
+      <c r="Q268" s="77"/>
+      <c r="R268" s="77"/>
+      <c r="S268" s="77"/>
+      <c r="T268" s="77"/>
+      <c r="U268" s="77"/>
+      <c r="V268" s="77"/>
+      <c r="W268" s="77"/>
+      <c r="X268" s="77"/>
+      <c r="Y268" s="77"/>
+      <c r="Z268" s="77"/>
+      <c r="AA268" s="77"/>
+      <c r="AB268" s="77"/>
+      <c r="AC268" s="77"/>
+      <c r="AD268" s="77"/>
+      <c r="AE268" s="77"/>
+      <c r="AF268" s="77"/>
+      <c r="AG268" s="77"/>
     </row>
     <row r="269" spans="4:33" ht="18" customHeight="1">
-      <c r="E269" s="53" t="s">
+      <c r="E269" s="72" t="s">
         <v>177</v>
       </c>
-      <c r="F269" s="53"/>
-      <c r="G269" s="53"/>
-      <c r="H269" s="53"/>
-      <c r="I269" s="53"/>
-      <c r="J269" s="53"/>
-      <c r="K269" s="53"/>
-      <c r="L269" s="54" t="s">
+      <c r="F269" s="72"/>
+      <c r="G269" s="72"/>
+      <c r="H269" s="72"/>
+      <c r="I269" s="72"/>
+      <c r="J269" s="72"/>
+      <c r="K269" s="72"/>
+      <c r="L269" s="73" t="s">
         <v>180</v>
       </c>
-      <c r="M269" s="55"/>
-      <c r="N269" s="55"/>
-      <c r="O269" s="55"/>
-      <c r="P269" s="55"/>
-      <c r="Q269" s="55"/>
-      <c r="R269" s="55"/>
-      <c r="S269" s="55"/>
-      <c r="T269" s="55"/>
-      <c r="U269" s="55"/>
-      <c r="V269" s="55"/>
-      <c r="W269" s="55"/>
-      <c r="X269" s="55"/>
-      <c r="Y269" s="55"/>
-      <c r="Z269" s="55"/>
-      <c r="AA269" s="55"/>
-      <c r="AB269" s="55"/>
-      <c r="AC269" s="55"/>
-      <c r="AD269" s="55"/>
-      <c r="AE269" s="55"/>
-      <c r="AF269" s="55"/>
-      <c r="AG269" s="56"/>
+      <c r="M269" s="74"/>
+      <c r="N269" s="74"/>
+      <c r="O269" s="74"/>
+      <c r="P269" s="74"/>
+      <c r="Q269" s="74"/>
+      <c r="R269" s="74"/>
+      <c r="S269" s="74"/>
+      <c r="T269" s="74"/>
+      <c r="U269" s="74"/>
+      <c r="V269" s="74"/>
+      <c r="W269" s="74"/>
+      <c r="X269" s="74"/>
+      <c r="Y269" s="74"/>
+      <c r="Z269" s="74"/>
+      <c r="AA269" s="74"/>
+      <c r="AB269" s="74"/>
+      <c r="AC269" s="74"/>
+      <c r="AD269" s="74"/>
+      <c r="AE269" s="74"/>
+      <c r="AF269" s="74"/>
+      <c r="AG269" s="75"/>
     </row>
     <row r="270" spans="4:33" ht="18" customHeight="1">
-      <c r="E270" s="53" t="s">
+      <c r="E270" s="72" t="s">
         <v>178</v>
       </c>
-      <c r="F270" s="53"/>
-      <c r="G270" s="53"/>
-      <c r="H270" s="53"/>
-      <c r="I270" s="53"/>
-      <c r="J270" s="53"/>
-      <c r="K270" s="53"/>
-      <c r="L270" s="54" t="s">
+      <c r="F270" s="72"/>
+      <c r="G270" s="72"/>
+      <c r="H270" s="72"/>
+      <c r="I270" s="72"/>
+      <c r="J270" s="72"/>
+      <c r="K270" s="72"/>
+      <c r="L270" s="73" t="s">
         <v>179</v>
       </c>
-      <c r="M270" s="55"/>
-      <c r="N270" s="55"/>
-      <c r="O270" s="55"/>
-      <c r="P270" s="55"/>
-      <c r="Q270" s="55"/>
-      <c r="R270" s="55"/>
-      <c r="S270" s="55"/>
-      <c r="T270" s="55"/>
-      <c r="U270" s="55"/>
-      <c r="V270" s="55"/>
-      <c r="W270" s="55"/>
-      <c r="X270" s="55"/>
-      <c r="Y270" s="55"/>
-      <c r="Z270" s="55"/>
-      <c r="AA270" s="55"/>
-      <c r="AB270" s="55"/>
-      <c r="AC270" s="55"/>
-      <c r="AD270" s="55"/>
-      <c r="AE270" s="55"/>
-      <c r="AF270" s="55"/>
-      <c r="AG270" s="56"/>
+      <c r="M270" s="74"/>
+      <c r="N270" s="74"/>
+      <c r="O270" s="74"/>
+      <c r="P270" s="74"/>
+      <c r="Q270" s="74"/>
+      <c r="R270" s="74"/>
+      <c r="S270" s="74"/>
+      <c r="T270" s="74"/>
+      <c r="U270" s="74"/>
+      <c r="V270" s="74"/>
+      <c r="W270" s="74"/>
+      <c r="X270" s="74"/>
+      <c r="Y270" s="74"/>
+      <c r="Z270" s="74"/>
+      <c r="AA270" s="74"/>
+      <c r="AB270" s="74"/>
+      <c r="AC270" s="74"/>
+      <c r="AD270" s="74"/>
+      <c r="AE270" s="74"/>
+      <c r="AF270" s="74"/>
+      <c r="AG270" s="75"/>
     </row>
     <row r="272" spans="4:33" ht="18" customHeight="1">
       <c r="E272" s="17" t="s">
@@ -14468,7 +16232,7 @@
     <mergeCell ref="E268:K268"/>
     <mergeCell ref="L268:AG268"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1" xr:uid="{ED32210F-24A1-4FAD-B4C6-F4FE16F7D1AD}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{52C6A65A-F13C-4B89-9240-52FE014FE5B9}"/>

--- a/doc/JSP_20220513.xlsx
+++ b/doc/JSP_20220513.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DCOM_20220127\03_WEB\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9487F272-2A53-4272-BAF9-47CC006717F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C689EEE7-2B93-4232-B389-49FC00E67EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12630" windowHeight="15280" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="목차" sheetId="1" r:id="rId1"/>
     <sheet name="temp" sheetId="5" r:id="rId2"/>
-    <sheet name="application_20220517" sheetId="6" r:id="rId3"/>
-    <sheet name="servlet_20220516" sheetId="4" r:id="rId4"/>
-    <sheet name="jsp01_내장객체_20220513" sheetId="3" r:id="rId5"/>
+    <sheet name="jsp_20220518" sheetId="7" r:id="rId3"/>
+    <sheet name="application_20220517" sheetId="6" r:id="rId4"/>
+    <sheet name="servlet_20220516" sheetId="4" r:id="rId5"/>
+    <sheet name="jsp01_내장객체_20220513" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="477">
   <si>
     <t>NO.</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -9579,6 +9579,2081 @@
   </si>
   <si>
     <t>https://ko.wikipedia.org/wiki/HTTP_%EC%83%81%ED%83%9C_%EC%BD%94%EB%93%9C</t>
+  </si>
+  <si>
+    <t>include</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp에는 현재의 jsp파일에다 다른 파일(jsp, html)을 포함시켜 사용을 할 수 있다.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>header, footer, menu 등을 나타낼때 사용</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>include 방식</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>지시어 방식(include directive)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>액션(include action)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통점은 동일하게 파일을 포함시킨다.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>차이점은 지시어는 해당 소스를 포함시킨 후 컴파일</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;jsp:include file="/cmm/header.jsp" %'&gt;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>param을 전달 가능</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>'&lt;%@ include file="/cmm/header.jsp" %&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/jsp:include&gt;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;jsp:param name="email" value="jamesol@paran.com" /&gt;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            액션은 실행지점에 해당 파일을 수행하여 결과를 포함시킨다.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>top</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>left</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>contents</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>bottom</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>table</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>layout.jsp</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>title</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;include : layout&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>title</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>h2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;include layout&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>h2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0A9989"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>width</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDF5000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"400"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0A9989"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>border</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDF5000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"1"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0A9989"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>cellpadding</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDF5000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"0"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0A9989"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>cellspacing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDF5000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"0"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">         &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>tr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">           &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>td</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0A9989"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>colspan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDF5000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"2"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>jsp:include</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0A9989"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>page</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDF5000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"/jsp/j03/top.jsp"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>jsp:include</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>td</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">         &lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>tr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">           &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>td</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0A9989"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>width</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDF5000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"100"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>jsp:include</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0A9989"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>page</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDF5000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"/jsp/j03/left.jsp"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>jsp:include</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt; &lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>td</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">           &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>td</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0A9989"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>width</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDF5000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"300"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;contents&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>br/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>br/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>br/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>br/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>td</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">           &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>td</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0A9989"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>colspan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDF5000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"2"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>jsp:include</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0A9989"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>page</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDF5000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"/jsp/j03/bottom.jsp"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>jsp:include</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt; &lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>td</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        &lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0A9989"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>href</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDF5000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"#"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;홈&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0A9989"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>href</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDF5000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"#"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;정보&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>top.jsp</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>left.jsp</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">좌측메뉴 : </t>
+  </si>
+  <si>
+    <t>bottom.jsp</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">하단 메뉴 : </t>
+  </si>
+  <si>
+    <t>소개 | 도움말 | 약관 | 사이트맵</t>
+  </si>
+  <si>
+    <t>info.jsp</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>infoSub.jsp</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;jsp:include file="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/cmm/header.jsp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" %'&gt;</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>h2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>h2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>jsp:include</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0A9989"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>page</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDF5000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"/jsp/j03/j03_01/infoSub.jsp"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>jsp:param</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0A9989"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDF5000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"rain day!"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0A9989"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDF5000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"type"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0A9989"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  &lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>jsp:include</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>String</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> type </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> request.getParameter(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF63A35C"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"type"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>==</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> type) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>h2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">&gt;type : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">type </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>h2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>info.jsp를 실행하면</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>바로 infoSub.jsp로</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>파람 전달</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>request.setAttribute("변수", 값);</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;jsp:forward page="대상jsp" /&gt;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>makeTime.jsp</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>viewTime.jsp</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">@page </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0086B3"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF63A35C"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"java.util.Calendar"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    Calendar cal </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Calendar.getInstance();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    request.setAttribute(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF63A35C"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"time"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, cal);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>jsp:forward</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0A9989"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>page</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDF5000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"viewTime.jsp"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0A9989"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">                );</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    Calendar cal </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (Calendar)request.getAttribute(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF63A35C"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"time"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF63A35C"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"현재시간:"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> cal.get(Calendar.HOUR)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF63A35C"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> cal.get(Calendar.MINUTE)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF63A35C"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> cal.get(Calendar.SECOND)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -10017,7 +12092,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -10226,6 +12301,15 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -10238,14 +12322,89 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="3" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -10273,6 +12432,461 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>184150</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>1738</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>209933</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>82755</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BBC4F20-7BD9-24B3-0B39-F400A5FFB034}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7715250" y="14860738"/>
+          <a:ext cx="5283583" cy="2824217"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="직사각형 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{455F7629-B888-E8B6-5BEE-469A68E0B3DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1676400" y="22402800"/>
+          <a:ext cx="4095750" cy="698500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="직사각형 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F517F81-8DB9-4CAF-A3A7-05FE4AA244ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7524750" y="19919950"/>
+          <a:ext cx="4953000" cy="3867150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="연결선: 구부러짐 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DD45398-20D1-D385-DB05-4423E2A04916}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5772150" y="21853525"/>
+          <a:ext cx="1752600" cy="898525"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>158938</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>158861</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D9942D6-355D-7C1D-F2C3-97DEB3425A47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1689100" y="23831550"/>
+          <a:ext cx="3664138" cy="2159111"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="직사각형 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C493842D-9014-4C2D-B386-ACB3C0A23E65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1562100" y="27914600"/>
+          <a:ext cx="3448050" cy="1225550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="직사각형 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30650CB0-EAF3-4505-8117-442AAC8F8BA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1955800" y="30365700"/>
+          <a:ext cx="4178300" cy="279400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="연결선: 구부러짐 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82CC88B6-9943-47B3-BDB7-BBA130330510}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="3"/>
+          <a:endCxn id="9" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5010150" y="28527375"/>
+          <a:ext cx="1123950" cy="1978025"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 120339"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -10365,7 +12979,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10980,7 +13594,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -11586,10 +14200,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C12" sqref="C12:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -11688,8 +14302,21 @@
       <c r="H11" s="69"/>
       <c r="I11" s="4"/>
     </row>
+    <row r="12" spans="1:9">
+      <c r="B12" s="4">
+        <v>4</v>
+      </c>
+      <c r="C12" s="67"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="C12:H12"/>
     <mergeCell ref="A1:A6"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H9"/>
@@ -11818,10 +14445,1040 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6228D270-1450-4731-80EE-E2488C212F09}">
+  <dimension ref="A1:AD139"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q122" sqref="Q122"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.83203125" defaultRowHeight="18" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="3" style="6" customWidth="1"/>
+    <col min="2" max="16384" width="3.83203125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" ht="18" customHeight="1">
+      <c r="A1" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" ht="18" customHeight="1">
+      <c r="A2" s="71"/>
+      <c r="B2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="18" customHeight="1">
+      <c r="A3" s="71"/>
+      <c r="B3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="18" customHeight="1">
+      <c r="A4" s="71"/>
+      <c r="B4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="18" customHeight="1">
+      <c r="A5" s="71"/>
+      <c r="B5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="18" customHeight="1">
+      <c r="A6" s="71"/>
+      <c r="B6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="18" customHeight="1">
+      <c r="A7" s="71"/>
+      <c r="B7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="18" customHeight="1">
+      <c r="A8" s="71"/>
+      <c r="B8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="18" customHeight="1">
+      <c r="A9" s="71"/>
+      <c r="B9" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="18" customHeight="1">
+      <c r="C11" s="80" t="s">
+        <v>413</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:28" ht="18" customHeight="1">
+      <c r="D12" s="79" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="18" customHeight="1">
+      <c r="D13" s="79" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="18" customHeight="1">
+      <c r="D15" s="81" t="s">
+        <v>416</v>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" spans="1:28" ht="18" customHeight="1">
+      <c r="E16" s="79" t="s">
+        <v>417</v>
+      </c>
+      <c r="M16" s="82" t="s">
+        <v>423</v>
+      </c>
+      <c r="AB16" s="83" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="17" spans="5:29" ht="18" customHeight="1">
+      <c r="E17" s="79" t="s">
+        <v>418</v>
+      </c>
+      <c r="M17" s="83" t="s">
+        <v>421</v>
+      </c>
+      <c r="W17" s="29" t="s">
+        <v>422</v>
+      </c>
+      <c r="AC17" s="79" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="18" spans="5:29" ht="18" customHeight="1">
+      <c r="AB18" s="79" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="19" spans="5:29" ht="18" customHeight="1">
+      <c r="E19" s="79" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="20" spans="5:29" ht="18" customHeight="1">
+      <c r="E20" s="79" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="21" spans="5:29" ht="18" customHeight="1">
+      <c r="E21" s="79" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="22" spans="5:29" ht="18" customHeight="1">
+      <c r="E22" s="79"/>
+    </row>
+    <row r="23" spans="5:29" ht="18" customHeight="1">
+      <c r="E23" s="102" t="s">
+        <v>431</v>
+      </c>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+    </row>
+    <row r="24" spans="5:29" ht="18" customHeight="1">
+      <c r="E24" s="79"/>
+    </row>
+    <row r="25" spans="5:29" ht="18" customHeight="1">
+      <c r="E25" s="92" t="s">
+        <v>427</v>
+      </c>
+      <c r="F25" s="77"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="77"/>
+      <c r="I25" s="77"/>
+      <c r="J25" s="77"/>
+      <c r="K25" s="77"/>
+      <c r="L25" s="77"/>
+      <c r="M25" s="77"/>
+      <c r="N25" s="77"/>
+      <c r="O25" s="77"/>
+      <c r="P25" s="77"/>
+      <c r="Q25" s="77"/>
+      <c r="R25" s="77"/>
+      <c r="S25" s="77"/>
+      <c r="T25" s="77"/>
+      <c r="U25" s="78"/>
+    </row>
+    <row r="26" spans="5:29" ht="18" customHeight="1">
+      <c r="E26" s="93" t="s">
+        <v>428</v>
+      </c>
+      <c r="F26" s="94"/>
+      <c r="G26" s="94"/>
+      <c r="H26" s="95"/>
+      <c r="I26" s="93" t="s">
+        <v>429</v>
+      </c>
+      <c r="J26" s="84"/>
+      <c r="K26" s="84"/>
+      <c r="L26" s="84"/>
+      <c r="M26" s="84"/>
+      <c r="N26" s="84"/>
+      <c r="O26" s="84"/>
+      <c r="P26" s="84"/>
+      <c r="Q26" s="84"/>
+      <c r="R26" s="84"/>
+      <c r="S26" s="84"/>
+      <c r="T26" s="84"/>
+      <c r="U26" s="85"/>
+    </row>
+    <row r="27" spans="5:29" ht="18" customHeight="1">
+      <c r="E27" s="96"/>
+      <c r="F27" s="97"/>
+      <c r="G27" s="97"/>
+      <c r="H27" s="98"/>
+      <c r="I27" s="86"/>
+      <c r="J27" s="87"/>
+      <c r="K27" s="87"/>
+      <c r="L27" s="87"/>
+      <c r="M27" s="87"/>
+      <c r="N27" s="87"/>
+      <c r="O27" s="87"/>
+      <c r="P27" s="87"/>
+      <c r="Q27" s="87"/>
+      <c r="R27" s="87"/>
+      <c r="S27" s="87"/>
+      <c r="T27" s="87"/>
+      <c r="U27" s="88"/>
+    </row>
+    <row r="28" spans="5:29" ht="18" customHeight="1">
+      <c r="E28" s="96"/>
+      <c r="F28" s="97"/>
+      <c r="G28" s="97"/>
+      <c r="H28" s="98"/>
+      <c r="I28" s="86"/>
+      <c r="J28" s="87"/>
+      <c r="K28" s="87"/>
+      <c r="L28" s="87"/>
+      <c r="M28" s="87"/>
+      <c r="N28" s="87"/>
+      <c r="O28" s="87"/>
+      <c r="P28" s="87"/>
+      <c r="Q28" s="87"/>
+      <c r="R28" s="87"/>
+      <c r="S28" s="87"/>
+      <c r="T28" s="87"/>
+      <c r="U28" s="88"/>
+    </row>
+    <row r="29" spans="5:29" ht="18" customHeight="1">
+      <c r="E29" s="96"/>
+      <c r="F29" s="97"/>
+      <c r="G29" s="97"/>
+      <c r="H29" s="98"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="87"/>
+      <c r="K29" s="87"/>
+      <c r="L29" s="87"/>
+      <c r="M29" s="87"/>
+      <c r="N29" s="87"/>
+      <c r="O29" s="87"/>
+      <c r="P29" s="87"/>
+      <c r="Q29" s="87"/>
+      <c r="R29" s="87"/>
+      <c r="S29" s="87"/>
+      <c r="T29" s="87"/>
+      <c r="U29" s="88"/>
+    </row>
+    <row r="30" spans="5:29" ht="18" customHeight="1">
+      <c r="E30" s="96"/>
+      <c r="F30" s="97"/>
+      <c r="G30" s="97"/>
+      <c r="H30" s="98"/>
+      <c r="I30" s="86"/>
+      <c r="J30" s="87"/>
+      <c r="K30" s="87"/>
+      <c r="L30" s="87"/>
+      <c r="M30" s="87"/>
+      <c r="N30" s="87"/>
+      <c r="O30" s="87"/>
+      <c r="P30" s="87"/>
+      <c r="Q30" s="87"/>
+      <c r="R30" s="87"/>
+      <c r="S30" s="87"/>
+      <c r="T30" s="87"/>
+      <c r="U30" s="88"/>
+    </row>
+    <row r="31" spans="5:29" ht="18" customHeight="1">
+      <c r="E31" s="96"/>
+      <c r="F31" s="97"/>
+      <c r="G31" s="97"/>
+      <c r="H31" s="98"/>
+      <c r="I31" s="86"/>
+      <c r="J31" s="87"/>
+      <c r="K31" s="87"/>
+      <c r="L31" s="87"/>
+      <c r="M31" s="87"/>
+      <c r="N31" s="87"/>
+      <c r="O31" s="87"/>
+      <c r="P31" s="87"/>
+      <c r="Q31" s="87"/>
+      <c r="R31" s="87"/>
+      <c r="S31" s="87"/>
+      <c r="T31" s="87"/>
+      <c r="U31" s="88"/>
+    </row>
+    <row r="32" spans="5:29" ht="18" customHeight="1">
+      <c r="E32" s="96"/>
+      <c r="F32" s="97"/>
+      <c r="G32" s="97"/>
+      <c r="H32" s="98"/>
+      <c r="I32" s="86"/>
+      <c r="J32" s="87"/>
+      <c r="K32" s="87"/>
+      <c r="L32" s="87"/>
+      <c r="M32" s="87"/>
+      <c r="N32" s="87"/>
+      <c r="O32" s="87"/>
+      <c r="P32" s="87"/>
+      <c r="Q32" s="87"/>
+      <c r="R32" s="87"/>
+      <c r="S32" s="87"/>
+      <c r="T32" s="87"/>
+      <c r="U32" s="88"/>
+    </row>
+    <row r="33" spans="5:21" ht="18" customHeight="1">
+      <c r="E33" s="96"/>
+      <c r="F33" s="97"/>
+      <c r="G33" s="97"/>
+      <c r="H33" s="98"/>
+      <c r="I33" s="86"/>
+      <c r="J33" s="87"/>
+      <c r="K33" s="87"/>
+      <c r="L33" s="87"/>
+      <c r="M33" s="87"/>
+      <c r="N33" s="87"/>
+      <c r="O33" s="87"/>
+      <c r="P33" s="87"/>
+      <c r="Q33" s="87"/>
+      <c r="R33" s="87"/>
+      <c r="S33" s="87"/>
+      <c r="T33" s="87"/>
+      <c r="U33" s="88"/>
+    </row>
+    <row r="34" spans="5:21" ht="18" customHeight="1">
+      <c r="E34" s="99"/>
+      <c r="F34" s="100"/>
+      <c r="G34" s="100"/>
+      <c r="H34" s="101"/>
+      <c r="I34" s="89"/>
+      <c r="J34" s="90"/>
+      <c r="K34" s="90"/>
+      <c r="L34" s="90"/>
+      <c r="M34" s="90"/>
+      <c r="N34" s="90"/>
+      <c r="O34" s="90"/>
+      <c r="P34" s="90"/>
+      <c r="Q34" s="90"/>
+      <c r="R34" s="90"/>
+      <c r="S34" s="90"/>
+      <c r="T34" s="90"/>
+      <c r="U34" s="91"/>
+    </row>
+    <row r="35" spans="5:21" ht="18" customHeight="1">
+      <c r="E35" s="92" t="s">
+        <v>430</v>
+      </c>
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="77"/>
+      <c r="I35" s="77"/>
+      <c r="J35" s="77"/>
+      <c r="K35" s="77"/>
+      <c r="L35" s="77"/>
+      <c r="M35" s="77"/>
+      <c r="N35" s="77"/>
+      <c r="O35" s="77"/>
+      <c r="P35" s="77"/>
+      <c r="Q35" s="77"/>
+      <c r="R35" s="77"/>
+      <c r="S35" s="77"/>
+      <c r="T35" s="77"/>
+      <c r="U35" s="78"/>
+    </row>
+    <row r="37" spans="5:21" ht="18" customHeight="1">
+      <c r="F37" s="103" t="s">
+        <v>432</v>
+      </c>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+    </row>
+    <row r="38" spans="5:21" ht="18" customHeight="1">
+      <c r="G38" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="5:21" ht="18" customHeight="1">
+      <c r="G39" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="5:21" ht="18" customHeight="1">
+      <c r="G40" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="5:21" ht="18" customHeight="1">
+      <c r="G41" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="5:21" ht="18" customHeight="1">
+      <c r="G42" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="5:21" ht="18" customHeight="1">
+      <c r="G43" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="5:21" ht="18" customHeight="1">
+      <c r="G44" s="12" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="45" spans="5:21" ht="18" customHeight="1">
+      <c r="G45" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="5:21" ht="18" customHeight="1">
+      <c r="G46" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="5:21" ht="18" customHeight="1">
+      <c r="G47" s="12" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="48" spans="5:21" ht="18" customHeight="1">
+      <c r="G48" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" spans="7:7" ht="18" customHeight="1">
+      <c r="G49" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="7:7" ht="18" customHeight="1">
+      <c r="G50" s="12" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="51" spans="7:7" ht="18" customHeight="1">
+      <c r="G51" s="12" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="52" spans="7:7" ht="18" customHeight="1">
+      <c r="G52" s="12" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="53" spans="7:7" ht="18" customHeight="1">
+      <c r="G53" s="12" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="54" spans="7:7" ht="18" customHeight="1">
+      <c r="G54" s="12" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="55" spans="7:7" ht="18" customHeight="1">
+      <c r="G55" s="12" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="56" spans="7:7" ht="18" customHeight="1">
+      <c r="G56" s="12" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="57" spans="7:7" ht="18" customHeight="1">
+      <c r="G57" s="12" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="58" spans="7:7" ht="18" customHeight="1">
+      <c r="G58" s="12" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="59" spans="7:7" ht="18" customHeight="1">
+      <c r="G59" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="60" spans="7:7" ht="18" customHeight="1">
+      <c r="G60" s="12" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="61" spans="7:7" ht="18" customHeight="1">
+      <c r="G61" s="12" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="62" spans="7:7" ht="18" customHeight="1">
+      <c r="G62" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="63" spans="7:7" ht="18" customHeight="1">
+      <c r="G63" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="65" spans="6:10" ht="18" customHeight="1">
+      <c r="F65" s="103" t="s">
+        <v>445</v>
+      </c>
+      <c r="G65" s="18"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="18"/>
+      <c r="J65" s="18"/>
+    </row>
+    <row r="66" spans="6:10" ht="18" customHeight="1">
+      <c r="G66" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="67" spans="6:10" ht="18" customHeight="1">
+      <c r="G67" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="68" spans="6:10" ht="18" customHeight="1">
+      <c r="G68" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="69" spans="6:10" ht="18" customHeight="1">
+      <c r="G69" s="12" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="71" spans="6:10" ht="18" customHeight="1">
+      <c r="F71" s="103" t="s">
+        <v>446</v>
+      </c>
+      <c r="G71" s="18"/>
+      <c r="H71" s="18"/>
+      <c r="I71" s="18"/>
+      <c r="J71" s="18"/>
+    </row>
+    <row r="72" spans="6:10" ht="18" customHeight="1">
+      <c r="G72" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="73" spans="6:10" ht="18" customHeight="1">
+      <c r="G73" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="74" spans="6:10" ht="18" customHeight="1">
+      <c r="G74" s="12" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="76" spans="6:10" ht="18" customHeight="1">
+      <c r="F76" s="103" t="s">
+        <v>448</v>
+      </c>
+      <c r="G76" s="18"/>
+      <c r="H76" s="18"/>
+      <c r="I76" s="18"/>
+      <c r="J76" s="18"/>
+    </row>
+    <row r="77" spans="6:10" ht="18" customHeight="1">
+      <c r="G77" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="78" spans="6:10" ht="18" customHeight="1">
+      <c r="G78" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="79" spans="6:10" ht="18" customHeight="1">
+      <c r="G79" s="12" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="80" spans="6:10" ht="18" customHeight="1">
+      <c r="G80" s="12" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="81" spans="5:30" ht="18" customHeight="1">
+      <c r="G81" s="12"/>
+    </row>
+    <row r="83" spans="5:30" ht="18" customHeight="1">
+      <c r="E83" s="104" t="s">
+        <v>453</v>
+      </c>
+      <c r="F83" s="19"/>
+      <c r="G83" s="19"/>
+      <c r="H83" s="19"/>
+      <c r="I83" s="19"/>
+      <c r="J83" s="19"/>
+      <c r="K83" s="19"/>
+      <c r="L83" s="19"/>
+      <c r="M83" s="19"/>
+      <c r="N83" s="19"/>
+      <c r="O83" s="19"/>
+      <c r="P83" s="19"/>
+      <c r="Q83" s="19"/>
+      <c r="R83" s="19"/>
+      <c r="S83" s="19"/>
+    </row>
+    <row r="84" spans="5:30" ht="18" customHeight="1">
+      <c r="E84" s="19"/>
+      <c r="F84" s="102" t="s">
+        <v>425</v>
+      </c>
+      <c r="G84" s="19"/>
+      <c r="H84" s="19"/>
+      <c r="I84" s="19"/>
+      <c r="J84" s="19"/>
+      <c r="K84" s="19"/>
+      <c r="L84" s="19"/>
+      <c r="M84" s="19"/>
+      <c r="N84" s="19"/>
+      <c r="O84" s="19"/>
+      <c r="P84" s="19"/>
+      <c r="Q84" s="19"/>
+      <c r="R84" s="19"/>
+      <c r="S84" s="19"/>
+    </row>
+    <row r="85" spans="5:30" ht="18" customHeight="1">
+      <c r="E85" s="102" t="s">
+        <v>424</v>
+      </c>
+      <c r="F85" s="19"/>
+      <c r="G85" s="19"/>
+      <c r="H85" s="19"/>
+      <c r="I85" s="19"/>
+      <c r="J85" s="19"/>
+      <c r="K85" s="19"/>
+      <c r="L85" s="19"/>
+      <c r="M85" s="19"/>
+      <c r="N85" s="19"/>
+      <c r="O85" s="19"/>
+      <c r="P85" s="19"/>
+      <c r="Q85" s="19"/>
+      <c r="R85" s="19"/>
+      <c r="S85" s="19"/>
+    </row>
+    <row r="86" spans="5:30" s="26" customFormat="1" ht="18" customHeight="1">
+      <c r="E86" s="105"/>
+    </row>
+    <row r="87" spans="5:30" s="26" customFormat="1" ht="18" customHeight="1">
+      <c r="F87" s="103" t="s">
+        <v>451</v>
+      </c>
+      <c r="G87" s="18"/>
+      <c r="H87" s="18"/>
+      <c r="Z87" s="103" t="s">
+        <v>452</v>
+      </c>
+      <c r="AA87" s="18"/>
+      <c r="AB87" s="18"/>
+      <c r="AC87" s="18"/>
+    </row>
+    <row r="88" spans="5:30" s="26" customFormat="1" ht="18" customHeight="1">
+      <c r="G88" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA88" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="5:30" ht="18" customHeight="1">
+      <c r="G89" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA89" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="5:30" ht="18" customHeight="1">
+      <c r="G90" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA90" s="17" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="91" spans="5:30" ht="18" customHeight="1">
+      <c r="G91" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA91" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="AC91" s="83"/>
+    </row>
+    <row r="92" spans="5:30" ht="18" customHeight="1">
+      <c r="G92" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA92" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="AD92" s="79"/>
+    </row>
+    <row r="93" spans="5:30" ht="18" customHeight="1">
+      <c r="G93" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA93" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC93" s="79"/>
+    </row>
+    <row r="94" spans="5:30" ht="18" customHeight="1">
+      <c r="G94" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="U94" s="79" t="s">
+        <v>461</v>
+      </c>
+      <c r="AA94" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="95" spans="5:30" ht="18" customHeight="1">
+      <c r="G95" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="U95" s="79" t="s">
+        <v>462</v>
+      </c>
+      <c r="AA95" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="96" spans="5:30" ht="18" customHeight="1">
+      <c r="G96" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="U96" s="79" t="s">
+        <v>463</v>
+      </c>
+      <c r="AA96" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="97" spans="7:27" ht="18" customHeight="1">
+      <c r="G97" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="AA97" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="98" spans="7:27" ht="18" customHeight="1">
+      <c r="G98" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA98" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="99" spans="7:27" ht="18" customHeight="1">
+      <c r="G99" s="106" t="s">
+        <v>455</v>
+      </c>
+      <c r="H99" s="24"/>
+      <c r="I99" s="24"/>
+      <c r="J99" s="24"/>
+      <c r="K99" s="24"/>
+      <c r="L99" s="24"/>
+      <c r="M99" s="24"/>
+      <c r="N99" s="24"/>
+      <c r="O99" s="24"/>
+      <c r="P99" s="24"/>
+      <c r="Q99" s="24"/>
+      <c r="R99" s="24"/>
+      <c r="S99" s="24"/>
+      <c r="T99" s="24"/>
+      <c r="AA99" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="100" spans="7:27" ht="18" customHeight="1">
+      <c r="G100" s="106" t="s">
+        <v>456</v>
+      </c>
+      <c r="H100" s="24"/>
+      <c r="I100" s="24"/>
+      <c r="J100" s="24"/>
+      <c r="K100" s="24"/>
+      <c r="L100" s="24"/>
+      <c r="M100" s="24"/>
+      <c r="N100" s="24"/>
+      <c r="O100" s="24"/>
+      <c r="P100" s="24"/>
+      <c r="Q100" s="24"/>
+      <c r="R100" s="24"/>
+      <c r="S100" s="24"/>
+      <c r="T100" s="24"/>
+      <c r="AA100" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="101" spans="7:27" ht="18" customHeight="1">
+      <c r="G101" s="106" t="s">
+        <v>457</v>
+      </c>
+      <c r="H101" s="24"/>
+      <c r="I101" s="24"/>
+      <c r="J101" s="24"/>
+      <c r="K101" s="24"/>
+      <c r="L101" s="24"/>
+      <c r="M101" s="24"/>
+      <c r="N101" s="24"/>
+      <c r="O101" s="24"/>
+      <c r="P101" s="24"/>
+      <c r="Q101" s="24"/>
+      <c r="R101" s="24"/>
+      <c r="S101" s="24"/>
+      <c r="T101" s="24"/>
+      <c r="AA101" s="12" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="102" spans="7:27" ht="18" customHeight="1">
+      <c r="G102" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA102" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="103" spans="7:27" ht="18" customHeight="1">
+      <c r="G103" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA103" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="104" spans="7:27" ht="18" customHeight="1">
+      <c r="AA104" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="116" spans="5:13" ht="18" customHeight="1">
+      <c r="E116" s="102" t="s">
+        <v>464</v>
+      </c>
+      <c r="F116" s="19"/>
+      <c r="G116" s="19"/>
+      <c r="H116" s="19"/>
+      <c r="I116" s="19"/>
+      <c r="J116" s="19"/>
+      <c r="K116" s="19"/>
+      <c r="L116" s="19"/>
+      <c r="M116" s="19"/>
+    </row>
+    <row r="117" spans="5:13" ht="18" customHeight="1">
+      <c r="E117" s="102" t="s">
+        <v>465</v>
+      </c>
+      <c r="F117" s="19"/>
+      <c r="G117" s="19"/>
+      <c r="H117" s="19"/>
+      <c r="I117" s="19"/>
+      <c r="J117" s="19"/>
+      <c r="K117" s="19"/>
+      <c r="L117" s="19"/>
+      <c r="M117" s="19"/>
+    </row>
+    <row r="119" spans="5:13" ht="18" customHeight="1">
+      <c r="F119" s="103" t="s">
+        <v>466</v>
+      </c>
+      <c r="G119" s="18"/>
+      <c r="H119" s="18"/>
+      <c r="I119" s="18"/>
+      <c r="J119" s="18"/>
+    </row>
+    <row r="120" spans="5:13" ht="18" customHeight="1">
+      <c r="G120" s="17" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="121" spans="5:13" ht="18" customHeight="1">
+      <c r="G121" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="122" spans="5:13" ht="18" customHeight="1">
+      <c r="G122" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="123" spans="5:13" ht="18" customHeight="1">
+      <c r="G123" s="17" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="124" spans="5:13" ht="18" customHeight="1">
+      <c r="G124" s="12" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="125" spans="5:13" ht="18" customHeight="1">
+      <c r="G125" s="12" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="126" spans="5:13" ht="18" customHeight="1">
+      <c r="G126" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="127" spans="5:13" ht="18" customHeight="1">
+      <c r="G127" s="12" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="129" spans="6:9" ht="18" customHeight="1">
+      <c r="F129" s="103" t="s">
+        <v>467</v>
+      </c>
+      <c r="G129" s="18"/>
+      <c r="H129" s="18"/>
+      <c r="I129" s="18"/>
+    </row>
+    <row r="130" spans="6:9" ht="18" customHeight="1">
+      <c r="G130" s="17" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="131" spans="6:9" ht="18" customHeight="1">
+      <c r="G131" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="132" spans="6:9" ht="18" customHeight="1">
+      <c r="G132" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="133" spans="6:9" ht="18" customHeight="1">
+      <c r="G133" s="17" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="134" spans="6:9" ht="18" customHeight="1">
+      <c r="G134" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="135" spans="6:9" ht="18" customHeight="1">
+      <c r="G135" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="136" spans="6:9" ht="18" customHeight="1">
+      <c r="G136" s="12" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="137" spans="6:9" ht="18" customHeight="1">
+      <c r="G137" s="12" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="138" spans="6:9" ht="18" customHeight="1">
+      <c r="G138" s="12" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="139" spans="6:9" ht="18" customHeight="1">
+      <c r="G139" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:A9"/>
+    <mergeCell ref="E25:U25"/>
+    <mergeCell ref="E35:U35"/>
+    <mergeCell ref="I26:U34"/>
+    <mergeCell ref="E26:H34"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{C31DED1B-C795-417C-9436-3B1C3D61F866}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{FE4FDA46-1C8A-493E-A5DB-381DB3E33CCF}"/>
+    <hyperlink ref="A1:A9" location="목차!A1" display="목차!A1" xr:uid="{7C485C04-C7CC-46CB-A035-00D597283FA4}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{E714B5FC-6A5D-4D0D-B8CA-37BFAC5A560D}"/>
+    <hyperlink ref="D1" r:id="rId4" xr:uid="{41A55594-81F2-4152-8F35-77B4CBE56B9F}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{AB276AD4-74C6-4A96-B1E7-53ECC4AFAB95}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{6E5181F6-9ADA-4C37-841C-9B3D84B23678}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{92E4B1D9-4644-4AD5-B535-64255B1A058F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId8"/>
+  <drawing r:id="rId9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACAA1AF-35CA-46FA-BE57-24F1EBB09508}">
   <dimension ref="A1:U86"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Z89" sqref="Z89"/>
     </sheetView>
   </sheetViews>
@@ -12423,7 +16080,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE21597-3425-4D96-89ED-44A782BEDFA9}">
   <dimension ref="A1:X124"/>
   <sheetViews>
@@ -13072,7 +16729,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBB27A66-D63B-46A9-BA60-EF871E53836C}">
   <dimension ref="A1:AG526"/>
   <sheetViews>
@@ -13555,207 +17212,207 @@
       </c>
     </row>
     <row r="103" spans="5:27" ht="18" customHeight="1">
-      <c r="E103" s="76" t="s">
+      <c r="E103" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="F103" s="76"/>
-      <c r="G103" s="76"/>
-      <c r="H103" s="76"/>
-      <c r="I103" s="76"/>
-      <c r="J103" s="76" t="s">
+      <c r="F103" s="74"/>
+      <c r="G103" s="74"/>
+      <c r="H103" s="74"/>
+      <c r="I103" s="74"/>
+      <c r="J103" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="K103" s="76"/>
-      <c r="L103" s="76"/>
-      <c r="M103" s="76"/>
-      <c r="N103" s="76"/>
-      <c r="O103" s="76"/>
-      <c r="P103" s="76"/>
-      <c r="Q103" s="76"/>
-      <c r="R103" s="76"/>
-      <c r="S103" s="76"/>
-      <c r="T103" s="76"/>
-      <c r="U103" s="76"/>
-      <c r="V103" s="76"/>
-      <c r="W103" s="76"/>
-      <c r="X103" s="76"/>
-      <c r="Y103" s="76"/>
-      <c r="Z103" s="76"/>
-      <c r="AA103" s="76"/>
+      <c r="K103" s="74"/>
+      <c r="L103" s="74"/>
+      <c r="M103" s="74"/>
+      <c r="N103" s="74"/>
+      <c r="O103" s="74"/>
+      <c r="P103" s="74"/>
+      <c r="Q103" s="74"/>
+      <c r="R103" s="74"/>
+      <c r="S103" s="74"/>
+      <c r="T103" s="74"/>
+      <c r="U103" s="74"/>
+      <c r="V103" s="74"/>
+      <c r="W103" s="74"/>
+      <c r="X103" s="74"/>
+      <c r="Y103" s="74"/>
+      <c r="Z103" s="74"/>
+      <c r="AA103" s="74"/>
     </row>
     <row r="104" spans="5:27" ht="18" customHeight="1">
-      <c r="E104" s="78" t="s">
+      <c r="E104" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="F104" s="78"/>
-      <c r="G104" s="78"/>
-      <c r="H104" s="78"/>
-      <c r="I104" s="78"/>
-      <c r="J104" s="77" t="s">
+      <c r="F104" s="72"/>
+      <c r="G104" s="72"/>
+      <c r="H104" s="72"/>
+      <c r="I104" s="72"/>
+      <c r="J104" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="K104" s="77"/>
-      <c r="L104" s="77"/>
-      <c r="M104" s="77"/>
-      <c r="N104" s="77"/>
-      <c r="O104" s="77"/>
-      <c r="P104" s="77"/>
-      <c r="Q104" s="77"/>
-      <c r="R104" s="77"/>
-      <c r="S104" s="77"/>
-      <c r="T104" s="77"/>
-      <c r="U104" s="77"/>
-      <c r="V104" s="77"/>
-      <c r="W104" s="77"/>
-      <c r="X104" s="77"/>
-      <c r="Y104" s="77"/>
-      <c r="Z104" s="77"/>
-      <c r="AA104" s="77"/>
+      <c r="K104" s="73"/>
+      <c r="L104" s="73"/>
+      <c r="M104" s="73"/>
+      <c r="N104" s="73"/>
+      <c r="O104" s="73"/>
+      <c r="P104" s="73"/>
+      <c r="Q104" s="73"/>
+      <c r="R104" s="73"/>
+      <c r="S104" s="73"/>
+      <c r="T104" s="73"/>
+      <c r="U104" s="73"/>
+      <c r="V104" s="73"/>
+      <c r="W104" s="73"/>
+      <c r="X104" s="73"/>
+      <c r="Y104" s="73"/>
+      <c r="Z104" s="73"/>
+      <c r="AA104" s="73"/>
     </row>
     <row r="105" spans="5:27" ht="18" customHeight="1">
-      <c r="E105" s="78" t="s">
+      <c r="E105" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="F105" s="78"/>
-      <c r="G105" s="78"/>
-      <c r="H105" s="78"/>
-      <c r="I105" s="78"/>
-      <c r="J105" s="77" t="s">
+      <c r="F105" s="72"/>
+      <c r="G105" s="72"/>
+      <c r="H105" s="72"/>
+      <c r="I105" s="72"/>
+      <c r="J105" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="K105" s="77"/>
-      <c r="L105" s="77"/>
-      <c r="M105" s="77"/>
-      <c r="N105" s="77"/>
-      <c r="O105" s="77"/>
-      <c r="P105" s="77"/>
-      <c r="Q105" s="77"/>
-      <c r="R105" s="77"/>
-      <c r="S105" s="77"/>
-      <c r="T105" s="77"/>
-      <c r="U105" s="77"/>
-      <c r="V105" s="77"/>
-      <c r="W105" s="77"/>
-      <c r="X105" s="77"/>
-      <c r="Y105" s="77"/>
-      <c r="Z105" s="77"/>
-      <c r="AA105" s="77"/>
+      <c r="K105" s="73"/>
+      <c r="L105" s="73"/>
+      <c r="M105" s="73"/>
+      <c r="N105" s="73"/>
+      <c r="O105" s="73"/>
+      <c r="P105" s="73"/>
+      <c r="Q105" s="73"/>
+      <c r="R105" s="73"/>
+      <c r="S105" s="73"/>
+      <c r="T105" s="73"/>
+      <c r="U105" s="73"/>
+      <c r="V105" s="73"/>
+      <c r="W105" s="73"/>
+      <c r="X105" s="73"/>
+      <c r="Y105" s="73"/>
+      <c r="Z105" s="73"/>
+      <c r="AA105" s="73"/>
     </row>
     <row r="106" spans="5:27" ht="18" customHeight="1">
-      <c r="E106" s="78" t="s">
+      <c r="E106" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="F106" s="78"/>
-      <c r="G106" s="78"/>
-      <c r="H106" s="78"/>
-      <c r="I106" s="78"/>
-      <c r="J106" s="77" t="s">
+      <c r="F106" s="72"/>
+      <c r="G106" s="72"/>
+      <c r="H106" s="72"/>
+      <c r="I106" s="72"/>
+      <c r="J106" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="K106" s="77"/>
-      <c r="L106" s="77"/>
-      <c r="M106" s="77"/>
-      <c r="N106" s="77"/>
-      <c r="O106" s="77"/>
-      <c r="P106" s="77"/>
-      <c r="Q106" s="77"/>
-      <c r="R106" s="77"/>
-      <c r="S106" s="77"/>
-      <c r="T106" s="77"/>
-      <c r="U106" s="77"/>
-      <c r="V106" s="77"/>
-      <c r="W106" s="77"/>
-      <c r="X106" s="77"/>
-      <c r="Y106" s="77"/>
-      <c r="Z106" s="77"/>
-      <c r="AA106" s="77"/>
+      <c r="K106" s="73"/>
+      <c r="L106" s="73"/>
+      <c r="M106" s="73"/>
+      <c r="N106" s="73"/>
+      <c r="O106" s="73"/>
+      <c r="P106" s="73"/>
+      <c r="Q106" s="73"/>
+      <c r="R106" s="73"/>
+      <c r="S106" s="73"/>
+      <c r="T106" s="73"/>
+      <c r="U106" s="73"/>
+      <c r="V106" s="73"/>
+      <c r="W106" s="73"/>
+      <c r="X106" s="73"/>
+      <c r="Y106" s="73"/>
+      <c r="Z106" s="73"/>
+      <c r="AA106" s="73"/>
     </row>
     <row r="107" spans="5:27" ht="18" customHeight="1">
-      <c r="E107" s="78" t="s">
+      <c r="E107" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="F107" s="78"/>
-      <c r="G107" s="78"/>
-      <c r="H107" s="78"/>
-      <c r="I107" s="78"/>
-      <c r="J107" s="77" t="s">
+      <c r="F107" s="72"/>
+      <c r="G107" s="72"/>
+      <c r="H107" s="72"/>
+      <c r="I107" s="72"/>
+      <c r="J107" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="K107" s="77"/>
-      <c r="L107" s="77"/>
-      <c r="M107" s="77"/>
-      <c r="N107" s="77"/>
-      <c r="O107" s="77"/>
-      <c r="P107" s="77"/>
-      <c r="Q107" s="77"/>
-      <c r="R107" s="77"/>
-      <c r="S107" s="77"/>
-      <c r="T107" s="77"/>
-      <c r="U107" s="77"/>
-      <c r="V107" s="77"/>
-      <c r="W107" s="77"/>
-      <c r="X107" s="77"/>
-      <c r="Y107" s="77"/>
-      <c r="Z107" s="77"/>
-      <c r="AA107" s="77"/>
+      <c r="K107" s="73"/>
+      <c r="L107" s="73"/>
+      <c r="M107" s="73"/>
+      <c r="N107" s="73"/>
+      <c r="O107" s="73"/>
+      <c r="P107" s="73"/>
+      <c r="Q107" s="73"/>
+      <c r="R107" s="73"/>
+      <c r="S107" s="73"/>
+      <c r="T107" s="73"/>
+      <c r="U107" s="73"/>
+      <c r="V107" s="73"/>
+      <c r="W107" s="73"/>
+      <c r="X107" s="73"/>
+      <c r="Y107" s="73"/>
+      <c r="Z107" s="73"/>
+      <c r="AA107" s="73"/>
     </row>
     <row r="108" spans="5:27" ht="18" customHeight="1">
-      <c r="E108" s="78" t="s">
+      <c r="E108" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="F108" s="78"/>
-      <c r="G108" s="78"/>
-      <c r="H108" s="78"/>
-      <c r="I108" s="78"/>
-      <c r="J108" s="77" t="s">
+      <c r="F108" s="72"/>
+      <c r="G108" s="72"/>
+      <c r="H108" s="72"/>
+      <c r="I108" s="72"/>
+      <c r="J108" s="73" t="s">
         <v>78</v>
       </c>
-      <c r="K108" s="77"/>
-      <c r="L108" s="77"/>
-      <c r="M108" s="77"/>
-      <c r="N108" s="77"/>
-      <c r="O108" s="77"/>
-      <c r="P108" s="77"/>
-      <c r="Q108" s="77"/>
-      <c r="R108" s="77"/>
-      <c r="S108" s="77"/>
-      <c r="T108" s="77"/>
-      <c r="U108" s="77"/>
-      <c r="V108" s="77"/>
-      <c r="W108" s="77"/>
-      <c r="X108" s="77"/>
-      <c r="Y108" s="77"/>
-      <c r="Z108" s="77"/>
-      <c r="AA108" s="77"/>
+      <c r="K108" s="73"/>
+      <c r="L108" s="73"/>
+      <c r="M108" s="73"/>
+      <c r="N108" s="73"/>
+      <c r="O108" s="73"/>
+      <c r="P108" s="73"/>
+      <c r="Q108" s="73"/>
+      <c r="R108" s="73"/>
+      <c r="S108" s="73"/>
+      <c r="T108" s="73"/>
+      <c r="U108" s="73"/>
+      <c r="V108" s="73"/>
+      <c r="W108" s="73"/>
+      <c r="X108" s="73"/>
+      <c r="Y108" s="73"/>
+      <c r="Z108" s="73"/>
+      <c r="AA108" s="73"/>
     </row>
     <row r="109" spans="5:27" ht="18" customHeight="1">
-      <c r="E109" s="78" t="s">
+      <c r="E109" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="F109" s="78"/>
-      <c r="G109" s="78"/>
-      <c r="H109" s="78"/>
-      <c r="I109" s="78"/>
-      <c r="J109" s="77" t="s">
+      <c r="F109" s="72"/>
+      <c r="G109" s="72"/>
+      <c r="H109" s="72"/>
+      <c r="I109" s="72"/>
+      <c r="J109" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="K109" s="77"/>
-      <c r="L109" s="77"/>
-      <c r="M109" s="77"/>
-      <c r="N109" s="77"/>
-      <c r="O109" s="77"/>
-      <c r="P109" s="77"/>
-      <c r="Q109" s="77"/>
-      <c r="R109" s="77"/>
-      <c r="S109" s="77"/>
-      <c r="T109" s="77"/>
-      <c r="U109" s="77"/>
-      <c r="V109" s="77"/>
-      <c r="W109" s="77"/>
-      <c r="X109" s="77"/>
-      <c r="Y109" s="77"/>
-      <c r="Z109" s="77"/>
-      <c r="AA109" s="77"/>
+      <c r="K109" s="73"/>
+      <c r="L109" s="73"/>
+      <c r="M109" s="73"/>
+      <c r="N109" s="73"/>
+      <c r="O109" s="73"/>
+      <c r="P109" s="73"/>
+      <c r="Q109" s="73"/>
+      <c r="R109" s="73"/>
+      <c r="S109" s="73"/>
+      <c r="T109" s="73"/>
+      <c r="U109" s="73"/>
+      <c r="V109" s="73"/>
+      <c r="W109" s="73"/>
+      <c r="X109" s="73"/>
+      <c r="Y109" s="73"/>
+      <c r="Z109" s="73"/>
+      <c r="AA109" s="73"/>
     </row>
     <row r="110" spans="5:27" ht="18" customHeight="1">
       <c r="E110" s="21"/>
@@ -14501,179 +18158,179 @@
       </c>
     </row>
     <row r="266" spans="4:33" ht="18" customHeight="1">
-      <c r="E266" s="76" t="s">
+      <c r="E266" s="74" t="s">
         <v>172</v>
       </c>
-      <c r="F266" s="76"/>
-      <c r="G266" s="76"/>
-      <c r="H266" s="76"/>
-      <c r="I266" s="76"/>
-      <c r="J266" s="76"/>
-      <c r="K266" s="76"/>
-      <c r="L266" s="76" t="s">
+      <c r="F266" s="74"/>
+      <c r="G266" s="74"/>
+      <c r="H266" s="74"/>
+      <c r="I266" s="74"/>
+      <c r="J266" s="74"/>
+      <c r="K266" s="74"/>
+      <c r="L266" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="M266" s="76"/>
-      <c r="N266" s="76"/>
-      <c r="O266" s="76"/>
-      <c r="P266" s="76"/>
-      <c r="Q266" s="76"/>
-      <c r="R266" s="76"/>
-      <c r="S266" s="76"/>
-      <c r="T266" s="76"/>
-      <c r="U266" s="76"/>
-      <c r="V266" s="76"/>
-      <c r="W266" s="76"/>
-      <c r="X266" s="76"/>
-      <c r="Y266" s="76"/>
-      <c r="Z266" s="76"/>
-      <c r="AA266" s="76"/>
-      <c r="AB266" s="76"/>
-      <c r="AC266" s="76"/>
-      <c r="AD266" s="76"/>
-      <c r="AE266" s="76"/>
-      <c r="AF266" s="76"/>
-      <c r="AG266" s="76"/>
+      <c r="M266" s="74"/>
+      <c r="N266" s="74"/>
+      <c r="O266" s="74"/>
+      <c r="P266" s="74"/>
+      <c r="Q266" s="74"/>
+      <c r="R266" s="74"/>
+      <c r="S266" s="74"/>
+      <c r="T266" s="74"/>
+      <c r="U266" s="74"/>
+      <c r="V266" s="74"/>
+      <c r="W266" s="74"/>
+      <c r="X266" s="74"/>
+      <c r="Y266" s="74"/>
+      <c r="Z266" s="74"/>
+      <c r="AA266" s="74"/>
+      <c r="AB266" s="74"/>
+      <c r="AC266" s="74"/>
+      <c r="AD266" s="74"/>
+      <c r="AE266" s="74"/>
+      <c r="AF266" s="74"/>
+      <c r="AG266" s="74"/>
     </row>
     <row r="267" spans="4:33" ht="18" customHeight="1">
-      <c r="E267" s="72" t="s">
+      <c r="E267" s="75" t="s">
         <v>173</v>
       </c>
-      <c r="F267" s="72"/>
-      <c r="G267" s="72"/>
-      <c r="H267" s="72"/>
-      <c r="I267" s="72"/>
-      <c r="J267" s="72"/>
-      <c r="K267" s="72"/>
-      <c r="L267" s="77" t="s">
+      <c r="F267" s="75"/>
+      <c r="G267" s="75"/>
+      <c r="H267" s="75"/>
+      <c r="I267" s="75"/>
+      <c r="J267" s="75"/>
+      <c r="K267" s="75"/>
+      <c r="L267" s="73" t="s">
         <v>174</v>
       </c>
-      <c r="M267" s="77"/>
-      <c r="N267" s="77"/>
-      <c r="O267" s="77"/>
-      <c r="P267" s="77"/>
-      <c r="Q267" s="77"/>
-      <c r="R267" s="77"/>
-      <c r="S267" s="77"/>
-      <c r="T267" s="77"/>
-      <c r="U267" s="77"/>
-      <c r="V267" s="77"/>
-      <c r="W267" s="77"/>
-      <c r="X267" s="77"/>
-      <c r="Y267" s="77"/>
-      <c r="Z267" s="77"/>
-      <c r="AA267" s="77"/>
-      <c r="AB267" s="77"/>
-      <c r="AC267" s="77"/>
-      <c r="AD267" s="77"/>
-      <c r="AE267" s="77"/>
-      <c r="AF267" s="77"/>
-      <c r="AG267" s="77"/>
+      <c r="M267" s="73"/>
+      <c r="N267" s="73"/>
+      <c r="O267" s="73"/>
+      <c r="P267" s="73"/>
+      <c r="Q267" s="73"/>
+      <c r="R267" s="73"/>
+      <c r="S267" s="73"/>
+      <c r="T267" s="73"/>
+      <c r="U267" s="73"/>
+      <c r="V267" s="73"/>
+      <c r="W267" s="73"/>
+      <c r="X267" s="73"/>
+      <c r="Y267" s="73"/>
+      <c r="Z267" s="73"/>
+      <c r="AA267" s="73"/>
+      <c r="AB267" s="73"/>
+      <c r="AC267" s="73"/>
+      <c r="AD267" s="73"/>
+      <c r="AE267" s="73"/>
+      <c r="AF267" s="73"/>
+      <c r="AG267" s="73"/>
     </row>
     <row r="268" spans="4:33" ht="18" customHeight="1">
-      <c r="E268" s="72" t="s">
+      <c r="E268" s="75" t="s">
         <v>175</v>
       </c>
-      <c r="F268" s="72"/>
-      <c r="G268" s="72"/>
-      <c r="H268" s="72"/>
-      <c r="I268" s="72"/>
-      <c r="J268" s="72"/>
-      <c r="K268" s="72"/>
-      <c r="L268" s="77" t="s">
+      <c r="F268" s="75"/>
+      <c r="G268" s="75"/>
+      <c r="H268" s="75"/>
+      <c r="I268" s="75"/>
+      <c r="J268" s="75"/>
+      <c r="K268" s="75"/>
+      <c r="L268" s="73" t="s">
         <v>176</v>
       </c>
-      <c r="M268" s="77"/>
-      <c r="N268" s="77"/>
-      <c r="O268" s="77"/>
-      <c r="P268" s="77"/>
-      <c r="Q268" s="77"/>
-      <c r="R268" s="77"/>
-      <c r="S268" s="77"/>
-      <c r="T268" s="77"/>
-      <c r="U268" s="77"/>
-      <c r="V268" s="77"/>
-      <c r="W268" s="77"/>
-      <c r="X268" s="77"/>
-      <c r="Y268" s="77"/>
-      <c r="Z268" s="77"/>
-      <c r="AA268" s="77"/>
-      <c r="AB268" s="77"/>
-      <c r="AC268" s="77"/>
-      <c r="AD268" s="77"/>
-      <c r="AE268" s="77"/>
-      <c r="AF268" s="77"/>
-      <c r="AG268" s="77"/>
+      <c r="M268" s="73"/>
+      <c r="N268" s="73"/>
+      <c r="O268" s="73"/>
+      <c r="P268" s="73"/>
+      <c r="Q268" s="73"/>
+      <c r="R268" s="73"/>
+      <c r="S268" s="73"/>
+      <c r="T268" s="73"/>
+      <c r="U268" s="73"/>
+      <c r="V268" s="73"/>
+      <c r="W268" s="73"/>
+      <c r="X268" s="73"/>
+      <c r="Y268" s="73"/>
+      <c r="Z268" s="73"/>
+      <c r="AA268" s="73"/>
+      <c r="AB268" s="73"/>
+      <c r="AC268" s="73"/>
+      <c r="AD268" s="73"/>
+      <c r="AE268" s="73"/>
+      <c r="AF268" s="73"/>
+      <c r="AG268" s="73"/>
     </row>
     <row r="269" spans="4:33" ht="18" customHeight="1">
-      <c r="E269" s="72" t="s">
+      <c r="E269" s="75" t="s">
         <v>177</v>
       </c>
-      <c r="F269" s="72"/>
-      <c r="G269" s="72"/>
-      <c r="H269" s="72"/>
-      <c r="I269" s="72"/>
-      <c r="J269" s="72"/>
-      <c r="K269" s="72"/>
-      <c r="L269" s="73" t="s">
+      <c r="F269" s="75"/>
+      <c r="G269" s="75"/>
+      <c r="H269" s="75"/>
+      <c r="I269" s="75"/>
+      <c r="J269" s="75"/>
+      <c r="K269" s="75"/>
+      <c r="L269" s="76" t="s">
         <v>180</v>
       </c>
-      <c r="M269" s="74"/>
-      <c r="N269" s="74"/>
-      <c r="O269" s="74"/>
-      <c r="P269" s="74"/>
-      <c r="Q269" s="74"/>
-      <c r="R269" s="74"/>
-      <c r="S269" s="74"/>
-      <c r="T269" s="74"/>
-      <c r="U269" s="74"/>
-      <c r="V269" s="74"/>
-      <c r="W269" s="74"/>
-      <c r="X269" s="74"/>
-      <c r="Y269" s="74"/>
-      <c r="Z269" s="74"/>
-      <c r="AA269" s="74"/>
-      <c r="AB269" s="74"/>
-      <c r="AC269" s="74"/>
-      <c r="AD269" s="74"/>
-      <c r="AE269" s="74"/>
-      <c r="AF269" s="74"/>
-      <c r="AG269" s="75"/>
+      <c r="M269" s="77"/>
+      <c r="N269" s="77"/>
+      <c r="O269" s="77"/>
+      <c r="P269" s="77"/>
+      <c r="Q269" s="77"/>
+      <c r="R269" s="77"/>
+      <c r="S269" s="77"/>
+      <c r="T269" s="77"/>
+      <c r="U269" s="77"/>
+      <c r="V269" s="77"/>
+      <c r="W269" s="77"/>
+      <c r="X269" s="77"/>
+      <c r="Y269" s="77"/>
+      <c r="Z269" s="77"/>
+      <c r="AA269" s="77"/>
+      <c r="AB269" s="77"/>
+      <c r="AC269" s="77"/>
+      <c r="AD269" s="77"/>
+      <c r="AE269" s="77"/>
+      <c r="AF269" s="77"/>
+      <c r="AG269" s="78"/>
     </row>
     <row r="270" spans="4:33" ht="18" customHeight="1">
-      <c r="E270" s="72" t="s">
+      <c r="E270" s="75" t="s">
         <v>178</v>
       </c>
-      <c r="F270" s="72"/>
-      <c r="G270" s="72"/>
-      <c r="H270" s="72"/>
-      <c r="I270" s="72"/>
-      <c r="J270" s="72"/>
-      <c r="K270" s="72"/>
-      <c r="L270" s="73" t="s">
+      <c r="F270" s="75"/>
+      <c r="G270" s="75"/>
+      <c r="H270" s="75"/>
+      <c r="I270" s="75"/>
+      <c r="J270" s="75"/>
+      <c r="K270" s="75"/>
+      <c r="L270" s="76" t="s">
         <v>179</v>
       </c>
-      <c r="M270" s="74"/>
-      <c r="N270" s="74"/>
-      <c r="O270" s="74"/>
-      <c r="P270" s="74"/>
-      <c r="Q270" s="74"/>
-      <c r="R270" s="74"/>
-      <c r="S270" s="74"/>
-      <c r="T270" s="74"/>
-      <c r="U270" s="74"/>
-      <c r="V270" s="74"/>
-      <c r="W270" s="74"/>
-      <c r="X270" s="74"/>
-      <c r="Y270" s="74"/>
-      <c r="Z270" s="74"/>
-      <c r="AA270" s="74"/>
-      <c r="AB270" s="74"/>
-      <c r="AC270" s="74"/>
-      <c r="AD270" s="74"/>
-      <c r="AE270" s="74"/>
-      <c r="AF270" s="74"/>
-      <c r="AG270" s="75"/>
+      <c r="M270" s="77"/>
+      <c r="N270" s="77"/>
+      <c r="O270" s="77"/>
+      <c r="P270" s="77"/>
+      <c r="Q270" s="77"/>
+      <c r="R270" s="77"/>
+      <c r="S270" s="77"/>
+      <c r="T270" s="77"/>
+      <c r="U270" s="77"/>
+      <c r="V270" s="77"/>
+      <c r="W270" s="77"/>
+      <c r="X270" s="77"/>
+      <c r="Y270" s="77"/>
+      <c r="Z270" s="77"/>
+      <c r="AA270" s="77"/>
+      <c r="AB270" s="77"/>
+      <c r="AC270" s="77"/>
+      <c r="AD270" s="77"/>
+      <c r="AE270" s="77"/>
+      <c r="AF270" s="77"/>
+      <c r="AG270" s="78"/>
     </row>
     <row r="272" spans="4:33" ht="18" customHeight="1">
       <c r="E272" s="17" t="s">
@@ -16206,6 +19863,16 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="E269:K269"/>
+    <mergeCell ref="L269:AG269"/>
+    <mergeCell ref="E270:K270"/>
+    <mergeCell ref="L270:AG270"/>
+    <mergeCell ref="E266:K266"/>
+    <mergeCell ref="L266:AG266"/>
+    <mergeCell ref="E267:K267"/>
+    <mergeCell ref="L267:AG267"/>
+    <mergeCell ref="E268:K268"/>
+    <mergeCell ref="L268:AG268"/>
     <mergeCell ref="E109:I109"/>
     <mergeCell ref="J109:AA109"/>
     <mergeCell ref="A1:A9"/>
@@ -16221,16 +19888,6 @@
     <mergeCell ref="J107:AA107"/>
     <mergeCell ref="E108:I108"/>
     <mergeCell ref="J108:AA108"/>
-    <mergeCell ref="E269:K269"/>
-    <mergeCell ref="L269:AG269"/>
-    <mergeCell ref="E270:K270"/>
-    <mergeCell ref="L270:AG270"/>
-    <mergeCell ref="E266:K266"/>
-    <mergeCell ref="L266:AG266"/>
-    <mergeCell ref="E267:K267"/>
-    <mergeCell ref="L267:AG267"/>
-    <mergeCell ref="E268:K268"/>
-    <mergeCell ref="L268:AG268"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
